--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -194,7 +194,7 @@
     <t>4006</t>
   </si>
   <si>
-    <t>10</t>
+    <t>70</t>
   </si>
   <si>
     <t>2023-09-29</t>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -23,19 +23,6 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
@@ -50,15 +37,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1 普通道具
-2，装备
-3，技能书
-5，材料
-6，buff</t>
+格式为</t>
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,34 +85,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-格式为</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>_id</t>
   </si>
@@ -137,18 +98,15 @@
     <t>掉落名称</t>
   </si>
   <si>
-    <t>掉落数量</t>
-  </si>
-  <si>
-    <t>道具类型</t>
-  </si>
-  <si>
     <t>掉落Id</t>
   </si>
   <si>
     <t>掉落概率</t>
   </si>
   <si>
+    <t>享受爆率加成</t>
+  </si>
+  <si>
     <t>开始日期</t>
   </si>
   <si>
@@ -161,18 +119,15 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>ItemType</t>
-  </si>
-  <si>
-    <t>ItemId</t>
+    <t>DropId</t>
   </si>
   <si>
     <t>Rate</t>
   </si>
   <si>
+    <t>ShareRise</t>
+  </si>
+  <si>
     <t>StartDate</t>
   </si>
   <si>
@@ -188,10 +143,7 @@
     <t>中秋活动月饼</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4006</t>
+    <t>1001</t>
   </si>
   <si>
     <t>70</t>
@@ -201,6 +153,39 @@
   </si>
   <si>
     <t>2023-10-07</t>
+  </si>
+  <si>
+    <t>第一批冠名图鉴</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>2023-10-21</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>第一批白绿图鉴</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>第一批蓝紫图鉴</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>15000</t>
   </si>
   <si>
     <t>S</t>
@@ -216,7 +201,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +213,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -382,12 +373,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -717,151 +708,156 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1181,10 +1177,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1192,202 +1188,262 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="1" customWidth="1"/>
-    <col min="7" max="8" width="22" style="2" customWidth="1"/>
-    <col min="9" max="10" width="20.625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="5" max="7" width="22" style="4" customWidth="1"/>
+    <col min="8" max="9" width="20.625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="7:10">
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="3:10">
-      <c r="C2" s="3"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="3:10">
-      <c r="C3" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="5:9">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="3:9">
+      <c r="C2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:9">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="5" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:9">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:10">
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="5" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:9">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:10">
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="24" customHeight="1" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6">
+      <c r="F6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="24" customHeight="1" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" customFormat="1" ht="24" customHeight="1" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" customFormat="1" ht="24" customHeight="1" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" customFormat="1" ht="24" customHeight="1" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" customFormat="1" ht="24" customHeight="1" spans="1:2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" customFormat="1" ht="24" customHeight="1" spans="1:2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" customFormat="1" ht="24" customHeight="1" spans="1:2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" customFormat="1" ht="24" customHeight="1" spans="1:2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" customFormat="1" ht="24" customHeight="1" spans="1:2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" customFormat="1" ht="24" customHeight="1" spans="1:2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" customFormat="1" ht="24" customHeight="1" spans="1:2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" customFormat="1" ht="24" customHeight="1" spans="1:2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="22" spans="9:10">
-      <c r="I22" s="2" t="s">
+      <c r="H8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="I8" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2">
+        <v>101</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>24</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2">
+        <v>102</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="1:2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="1:2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="1:2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="1:2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="1:2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="1:2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="1:2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="18" customHeight="1" spans="5:9">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="18" customHeight="1" spans="5:9">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="18" customHeight="1" spans="5:9">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="18" customHeight="1" spans="5:9">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -838,10 +838,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -853,7 +852,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
@@ -1177,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="C1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1188,261 +1186,230 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="22" style="4" customWidth="1"/>
-    <col min="8" max="9" width="20.625" style="4" customWidth="1"/>
+    <col min="5" max="7" width="22" style="3" customWidth="1"/>
+    <col min="8" max="9" width="20.625" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="5:9">
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="3:9">
-      <c r="C2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="3:9">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="3:9">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="3:9">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:9">
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>0</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="5:9">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:9">
       <c r="C8" s="2">
         <v>100</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>1</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:9">
       <c r="C9" s="2">
         <v>101</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:9">
       <c r="C10" s="2">
         <v>102</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>1</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="1:2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="14" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="15" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="16" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="17" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="5:9">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="1:2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="5:9">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="1:2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="5:9">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="1:2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="1:2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="1:2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" s="3" customFormat="1" ht="18" customHeight="1" spans="5:9">
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" s="3" customFormat="1" ht="18" customHeight="1" spans="5:9">
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" s="3" customFormat="1" ht="18" customHeight="1" spans="5:9">
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="18" customHeight="1" spans="5:9">
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10" t="s">
+    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="5:9">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="8" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -19,29 +19,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-格式为</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,12 +63,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+格式为</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>_id</t>
   </si>
@@ -98,6 +98,9 @@
     <t>掉落名称</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>掉落Id</t>
   </si>
   <si>
@@ -186,6 +189,18 @@
   </si>
   <si>
     <t>15000</t>
+  </si>
+  <si>
+    <t>守沙100书页</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>守沙图鉴</t>
+  </si>
+  <si>
+    <t>2004</t>
   </si>
   <si>
     <t>S</t>
@@ -1175,45 +1190,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:I21"/>
+  <dimension ref="C1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="22" style="3" customWidth="1"/>
-    <col min="8" max="9" width="20.625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="22" style="3" customWidth="1"/>
+    <col min="9" max="10" width="20.625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="5:9">
-      <c r="E1" s="3"/>
+    <row r="1" s="1" customFormat="1" spans="6:10">
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="3:9">
+    <row r="2" s="1" customFormat="1" spans="3:10">
       <c r="C2" s="4"/>
-      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="3:9">
+    <row r="3" s="1" customFormat="1" spans="3:10">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1228,16 +1243,19 @@
       <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="J3" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:9">
+    <row r="4" s="1" customFormat="1" spans="3:10">
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
@@ -1251,166 +1269,234 @@
       <c r="I4" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="J4" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="3:9">
+    <row r="5" s="1" customFormat="1" spans="3:10">
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:9">
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>0</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="J6" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="5:9">
-      <c r="E7" s="7"/>
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="6:10">
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:9">
+    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C8" s="2">
         <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="J8" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:9">
+    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C9" s="2">
         <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="J9" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:9">
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C10" s="2">
         <v>102</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="J10" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:10">
+      <c r="C12" s="2">
+        <v>201</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2">
+        <v>100</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:10">
+      <c r="C13" s="2">
+        <v>202</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2">
+        <v>100</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="14" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="15" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="16" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="17" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="5:9">
-      <c r="E18" s="8"/>
+    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="6:10">
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="5:9">
-      <c r="E19" s="8"/>
+    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="6:10">
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="5:9">
-      <c r="E20" s="8"/>
+    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="6:10">
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="5:9">
-      <c r="E21" s="8"/>
+    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="6:10">
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="H21" s="8"/>
       <c r="I21" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>_id</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>2004</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1190,7 @@
   <dimension ref="C1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1492,12 +1489,8 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>_id</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>2004</t>
+  </si>
+  <si>
+    <t>镜像挑战</t>
+  </si>
+  <si>
+    <t>4008</t>
   </si>
 </sst>
 </file>
@@ -385,12 +391,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1190,7 +1196,7 @@
   <dimension ref="C1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1461,7 +1467,32 @@
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="15" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:10">
+      <c r="C15" s="2">
+        <v>301</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2">
+        <v>99</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="16" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="17" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="6:10">

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -206,7 +206,7 @@
     <t>镜像挑战</t>
   </si>
   <si>
-    <t>4008</t>
+    <t>1003</t>
   </si>
 </sst>
 </file>
@@ -391,12 +391,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1196,7 +1196,7 @@
   <dimension ref="C1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -143,7 +156,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>中秋活动月饼</t>
+    <t>元旦活动</t>
   </si>
   <si>
     <t>1001</t>
@@ -152,10 +165,10 @@
     <t>70</t>
   </si>
   <si>
-    <t>2023-09-29</t>
-  </si>
-  <si>
-    <t>2023-10-07</t>
+    <t>2023-12-30</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
   </si>
   <si>
     <t>第一批冠名图鉴</t>
@@ -212,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -391,12 +404,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1196,7 +1209,7 @@
   <dimension ref="C1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -404,12 +404,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1209,7 +1209,7 @@
   <dimension ref="C1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1323,7 +1323,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>18</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -168,7 +168,7 @@
     <t>2023-12-30</t>
   </si>
   <si>
-    <t>2024-01-01</t>
+    <t>2024-01-02</t>
   </si>
   <si>
     <t>第一批冠名图鉴</t>
@@ -1209,7 +1209,7 @@
   <dimension ref="C1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>_id</t>
   </si>
@@ -123,6 +123,9 @@
     <t>享受爆率加成</t>
   </si>
   <si>
+    <t>起始爆率</t>
+  </si>
+  <si>
     <t>开始日期</t>
   </si>
   <si>
@@ -144,6 +147,9 @@
     <t>ShareRise</t>
   </si>
   <si>
+    <t>StartRate</t>
+  </si>
+  <si>
     <t>StartDate</t>
   </si>
   <si>
@@ -204,6 +210,15 @@
     <t>15000</t>
   </si>
   <si>
+    <t>第一时装</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>守沙100书页</t>
   </si>
   <si>
@@ -214,6 +229,9 @@
   </si>
   <si>
     <t>2004</t>
+  </si>
+  <si>
+    <t>守沙时装</t>
   </si>
   <si>
     <t>镜像挑战</t>
@@ -1206,38 +1224,42 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:J21"/>
+  <dimension ref="C1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="22" style="3" customWidth="1"/>
-    <col min="9" max="10" width="20.625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
+    <col min="7" max="9" width="17.875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="20.625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="6:10">
+    <row r="1" s="1" customFormat="1" spans="6:11">
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="3:10">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="3:11">
       <c r="C2" s="4"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="3:10">
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:11">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1262,209 +1284,234 @@
       <c r="J3" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:10">
+      <c r="K3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:11">
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:10">
+        <v>15</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:11">
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:10">
+        <v>18</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>20</v>
+      <c r="I6" s="7">
+        <v>0</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="6:10">
+        <v>22</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="6:11">
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:10">
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C8" s="2">
         <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>25</v>
+      <c r="I8" s="7">
+        <v>0</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:10">
+        <v>27</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C9" s="2">
         <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>25</v>
+      <c r="I9" s="7">
+        <v>0</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:10">
+        <v>27</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C10" s="2">
         <v>102</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>25</v>
+      <c r="I10" s="7">
+        <v>0</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:10">
-      <c r="C12" s="2">
+        <v>27</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
+      <c r="C11" s="2">
+        <v>103</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
+      <c r="C13" s="2">
         <v>201</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2">
-        <v>100</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:10">
-      <c r="C13" s="2">
-        <v>202</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2">
         <v>100</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -1472,26 +1519,57 @@
       <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>25</v>
+      <c r="I13" s="7">
+        <v>0</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:10">
+        <v>27</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
+      <c r="C14" s="2">
+        <v>202</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2">
+        <v>100</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C15" s="2">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -1499,42 +1577,82 @@
       <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>25</v>
+      <c r="I15" s="7">
+        <v>0</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="17" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="6:10">
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="6:10">
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="6:10">
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="6:10">
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+    <row r="18" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="19" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
+      <c r="C20" s="2">
+        <v>301</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="2">
+        <v>99</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="22" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="6:11">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="6:11">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="6:11">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="6:11">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>_id</t>
   </si>
@@ -216,7 +216,7 @@
     <t>3001</t>
   </si>
   <si>
-    <t>100</t>
+    <t>10000</t>
   </si>
   <si>
     <t>守沙100书页</t>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>守沙时装</t>
+  </si>
+  <si>
+    <t>3002</t>
   </si>
   <si>
     <t>镜像挑战</t>
@@ -1227,7 +1230,7 @@
   <dimension ref="C1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1237,7 +1240,9 @@
     <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
-    <col min="7" max="9" width="17.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="3" customWidth="1"/>
     <col min="10" max="11" width="20.625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
@@ -1569,7 +1574,7 @@
         <v>100</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -1596,13 +1601,13 @@
         <v>301</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2">
         <v>99</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>_id</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>3001</t>
-  </si>
-  <si>
-    <t>10000</t>
   </si>
   <si>
     <t>守沙100书页</t>
@@ -1230,7 +1227,7 @@
   <dimension ref="C1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1489,13 +1486,13 @@
         <v>36</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>27</v>
@@ -1510,13 +1507,13 @@
         <v>201</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2">
         <v>100</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -1539,13 +1536,13 @@
         <v>202</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2">
         <v>100</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -1568,13 +1565,13 @@
         <v>203</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2">
         <v>100</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -1601,13 +1598,13 @@
         <v>301</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2">
         <v>99</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>_id</t>
   </si>
@@ -214,6 +214,18 @@
   </si>
   <si>
     <t>3001</t>
+  </si>
+  <si>
+    <t>专属之心</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>10000</t>
   </si>
   <si>
     <t>守沙100书页</t>
@@ -1224,10 +1236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:K26"/>
+  <dimension ref="C1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1501,48 +1513,48 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
-      <c r="C13" s="2">
-        <v>201</v>
-      </c>
-      <c r="D13" s="2" t="s">
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
+      <c r="C12" s="2">
+        <v>104</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="2">
-        <v>100</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9" t="s">
+      <c r="G12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C14" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2">
         <v>100</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -1562,16 +1574,16 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C15" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2">
         <v>100</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -1589,49 +1601,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
+      <c r="C16" s="2">
+        <v>203</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2">
+        <v>100</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="17" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="18" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="19" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
-      <c r="C20" s="2">
+    <row r="20" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
+      <c r="C21" s="2">
         <v>301</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="2">
         <v>99</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="F21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9" t="s">
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K21" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="22" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="6:11">
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-    </row>
+    <row r="23" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="6:11">
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -1655,6 +1688,14 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="6:11">
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -162,19 +162,19 @@
     <t>string</t>
   </si>
   <si>
-    <t>元旦活动</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>2023-12-30</t>
-  </si>
-  <si>
-    <t>2024-01-02</t>
+    <t>春节活动</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2024-02-01</t>
+  </si>
+  <si>
+    <t>2024-02-18</t>
   </si>
   <si>
     <t>第一批冠名图鉴</t>
@@ -1239,7 +1239,7 @@
   <dimension ref="C1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>_id</t>
   </si>
@@ -226,6 +226,15 @@
   </si>
   <si>
     <t>10000</t>
+  </si>
+  <si>
+    <t>龙之图鉴</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>40000</t>
   </si>
   <si>
     <t>守沙100书页</t>
@@ -1236,10 +1245,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:K27"/>
+  <dimension ref="C1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1542,48 +1551,48 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
-      <c r="C14" s="2">
-        <v>201</v>
-      </c>
-      <c r="D14" s="2" t="s">
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
+      <c r="C13" s="2">
+        <v>105</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="2">
-        <v>100</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9" t="s">
+      <c r="I13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="14" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C15" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2">
         <v>100</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -1603,16 +1612,16 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C16" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2">
         <v>100</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -1630,49 +1639,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
+      <c r="C17" s="2">
+        <v>203</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="2">
+        <v>100</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="18" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="19" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="20" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
-      <c r="C21" s="2">
+    <row r="21" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
+      <c r="C22" s="2">
         <v>301</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2">
         <v>99</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="F22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9" t="s">
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K22" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="23" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="6:11">
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-    </row>
+    <row r="24" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="6:11">
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -1696,6 +1726,14 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="6:11">
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>_id</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>2005</t>
+  </si>
+  <si>
+    <t>80000</t>
   </si>
   <si>
     <t>40000</t>
@@ -1248,7 +1251,7 @@
   <dimension ref="C1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1571,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>27</v>
@@ -1586,13 +1589,13 @@
         <v>201</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2">
         <v>100</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -1615,13 +1618,13 @@
         <v>202</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2">
         <v>100</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -1644,13 +1647,13 @@
         <v>203</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2">
         <v>100</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -1677,13 +1680,13 @@
         <v>301</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2">
         <v>99</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -72,7 +72,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-格式为</t>
+2024-01-01是指从这天0点开始</t>
         </r>
       </text>
     </comment>
@@ -94,7 +94,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-格式为</t>
+2014-01-10 是指2014-01-09 23:59:59结束</t>
         </r>
       </text>
     </comment>
@@ -171,10 +171,10 @@
     <t>50</t>
   </si>
   <si>
-    <t>2024-02-01</t>
-  </si>
-  <si>
-    <t>2024-02-18</t>
+    <t>2024-02-07</t>
+  </si>
+  <si>
+    <t>2024-02-17</t>
   </si>
   <si>
     <t>第一批冠名图鉴</t>
@@ -1251,7 +1251,7 @@
   <dimension ref="C1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
+    <sheet name="地图专属掉落" sheetId="3" r:id="rId2"/>
+    <sheet name="地图红装掉落" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +78,159 @@
         </r>
       </text>
     </comment>
+    <comment ref="L3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2014-01-10 是指2014-01-09 23:59:59结束</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+格式为</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2024-01-01是指从这天0点开始</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2014-01-10 是指2014-01-09 23:59:59结束</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+格式为</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2024-01-01是指从这天0点开始</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="102">
   <si>
     <t>_id</t>
   </si>
@@ -114,6 +268,9 @@
     <t>Type</t>
   </si>
   <si>
+    <t>MapId</t>
+  </si>
+  <si>
     <t>掉落Id</t>
   </si>
   <si>
@@ -262,6 +419,150 @@
   </si>
   <si>
     <t>1003</t>
+  </si>
+  <si>
+    <t>沃玛宝剑</t>
+  </si>
+  <si>
+    <t>1400000</t>
+  </si>
+  <si>
+    <t>沃玛号角</t>
+  </si>
+  <si>
+    <t>1400001</t>
+  </si>
+  <si>
+    <t>祖玛号角</t>
+  </si>
+  <si>
+    <t>1400002</t>
+  </si>
+  <si>
+    <t>猪王之心</t>
+  </si>
+  <si>
+    <t>1400003</t>
+  </si>
+  <si>
+    <t>树妖之皮</t>
+  </si>
+  <si>
+    <t>1400004</t>
+  </si>
+  <si>
+    <t>虹魔宝典</t>
+  </si>
+  <si>
+    <t>1400005</t>
+  </si>
+  <si>
+    <t>尸王獠牙</t>
+  </si>
+  <si>
+    <t>1400006</t>
+  </si>
+  <si>
+    <t>黄泉法杖</t>
+  </si>
+  <si>
+    <t>1400007</t>
+  </si>
+  <si>
+    <t>牛魔权杖</t>
+  </si>
+  <si>
+    <t>1400008</t>
+  </si>
+  <si>
+    <t>金刚战锤</t>
+  </si>
+  <si>
+    <t>1400009</t>
+  </si>
+  <si>
+    <t>巨人拳套</t>
+  </si>
+  <si>
+    <t>1400010</t>
+  </si>
+  <si>
+    <t>幸运之心</t>
+  </si>
+  <si>
+    <t>1400011</t>
+  </si>
+  <si>
+    <t>魔龙宝甲</t>
+  </si>
+  <si>
+    <t>1400012</t>
+  </si>
+  <si>
+    <t>龙神之爪</t>
+  </si>
+  <si>
+    <t>1400013</t>
+  </si>
+  <si>
+    <t>梦魇鸡爪</t>
+  </si>
+  <si>
+    <t>1400014</t>
+  </si>
+  <si>
+    <t>梦魇鹿茸</t>
+  </si>
+  <si>
+    <t>1400015</t>
+  </si>
+  <si>
+    <t>梦魇草帽</t>
+  </si>
+  <si>
+    <t>1400016</t>
+  </si>
+  <si>
+    <t>梦魇猫爪</t>
+  </si>
+  <si>
+    <t>1400017</t>
+  </si>
+  <si>
+    <t>梦魇花朵</t>
+  </si>
+  <si>
+    <t>1400018</t>
+  </si>
+  <si>
+    <t>1介红装1</t>
+  </si>
+  <si>
+    <t>210000</t>
+  </si>
+  <si>
+    <t>1介红装2</t>
+  </si>
+  <si>
+    <t>210001</t>
+  </si>
+  <si>
+    <t>1介红装3</t>
+  </si>
+  <si>
+    <t>210002</t>
+  </si>
+  <si>
+    <t>1介红装4</t>
+  </si>
+  <si>
+    <t>210003</t>
+  </si>
+  <si>
+    <t>1介红装5</t>
+  </si>
+  <si>
+    <t>210004</t>
   </si>
 </sst>
 </file>
@@ -274,7 +575,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +600,26 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -781,137 +1102,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -925,10 +1246,22 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1248,10 +1581,557 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:K28"/>
+  <dimension ref="C1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="8.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="13.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="9" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="9" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="9" customWidth="1"/>
+    <col min="11" max="12" width="20.625" style="9" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" spans="7:12">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="3:12">
+      <c r="C2" s="11"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="3:12">
+      <c r="C3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="3:12">
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="3:12">
+      <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C8" s="2">
+        <v>100</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C9" s="2">
+        <v>101</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C10" s="2">
+        <v>102</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C11" s="2">
+        <v>103</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C12" s="2">
+        <v>104</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C13" s="2">
+        <v>105</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C15" s="2">
+        <v>201</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2">
+        <v>100</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C16" s="2">
+        <v>202</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2">
+        <v>100</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C17" s="2">
+        <v>203</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2">
+        <v>100</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="19" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="20" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="21" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C22" s="2">
+        <v>301</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="2">
+        <v>99</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <v>0</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="24" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 C3 F3 C4:C5 F4:F5" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:L28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1259,43 +2139,43 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="20.625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="5" max="6" width="13.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="3" customWidth="1"/>
+    <col min="11" max="12" width="20.625" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="6:11">
-      <c r="F1" s="3"/>
+    <row r="1" s="1" customFormat="1" spans="7:12">
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="3:11">
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="3:12">
       <c r="C2" s="4"/>
-      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="3:11">
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:12">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1313,19 +2193,22 @@
       <c r="K3" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:11">
+      <c r="L3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:12">
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
+      <c r="F4" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>12</v>
@@ -1342,401 +2225,1021 @@
       <c r="K4" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:11">
+      <c r="L4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:12">
       <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1056</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C7" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1057</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C8" s="2">
+        <v>1002</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1058</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C9" s="2">
+        <v>1003</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1059</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C10" s="2">
+        <v>1004</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1060</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C11" s="2">
+        <v>1005</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1061</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C12" s="2">
+        <v>1006</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1062</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C13" s="2">
+        <v>1007</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1063</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C14" s="2">
+        <v>1008</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1064</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C15" s="2">
+        <v>1009</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1065</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C16" s="2">
+        <v>1010</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1066</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C17" s="2">
+        <v>1011</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1067</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C18" s="2">
+        <v>1012</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1068</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C19" s="2">
+        <v>1013</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1069</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C20" s="2">
+        <v>1014</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1070</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C21" s="2">
+        <v>1015</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1071</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C22" s="2">
+        <v>1016</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1072</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C23" s="2">
+        <v>1017</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1073</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C24" s="2">
+        <v>1018</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1074</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 C3 C4:C5" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="3" customWidth="1"/>
+    <col min="11" max="12" width="20.625" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="7:12">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="3:12">
+      <c r="C2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:12">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:12">
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:12">
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="J5" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="K5" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
+        <v>19</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
       <c r="C6" s="2">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="6:11">
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1070</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="2">
+        <v>500</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>500</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C7" s="2">
+        <v>2001</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1071</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="2">
+        <v>500</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>500</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
       <c r="C8" s="2">
+        <v>2002</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1072</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="2">
+        <v>500</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>500</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C9" s="2">
+        <v>2003</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1073</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="2">
+        <v>500</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>500</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="C10" s="2">
+        <v>2004</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
-      <c r="C9" s="2">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1074</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
-      <c r="C10" s="2">
-        <v>102</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
-      <c r="C11" s="2">
-        <v>103</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
-      <c r="C12" s="2">
-        <v>104</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
-      <c r="C13" s="2">
-        <v>105</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
-      <c r="C15" s="2">
-        <v>201</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="2">
-        <v>100</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
-      <c r="C16" s="2">
-        <v>202</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="2">
-        <v>100</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
-      <c r="C17" s="2">
-        <v>203</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="2">
-        <v>100</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="19" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="20" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="21" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:11">
-      <c r="C22" s="2">
-        <v>301</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="2">
-        <v>99</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="24" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="6:11">
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="6:11">
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="6:11">
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="6:11">
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="H10" s="2">
+        <v>500</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>500</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="130">
   <si>
     <t>_id</t>
   </si>
@@ -421,118 +421,202 @@
     <t>1003</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>钳虫心脏</t>
+  </si>
+  <si>
+    <t>1400000</t>
+  </si>
+  <si>
+    <t>生命基础</t>
+  </si>
+  <si>
+    <t>蜈蚣心脏</t>
+  </si>
+  <si>
+    <t>1400001</t>
+  </si>
+  <si>
+    <t>生命比例</t>
+  </si>
+  <si>
+    <t>白猪心脏</t>
+  </si>
+  <si>
+    <t>1400002</t>
+  </si>
+  <si>
+    <t>生命倍率</t>
+  </si>
+  <si>
+    <t>猪王之甲</t>
+  </si>
+  <si>
+    <t>1400003</t>
+  </si>
+  <si>
+    <t>防御基础</t>
+  </si>
+  <si>
+    <t>蝎王之甲</t>
+  </si>
+  <si>
+    <t>1400004</t>
+  </si>
+  <si>
+    <t>防御比例</t>
+  </si>
+  <si>
     <t>沃玛宝剑</t>
   </si>
   <si>
-    <t>1400000</t>
+    <t>1400005</t>
+  </si>
+  <si>
+    <t>物攻基础</t>
   </si>
   <si>
     <t>沃玛号角</t>
   </si>
   <si>
-    <t>1400001</t>
+    <t>1400006</t>
+  </si>
+  <si>
+    <t>魔法基础</t>
   </si>
   <si>
     <t>祖玛号角</t>
   </si>
   <si>
-    <t>1400002</t>
-  </si>
-  <si>
-    <t>猪王之心</t>
-  </si>
-  <si>
-    <t>1400003</t>
-  </si>
-  <si>
-    <t>树妖之皮</t>
-  </si>
-  <si>
-    <t>1400004</t>
-  </si>
-  <si>
-    <t>虹魔宝典</t>
-  </si>
-  <si>
-    <t>1400005</t>
-  </si>
-  <si>
-    <t>尸王獠牙</t>
-  </si>
-  <si>
-    <t>1400006</t>
+    <t>1400007</t>
+  </si>
+  <si>
+    <t>道术基础</t>
+  </si>
+  <si>
+    <t>虹猪之甲</t>
+  </si>
+  <si>
+    <t>1400008</t>
+  </si>
+  <si>
+    <t>树妖之心</t>
+  </si>
+  <si>
+    <t>1400009</t>
+  </si>
+  <si>
+    <t>虹魔之心</t>
+  </si>
+  <si>
+    <t>1400010</t>
+  </si>
+  <si>
+    <t>尸王之心</t>
+  </si>
+  <si>
+    <t>1400011</t>
   </si>
   <si>
     <t>黄泉法杖</t>
   </si>
   <si>
-    <t>1400007</t>
+    <t>1400012</t>
+  </si>
+  <si>
+    <t>物伤</t>
   </si>
   <si>
     <t>牛魔权杖</t>
   </si>
   <si>
-    <t>1400008</t>
+    <t>1400013</t>
+  </si>
+  <si>
+    <t>法伤</t>
   </si>
   <si>
     <t>金刚战锤</t>
   </si>
   <si>
-    <t>1400009</t>
-  </si>
-  <si>
-    <t>巨人拳套</t>
-  </si>
-  <si>
-    <t>1400010</t>
-  </si>
-  <si>
-    <t>幸运之心</t>
-  </si>
-  <si>
-    <t>1400011</t>
+    <t>1400014</t>
+  </si>
+  <si>
+    <t>道伤</t>
+  </si>
+  <si>
+    <t>巨人之心</t>
+  </si>
+  <si>
+    <t>1400015</t>
+  </si>
+  <si>
+    <t>恶魔之心</t>
+  </si>
+  <si>
+    <t>1400016</t>
   </si>
   <si>
     <t>魔龙宝甲</t>
   </si>
   <si>
-    <t>1400012</t>
+    <t>1400017</t>
+  </si>
+  <si>
+    <t>减伤倍率</t>
   </si>
   <si>
     <t>龙神之爪</t>
   </si>
   <si>
-    <t>1400013</t>
+    <t>1400018</t>
+  </si>
+  <si>
+    <t>物攻倍率</t>
   </si>
   <si>
     <t>梦魇鸡爪</t>
   </si>
   <si>
-    <t>1400014</t>
+    <t>1400019</t>
+  </si>
+  <si>
+    <t>法术倍率</t>
   </si>
   <si>
     <t>梦魇鹿茸</t>
   </si>
   <si>
-    <t>1400015</t>
+    <t>1400020</t>
+  </si>
+  <si>
+    <t>道术倍率</t>
   </si>
   <si>
     <t>梦魇草帽</t>
   </si>
   <si>
-    <t>1400016</t>
+    <t>1400021</t>
   </si>
   <si>
     <t>梦魇猫爪</t>
   </si>
   <si>
-    <t>1400017</t>
+    <t>1400022</t>
+  </si>
+  <si>
+    <t>防御倍率</t>
   </si>
   <si>
     <t>梦魇花朵</t>
   </si>
   <si>
-    <t>1400018</t>
+    <t>1400023</t>
+  </si>
+  <si>
+    <t>攻击倍率</t>
   </si>
   <si>
     <t>1介红装1</t>
@@ -1584,7 +1668,7 @@
   <dimension ref="C1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E8" sqref="E8:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2128,10 +2212,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L28"/>
+  <dimension ref="C1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="J6" sqref="J6:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2156,7 +2240,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="3:12">
+    <row r="2" s="1" customFormat="1" spans="3:13">
       <c r="C2" s="4"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2164,6 +2248,9 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
+      <c r="M2" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="3:12">
       <c r="C3" s="5" t="s">
@@ -2261,30 +2348,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C6" s="2">
         <v>1000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F6" s="7">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>28</v>
@@ -2292,31 +2379,34 @@
       <c r="L6" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C7" s="2">
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F7" s="7">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H7" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>28</v>
@@ -2324,31 +2414,34 @@
       <c r="L7" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C8" s="2">
         <v>1002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H8" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>28</v>
@@ -2356,31 +2449,34 @@
       <c r="L8" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M8" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C9" s="2">
         <v>1003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F9" s="7">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H9" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>28</v>
@@ -2388,31 +2484,34 @@
       <c r="L9" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M9" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C10" s="2">
         <v>1004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F10" s="7">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H10" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>28</v>
@@ -2420,31 +2519,34 @@
       <c r="L10" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C11" s="2">
         <v>1005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F11" s="7">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H11" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>28</v>
@@ -2452,31 +2554,34 @@
       <c r="L11" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C12" s="2">
         <v>1006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F12" s="7">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H12" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>28</v>
@@ -2484,31 +2589,34 @@
       <c r="L12" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C13" s="2">
         <v>1007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F13" s="7">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H13" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>28</v>
@@ -2516,31 +2624,34 @@
       <c r="L13" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M13" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C14" s="2">
         <v>1008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H14" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>28</v>
@@ -2548,31 +2659,34 @@
       <c r="L14" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M14" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C15" s="2">
         <v>1009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H15" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>28</v>
@@ -2580,31 +2694,34 @@
       <c r="L15" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C16" s="2">
         <v>1010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H16" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K16" s="14" t="s">
         <v>28</v>
@@ -2612,31 +2729,34 @@
       <c r="L16" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C17" s="2">
         <v>1011</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H17" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>28</v>
@@ -2644,31 +2764,34 @@
       <c r="L17" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M17" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C18" s="2">
         <v>1012</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F18" s="7">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>28</v>
@@ -2676,31 +2799,34 @@
       <c r="L18" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M18" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C19" s="2">
         <v>1013</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H19" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>28</v>
@@ -2708,31 +2834,34 @@
       <c r="L19" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M19" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C20" s="2">
         <v>1014</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H20" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
       <c r="J20" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>28</v>
@@ -2740,31 +2869,34 @@
       <c r="L20" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M20" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C21" s="2">
         <v>1015</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F21" s="7">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="H21" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
       <c r="J21" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>28</v>
@@ -2772,31 +2904,34 @@
       <c r="L21" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C22" s="2">
         <v>1016</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F22" s="7">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="H22" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>28</v>
@@ -2804,31 +2939,34 @@
       <c r="L22" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M22" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C23" s="2">
         <v>1017</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F23" s="7">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H23" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
       </c>
       <c r="J23" s="2">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K23" s="14" t="s">
         <v>28</v>
@@ -2836,70 +2974,219 @@
       <c r="L23" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M23" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C24" s="2">
         <v>1018</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E24" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F24" s="7">
+        <v>1069</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="2">
+        <v>40000</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>40000</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="C25" s="2">
+        <v>1019</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="2">
+        <v>98</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1070</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="2">
+        <v>40000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>40000</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="C26" s="2">
+        <v>1020</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="2">
+        <v>98</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1071</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="2">
+        <v>40000</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>40000</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="C27" s="2">
+        <v>1021</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="2">
+        <v>98</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1072</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="2">
+        <v>40000</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>40000</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="C28" s="2">
+        <v>1022</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="2">
+        <v>98</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1073</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="2">
+        <v>40000</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>40000</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" s="2">
+        <v>1023</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="2">
+        <v>98</v>
+      </c>
+      <c r="F29" s="7">
         <v>1074</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="G29" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="2">
+        <v>40000</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>40000</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2919,7 +3206,7 @@
   <dimension ref="C1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3054,25 +3341,25 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F6" s="7">
         <v>1070</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="H6" s="2">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>28</v>
@@ -3086,25 +3373,25 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F7" s="7">
         <v>1071</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="H7" s="2">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>28</v>
@@ -3118,25 +3405,25 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7">
         <v>1072</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="H8" s="2">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>28</v>
@@ -3150,25 +3437,25 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="2">
         <v>98</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
       </c>
       <c r="F9" s="7">
         <v>1073</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="H9" s="2">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>28</v>
@@ -3182,25 +3469,25 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F10" s="7">
         <v>1074</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="H10" s="2">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>28</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -2215,7 +2215,7 @@
   <dimension ref="C1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J29"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2365,7 +2365,7 @@
         <v>56</v>
       </c>
       <c r="H6" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>59</v>
       </c>
       <c r="H7" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>62</v>
       </c>
       <c r="H8" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -2470,7 +2470,7 @@
         <v>65</v>
       </c>
       <c r="H9" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>68</v>
       </c>
       <c r="H10" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>71</v>
       </c>
       <c r="H11" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>74</v>
       </c>
       <c r="H12" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
@@ -2610,7 +2610,7 @@
         <v>77</v>
       </c>
       <c r="H13" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>80</v>
       </c>
       <c r="H14" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>82</v>
       </c>
       <c r="H15" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>84</v>
       </c>
       <c r="H16" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>86</v>
       </c>
       <c r="H17" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         <v>88</v>
       </c>
       <c r="H18" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>91</v>
       </c>
       <c r="H19" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>94</v>
       </c>
       <c r="H20" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
@@ -2890,7 +2890,7 @@
         <v>97</v>
       </c>
       <c r="H21" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>99</v>
       </c>
       <c r="H22" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
@@ -2960,7 +2960,7 @@
         <v>101</v>
       </c>
       <c r="H23" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>104</v>
       </c>
       <c r="H24" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>107</v>
       </c>
       <c r="H25" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
@@ -3065,7 +3065,7 @@
         <v>110</v>
       </c>
       <c r="H26" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -3100,7 +3100,7 @@
         <v>113</v>
       </c>
       <c r="H27" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
@@ -3135,7 +3135,7 @@
         <v>115</v>
       </c>
       <c r="H28" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>118</v>
       </c>
       <c r="H29" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
@@ -3206,7 +3206,7 @@
   <dimension ref="C1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3353,13 +3353,13 @@
         <v>121</v>
       </c>
       <c r="H6" s="2">
-        <v>40000</v>
+        <v>240000</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>28</v>
@@ -3385,13 +3385,13 @@
         <v>123</v>
       </c>
       <c r="H7" s="2">
-        <v>40000</v>
+        <v>240000</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>28</v>
@@ -3417,13 +3417,13 @@
         <v>125</v>
       </c>
       <c r="H8" s="2">
-        <v>40000</v>
+        <v>240000</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>28</v>
@@ -3449,13 +3449,13 @@
         <v>127</v>
       </c>
       <c r="H9" s="2">
-        <v>40000</v>
+        <v>240000</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>28</v>
@@ -3481,13 +3481,13 @@
         <v>129</v>
       </c>
       <c r="H10" s="2">
-        <v>40000</v>
+        <v>240000</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>28</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -424,7 +424,7 @@
     <t>#</t>
   </si>
   <si>
-    <t>钳虫心脏</t>
+    <t>触龙之心</t>
   </si>
   <si>
     <t>1400000</t>
@@ -433,7 +433,7 @@
     <t>生命基础</t>
   </si>
   <si>
-    <t>蜈蚣心脏</t>
+    <t>白猪之心</t>
   </si>
   <si>
     <t>1400001</t>
@@ -442,7 +442,7 @@
     <t>生命比例</t>
   </si>
   <si>
-    <t>白猪心脏</t>
+    <t>猪王之心</t>
   </si>
   <si>
     <t>1400002</t>
@@ -451,7 +451,7 @@
     <t>生命倍率</t>
   </si>
   <si>
-    <t>猪王之甲</t>
+    <t>蝎王宝甲</t>
   </si>
   <si>
     <t>1400003</t>
@@ -460,7 +460,7 @@
     <t>防御基础</t>
   </si>
   <si>
-    <t>蝎王之甲</t>
+    <t>沃玛宝甲</t>
   </si>
   <si>
     <t>1400004</t>
@@ -469,7 +469,7 @@
     <t>防御比例</t>
   </si>
   <si>
-    <t>沃玛宝剑</t>
+    <t>沃玛号角</t>
   </si>
   <si>
     <t>1400005</t>
@@ -478,7 +478,7 @@
     <t>物攻基础</t>
   </si>
   <si>
-    <t>沃玛号角</t>
+    <t>祖玛头像</t>
   </si>
   <si>
     <t>1400006</t>
@@ -496,7 +496,7 @@
     <t>道术基础</t>
   </si>
   <si>
-    <t>虹猪之甲</t>
+    <t>虹猪宝甲</t>
   </si>
   <si>
     <t>1400008</t>
@@ -568,7 +568,7 @@
     <t>减伤倍率</t>
   </si>
   <si>
-    <t>龙神之爪</t>
+    <t>龙神利爪</t>
   </si>
   <si>
     <t>1400018</t>
@@ -1667,8 +1667,8 @@
   <sheetPr/>
   <dimension ref="C1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2215,7 +2215,7 @@
   <dimension ref="C1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="D6" sqref="D6:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3205,7 +3205,7 @@
   <sheetPr/>
   <dimension ref="C1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="131">
   <si>
     <t>_id</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>享受爆率加成</t>
+  </si>
+  <si>
+    <t>ShareDz</t>
   </si>
   <si>
     <t>起始爆率</t>
@@ -1333,15 +1336,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
@@ -1665,10 +1668,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L28"/>
+  <dimension ref="C1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1679,131 +1682,142 @@
     <col min="5" max="6" width="13.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="9" customWidth="1"/>
     <col min="8" max="8" width="13.75" style="9" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="9" customWidth="1"/>
-    <col min="11" max="12" width="20.625" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="9" max="10" width="14.125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="9" customWidth="1"/>
+    <col min="12" max="13" width="20.625" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="7:12">
+    <row r="1" s="2" customFormat="1" spans="7:13">
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="3:12">
-      <c r="C2" s="11"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="3:13">
+      <c r="C2" s="13"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="3:12">
-      <c r="C3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="3:13">
+      <c r="C3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="3:12">
-      <c r="C4" s="12" t="s">
+      <c r="M3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12" t="s">
+    </row>
+    <row r="4" s="2" customFormat="1" spans="3:13">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="J4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="3:12">
-      <c r="C5" s="12" t="s">
+      <c r="M4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="12" t="s">
+    </row>
+    <row r="5" s="2" customFormat="1" spans="3:13">
+      <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="13" t="s">
+      <c r="D5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="G5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1812,38 +1826,42 @@
         <v>0</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0</v>
-      </c>
-      <c r="K6" s="14" t="s">
         <v>23</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
       </c>
       <c r="L6" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M6" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="7:13">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C8" s="2">
         <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1852,30 +1870,33 @@
         <v>0</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="10">
-        <v>1</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0</v>
-      </c>
-      <c r="K8" s="14" t="s">
         <v>28</v>
       </c>
+      <c r="I8" s="12">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
       <c r="L8" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M8" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C9" s="2">
         <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1884,30 +1905,33 @@
         <v>0</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="10">
-        <v>1</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M9" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C10" s="2">
         <v>102</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1916,62 +1940,68 @@
         <v>0</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M10" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C11" s="2">
         <v>103</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>35</v>
-      </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>28</v>
+      <c r="J11" s="12">
+        <v>1</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M11" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C12" s="2">
         <v>104</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -1980,30 +2010,33 @@
         <v>0</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>28</v>
+      <c r="J12" s="12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M12" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C13" s="2">
         <v>105</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -2012,31 +2045,34 @@
         <v>0</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>28</v>
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="M13" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C15" s="2">
         <v>201</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2">
         <v>100</v>
@@ -2045,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -2053,22 +2089,25 @@
       <c r="I15" s="2">
         <v>0</v>
       </c>
-      <c r="J15" s="10">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>28</v>
+      <c r="J15" s="12">
+        <v>1</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M15" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C16" s="2">
         <v>202</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2">
         <v>100</v>
@@ -2077,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
@@ -2085,22 +2124,25 @@
       <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="10">
-        <v>0</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>28</v>
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M16" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C17" s="2">
         <v>203</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2">
         <v>100</v>
@@ -2109,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -2117,26 +2159,29 @@
       <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="J17" s="10">
-        <v>0</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>28</v>
+      <c r="J17" s="12">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>29</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="19" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="20" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="21" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C22" s="2">
         <v>301</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2">
         <v>99</v>
@@ -2145,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
@@ -2153,49 +2198,56 @@
       <c r="I22" s="2">
         <v>0</v>
       </c>
-      <c r="J22" s="10">
-        <v>0</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>28</v>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>29</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="24" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="7:13">
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="7:13">
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="7:13">
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="7:13">
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2212,10 +2264,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:M29"/>
+  <dimension ref="C1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D29"/>
+      <selection activeCell="J3" sqref="J3:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2226,21 +2278,22 @@
     <col min="5" max="6" width="13.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="3" customWidth="1"/>
-    <col min="11" max="12" width="20.625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="9" max="10" width="14.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="3" customWidth="1"/>
+    <col min="12" max="13" width="20.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="7:12">
+    <row r="1" s="1" customFormat="1" spans="7:13">
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="3:13">
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="3:14">
       <c r="C2" s="4"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2248,16 +2301,17 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="3:12">
+      <c r="M2" s="3"/>
+      <c r="N2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:13">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
@@ -2274,7 +2328,7 @@
       <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="6" t="s">
@@ -2283,13 +2337,16 @@
       <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:12">
+      <c r="M3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:13">
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
@@ -2298,16 +2355,16 @@
         <v>3</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="6" t="s">
         <v>15</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>16</v>
@@ -2315,45 +2372,51 @@
       <c r="L4" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:12">
+      <c r="M4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:13">
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="J5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="L5" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+        <v>20</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C6" s="2">
         <v>1000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -2362,7 +2425,7 @@
         <v>1051</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H6" s="2">
         <v>60000</v>
@@ -2370,25 +2433,28 @@
       <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
         <v>40000</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C7" s="2">
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -2397,7 +2463,7 @@
         <v>1052</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H7" s="2">
         <v>60000</v>
@@ -2405,25 +2471,28 @@
       <c r="I7" s="2">
         <v>0</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="12">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
         <v>40000</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C8" s="2">
         <v>1002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -2432,7 +2501,7 @@
         <v>1053</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H8" s="2">
         <v>60000</v>
@@ -2440,25 +2509,28 @@
       <c r="I8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="12">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
         <v>40000</v>
       </c>
-      <c r="K8" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C9" s="2">
         <v>1003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -2467,7 +2539,7 @@
         <v>1054</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H9" s="2">
         <v>60000</v>
@@ -2475,25 +2547,28 @@
       <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
         <v>40000</v>
       </c>
-      <c r="K9" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C10" s="2">
         <v>1004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -2502,7 +2577,7 @@
         <v>1055</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" s="2">
         <v>60000</v>
@@ -2510,25 +2585,28 @@
       <c r="I10" s="2">
         <v>0</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="12">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
         <v>40000</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C11" s="2">
         <v>1005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -2537,7 +2615,7 @@
         <v>1056</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="2">
         <v>60000</v>
@@ -2545,25 +2623,28 @@
       <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="12">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
         <v>40000</v>
       </c>
-      <c r="K11" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C12" s="2">
         <v>1006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2">
         <v>98</v>
@@ -2572,7 +2653,7 @@
         <v>1057</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" s="2">
         <v>60000</v>
@@ -2580,25 +2661,28 @@
       <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
         <v>40000</v>
       </c>
-      <c r="K12" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C13" s="2">
         <v>1007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2">
         <v>98</v>
@@ -2607,7 +2691,7 @@
         <v>1058</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" s="2">
         <v>60000</v>
@@ -2615,25 +2699,28 @@
       <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
         <v>40000</v>
       </c>
-      <c r="K13" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C14" s="2">
         <v>1008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2">
         <v>98</v>
@@ -2642,7 +2729,7 @@
         <v>1059</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="2">
         <v>60000</v>
@@ -2650,25 +2737,28 @@
       <c r="I14" s="2">
         <v>0</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
         <v>40000</v>
       </c>
-      <c r="K14" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C15" s="2">
         <v>1009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
@@ -2677,7 +2767,7 @@
         <v>1060</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" s="2">
         <v>60000</v>
@@ -2685,25 +2775,28 @@
       <c r="I15" s="2">
         <v>0</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="12">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
         <v>40000</v>
       </c>
-      <c r="K15" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C16" s="2">
         <v>1010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2">
         <v>98</v>
@@ -2712,7 +2805,7 @@
         <v>1061</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" s="2">
         <v>60000</v>
@@ -2720,25 +2813,28 @@
       <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
         <v>40000</v>
       </c>
-      <c r="K16" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C17" s="2">
         <v>1011</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E17" s="2">
         <v>98</v>
@@ -2747,7 +2843,7 @@
         <v>1062</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="2">
         <v>60000</v>
@@ -2755,25 +2851,28 @@
       <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="12">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
         <v>40000</v>
       </c>
-      <c r="K17" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C18" s="2">
         <v>1012</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E18" s="2">
         <v>98</v>
@@ -2782,7 +2881,7 @@
         <v>1063</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18" s="2">
         <v>60000</v>
@@ -2790,25 +2889,28 @@
       <c r="I18" s="2">
         <v>0</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="12">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
         <v>40000</v>
       </c>
-      <c r="K18" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C19" s="2">
         <v>1013</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E19" s="2">
         <v>98</v>
@@ -2817,7 +2919,7 @@
         <v>1064</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" s="2">
         <v>60000</v>
@@ -2825,25 +2927,28 @@
       <c r="I19" s="2">
         <v>0</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="12">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
         <v>40000</v>
       </c>
-      <c r="K19" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C20" s="2">
         <v>1014</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2">
         <v>98</v>
@@ -2852,7 +2957,7 @@
         <v>1065</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H20" s="2">
         <v>60000</v>
@@ -2860,25 +2965,28 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="12">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
         <v>40000</v>
       </c>
-      <c r="K20" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L20" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C21" s="2">
         <v>1015</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E21" s="2">
         <v>98</v>
@@ -2887,7 +2995,7 @@
         <v>1066</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H21" s="2">
         <v>60000</v>
@@ -2895,25 +3003,28 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="12">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
         <v>40000</v>
       </c>
-      <c r="K21" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M21" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C22" s="2">
         <v>1016</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E22" s="2">
         <v>98</v>
@@ -2922,7 +3033,7 @@
         <v>1067</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H22" s="2">
         <v>60000</v>
@@ -2930,25 +3041,28 @@
       <c r="I22" s="2">
         <v>0</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="12">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
         <v>40000</v>
       </c>
-      <c r="K22" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L22" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C23" s="2">
         <v>1017</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E23" s="2">
         <v>98</v>
@@ -2957,7 +3071,7 @@
         <v>1068</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H23" s="2">
         <v>60000</v>
@@ -2965,25 +3079,28 @@
       <c r="I23" s="2">
         <v>0</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="12">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
         <v>40000</v>
       </c>
-      <c r="K23" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C24" s="2">
         <v>1018</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E24" s="2">
         <v>98</v>
@@ -2992,7 +3109,7 @@
         <v>1069</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H24" s="2">
         <v>60000</v>
@@ -3000,25 +3117,28 @@
       <c r="I24" s="2">
         <v>0</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="12">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
         <v>40000</v>
       </c>
-      <c r="K24" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C25" s="2">
         <v>1019</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E25" s="2">
         <v>98</v>
@@ -3027,7 +3147,7 @@
         <v>1070</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H25" s="2">
         <v>60000</v>
@@ -3035,25 +3155,28 @@
       <c r="I25" s="2">
         <v>0</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="12">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
         <v>40000</v>
       </c>
-      <c r="K25" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L25" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C26" s="2">
         <v>1020</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E26" s="2">
         <v>98</v>
@@ -3062,7 +3185,7 @@
         <v>1071</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H26" s="2">
         <v>60000</v>
@@ -3070,25 +3193,28 @@
       <c r="I26" s="2">
         <v>0</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="12">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
         <v>40000</v>
       </c>
-      <c r="K26" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C27" s="2">
         <v>1021</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E27" s="2">
         <v>98</v>
@@ -3097,7 +3223,7 @@
         <v>1072</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H27" s="2">
         <v>60000</v>
@@ -3105,25 +3231,28 @@
       <c r="I27" s="2">
         <v>0</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="12">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
         <v>40000</v>
       </c>
-      <c r="K27" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="M27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C28" s="2">
         <v>1022</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E28" s="2">
         <v>98</v>
@@ -3132,7 +3261,7 @@
         <v>1073</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H28" s="2">
         <v>60000</v>
@@ -3140,25 +3269,28 @@
       <c r="I28" s="2">
         <v>0</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="12">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
         <v>40000</v>
       </c>
-      <c r="K28" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13">
+      <c r="M28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14">
       <c r="C29" s="2">
         <v>1023</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E29" s="2">
         <v>98</v>
@@ -3167,7 +3299,7 @@
         <v>1074</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H29" s="2">
         <v>60000</v>
@@ -3175,17 +3307,20 @@
       <c r="I29" s="2">
         <v>0</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="12">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
         <v>40000</v>
       </c>
-      <c r="K29" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L29" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>119</v>
+      <c r="M29" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3203,10 +3338,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L14"/>
+  <dimension ref="C1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3217,21 +3352,22 @@
     <col min="5" max="6" width="13.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="3" customWidth="1"/>
-    <col min="11" max="12" width="20.625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="9" max="10" width="14.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="3" customWidth="1"/>
+    <col min="12" max="13" width="20.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="7:12">
+    <row r="1" s="1" customFormat="1" spans="7:13">
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="3:12">
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="3:13">
       <c r="C2" s="4"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3239,13 +3375,14 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="3:12">
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:13">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
@@ -3262,7 +3399,7 @@
       <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="6" t="s">
@@ -3271,13 +3408,16 @@
       <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:12">
+      <c r="M3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:13">
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
@@ -3286,16 +3426,16 @@
         <v>3</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="6" t="s">
         <v>15</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>16</v>
@@ -3303,45 +3443,51 @@
       <c r="L4" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:12">
+      <c r="M4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:13">
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="J5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="L5" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+        <v>20</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C6" s="2">
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -3350,7 +3496,7 @@
         <v>1070</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H6" s="2">
         <v>240000</v>
@@ -3359,21 +3505,24 @@
         <v>0</v>
       </c>
       <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
         <v>120000</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L6" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M6" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C7" s="2">
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -3382,7 +3531,7 @@
         <v>1071</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H7" s="2">
         <v>240000</v>
@@ -3391,21 +3540,24 @@
         <v>0</v>
       </c>
       <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
         <v>120000</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L7" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M7" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C8" s="2">
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -3414,7 +3566,7 @@
         <v>1072</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H8" s="2">
         <v>240000</v>
@@ -3423,21 +3575,24 @@
         <v>0</v>
       </c>
       <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
         <v>120000</v>
       </c>
-      <c r="K8" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L8" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M8" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C9" s="2">
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -3446,7 +3601,7 @@
         <v>1073</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H9" s="2">
         <v>240000</v>
@@ -3455,21 +3610,24 @@
         <v>0</v>
       </c>
       <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
         <v>120000</v>
       </c>
-      <c r="K9" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L9" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
+      <c r="M9" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
       <c r="C10" s="2">
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -3478,7 +3636,7 @@
         <v>1074</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H10" s="2">
         <v>240000</v>
@@ -3487,46 +3645,53 @@
         <v>0</v>
       </c>
       <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
         <v>120000</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="L10" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="M10" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="7:13">
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="7:13">
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="7:13">
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="7:12">
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="7:13">
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1671,7 +1671,7 @@
   <dimension ref="C1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J15" sqref="J15:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="12">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="12">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="12">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>36</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>42</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>46</v>
@@ -2266,8 +2266,8 @@
   <sheetPr/>
   <dimension ref="C1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2433,8 +2433,8 @@
       <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="12">
-        <v>1</v>
+      <c r="J6" s="2">
+        <v>0</v>
       </c>
       <c r="K6" s="2">
         <v>40000</v>
@@ -2471,8 +2471,8 @@
       <c r="I7" s="2">
         <v>0</v>
       </c>
-      <c r="J7" s="12">
-        <v>1</v>
+      <c r="J7" s="2">
+        <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>40000</v>
@@ -2509,8 +2509,8 @@
       <c r="I8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="12">
-        <v>1</v>
+      <c r="J8" s="2">
+        <v>0</v>
       </c>
       <c r="K8" s="2">
         <v>40000</v>
@@ -2547,8 +2547,8 @@
       <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="J9" s="12">
-        <v>1</v>
+      <c r="J9" s="2">
+        <v>0</v>
       </c>
       <c r="K9" s="2">
         <v>40000</v>
@@ -2585,8 +2585,8 @@
       <c r="I10" s="2">
         <v>0</v>
       </c>
-      <c r="J10" s="12">
-        <v>1</v>
+      <c r="J10" s="2">
+        <v>0</v>
       </c>
       <c r="K10" s="2">
         <v>40000</v>
@@ -2623,8 +2623,8 @@
       <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="12">
-        <v>1</v>
+      <c r="J11" s="2">
+        <v>0</v>
       </c>
       <c r="K11" s="2">
         <v>40000</v>
@@ -2661,8 +2661,8 @@
       <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="12">
-        <v>1</v>
+      <c r="J12" s="2">
+        <v>0</v>
       </c>
       <c r="K12" s="2">
         <v>40000</v>
@@ -2699,8 +2699,8 @@
       <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="12">
-        <v>1</v>
+      <c r="J13" s="2">
+        <v>0</v>
       </c>
       <c r="K13" s="2">
         <v>40000</v>
@@ -2737,8 +2737,8 @@
       <c r="I14" s="2">
         <v>0</v>
       </c>
-      <c r="J14" s="12">
-        <v>1</v>
+      <c r="J14" s="2">
+        <v>0</v>
       </c>
       <c r="K14" s="2">
         <v>40000</v>
@@ -2775,8 +2775,8 @@
       <c r="I15" s="2">
         <v>0</v>
       </c>
-      <c r="J15" s="12">
-        <v>1</v>
+      <c r="J15" s="2">
+        <v>0</v>
       </c>
       <c r="K15" s="2">
         <v>40000</v>
@@ -2813,8 +2813,8 @@
       <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="12">
-        <v>1</v>
+      <c r="J16" s="2">
+        <v>0</v>
       </c>
       <c r="K16" s="2">
         <v>40000</v>
@@ -2851,8 +2851,8 @@
       <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="J17" s="12">
-        <v>1</v>
+      <c r="J17" s="2">
+        <v>0</v>
       </c>
       <c r="K17" s="2">
         <v>40000</v>
@@ -2889,8 +2889,8 @@
       <c r="I18" s="2">
         <v>0</v>
       </c>
-      <c r="J18" s="12">
-        <v>1</v>
+      <c r="J18" s="2">
+        <v>0</v>
       </c>
       <c r="K18" s="2">
         <v>40000</v>
@@ -2927,8 +2927,8 @@
       <c r="I19" s="2">
         <v>0</v>
       </c>
-      <c r="J19" s="12">
-        <v>1</v>
+      <c r="J19" s="2">
+        <v>0</v>
       </c>
       <c r="K19" s="2">
         <v>40000</v>
@@ -2965,8 +2965,8 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20" s="12">
-        <v>1</v>
+      <c r="J20" s="2">
+        <v>0</v>
       </c>
       <c r="K20" s="2">
         <v>40000</v>
@@ -3003,8 +3003,8 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="12">
-        <v>1</v>
+      <c r="J21" s="2">
+        <v>0</v>
       </c>
       <c r="K21" s="2">
         <v>40000</v>
@@ -3041,8 +3041,8 @@
       <c r="I22" s="2">
         <v>0</v>
       </c>
-      <c r="J22" s="12">
-        <v>1</v>
+      <c r="J22" s="2">
+        <v>0</v>
       </c>
       <c r="K22" s="2">
         <v>40000</v>
@@ -3079,8 +3079,8 @@
       <c r="I23" s="2">
         <v>0</v>
       </c>
-      <c r="J23" s="12">
-        <v>1</v>
+      <c r="J23" s="2">
+        <v>0</v>
       </c>
       <c r="K23" s="2">
         <v>40000</v>
@@ -3117,8 +3117,8 @@
       <c r="I24" s="2">
         <v>0</v>
       </c>
-      <c r="J24" s="12">
-        <v>1</v>
+      <c r="J24" s="2">
+        <v>0</v>
       </c>
       <c r="K24" s="2">
         <v>40000</v>
@@ -3155,8 +3155,8 @@
       <c r="I25" s="2">
         <v>0</v>
       </c>
-      <c r="J25" s="12">
-        <v>1</v>
+      <c r="J25" s="2">
+        <v>0</v>
       </c>
       <c r="K25" s="2">
         <v>40000</v>
@@ -3193,8 +3193,8 @@
       <c r="I26" s="2">
         <v>0</v>
       </c>
-      <c r="J26" s="12">
-        <v>1</v>
+      <c r="J26" s="2">
+        <v>0</v>
       </c>
       <c r="K26" s="2">
         <v>40000</v>
@@ -3231,8 +3231,8 @@
       <c r="I27" s="2">
         <v>0</v>
       </c>
-      <c r="J27" s="12">
-        <v>1</v>
+      <c r="J27" s="2">
+        <v>0</v>
       </c>
       <c r="K27" s="2">
         <v>40000</v>
@@ -3269,8 +3269,8 @@
       <c r="I28" s="2">
         <v>0</v>
       </c>
-      <c r="J28" s="12">
-        <v>1</v>
+      <c r="J28" s="2">
+        <v>0</v>
       </c>
       <c r="K28" s="2">
         <v>40000</v>
@@ -3307,8 +3307,8 @@
       <c r="I29" s="2">
         <v>0</v>
       </c>
-      <c r="J29" s="12">
-        <v>1</v>
+      <c r="J29" s="2">
+        <v>0</v>
       </c>
       <c r="K29" s="2">
         <v>40000</v>
@@ -3340,7 +3340,7 @@
   <sheetPr/>
   <dimension ref="C1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +186,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="142">
   <si>
     <t>_id</t>
   </si>
@@ -268,7 +268,10 @@
     <t>Type</t>
   </si>
   <si>
-    <t>MapId</t>
+    <t>StartMapId</t>
+  </si>
+  <si>
+    <t>EndMapId</t>
   </si>
   <si>
     <t>掉落Id</t>
@@ -400,6 +403,42 @@
     <t>40000</t>
   </si>
   <si>
+    <t>第一批白图鉴</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>第一批绿图鉴</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>第二批蓝图鉴</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>第二批紫图鉴</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>第二时装</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
     <t>守沙100书页</t>
   </si>
   <si>
@@ -415,16 +454,10 @@
     <t>守沙时装</t>
   </si>
   <si>
-    <t>3002</t>
-  </si>
-  <si>
     <t>镜像挑战</t>
   </si>
   <si>
     <t>1003</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>触龙之心</t>
@@ -690,6 +723,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -699,13 +739,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -1330,16 +1363,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1348,7 +1381,7 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1401,6 +1434,15 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1668,10 +1710,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:M28"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1679,145 +1721,154 @@
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="8.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="13.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="9" customWidth="1"/>
-    <col min="9" max="10" width="14.125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="17.875" style="9" customWidth="1"/>
-    <col min="12" max="13" width="20.625" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="5" max="7" width="13.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="10" customWidth="1"/>
+    <col min="10" max="11" width="14.125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="10" customWidth="1"/>
+    <col min="13" max="14" width="20.625" style="10" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="7:13">
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="3:13">
+    <row r="1" s="2" customFormat="1" spans="8:14">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="3:14">
       <c r="C2" s="13"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="3:13">
-      <c r="C3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="3:14">
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="3:13">
-      <c r="C4" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11" t="s">
+    </row>
+    <row r="4" s="2" customFormat="1" spans="3:14">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="K4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="3:13">
-      <c r="C5" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="11" t="s">
+    </row>
+    <row r="5" s="2" customFormat="1" spans="3:14">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="10" t="s">
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1825,14 +1876,14 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>22</v>
+      <c r="G6" s="2">
+        <v>9999</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="12">
-        <v>0</v>
+      <c r="I6" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="J6" s="12">
         <v>0</v>
@@ -1840,168 +1891,183 @@
       <c r="K6" s="12">
         <v>0</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>24</v>
+      <c r="L6" s="12">
+        <v>0</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="7:13">
-      <c r="G7" s="12"/>
+      <c r="N6" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="8:14">
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C8" s="2">
         <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="14" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1069</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="12">
         <v>1</v>
       </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
       <c r="K8" s="12">
         <v>0</v>
       </c>
-      <c r="L8" s="14" t="s">
-        <v>29</v>
+      <c r="L8" s="12">
+        <v>0</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="N8" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C9" s="2">
         <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="14" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1069</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="12">
         <v>1</v>
       </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
       <c r="K9" s="12">
         <v>0</v>
       </c>
-      <c r="L9" s="14" t="s">
-        <v>29</v>
+      <c r="L9" s="12">
+        <v>0</v>
       </c>
       <c r="M9" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="N9" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C10" s="2">
         <v>102</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="14" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1069</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="12">
         <v>1</v>
       </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
       <c r="K10" s="12">
         <v>0</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>29</v>
+      <c r="L10" s="12">
+        <v>0</v>
       </c>
       <c r="M10" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="N10" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C11" s="2">
         <v>103</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1069</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>29</v>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="N11" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C12" s="2">
         <v>104</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -2009,85 +2075,122 @@
       <c r="F12" s="2">
         <v>0</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="15" t="s">
+      <c r="I12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="14" t="s">
-        <v>29</v>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="M12" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="N12" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C13" s="2">
         <v>105</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="C14" s="2">
+        <v>106</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1035</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1099</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C15" s="2">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
+        <v>1035</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1099</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="J15" s="12">
         <v>1</v>
@@ -2095,34 +2198,37 @@
       <c r="K15" s="12">
         <v>0</v>
       </c>
-      <c r="L15" s="14" t="s">
-        <v>29</v>
+      <c r="L15" s="12">
+        <v>0</v>
       </c>
       <c r="M15" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="N15" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C16" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E16" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
+        <v>1035</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1099</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="J16" s="12">
         <v>1</v>
@@ -2130,34 +2236,37 @@
       <c r="K16" s="12">
         <v>0</v>
       </c>
-      <c r="L16" s="14" t="s">
-        <v>29</v>
+      <c r="L16" s="12">
+        <v>0</v>
       </c>
       <c r="M16" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="N16" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C17" s="2">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
+        <v>1035</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1099</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="J17" s="12">
         <v>1</v>
@@ -2165,93 +2274,261 @@
       <c r="K17" s="12">
         <v>0</v>
       </c>
-      <c r="L17" s="14" t="s">
-        <v>29</v>
+      <c r="L17" s="12">
+        <v>0</v>
       </c>
       <c r="M17" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="18" customHeight="1"/>
+      <c r="N17" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2">
+        <v>110</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1070</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1099</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="19" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="20" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="21" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="C20" s="2">
+        <v>201</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="2">
+        <v>100</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <v>1</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="C21" s="2">
+        <v>202</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="2">
+        <v>100</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>1</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C22" s="2">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E22" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="2">
         <v>1</v>
       </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
       <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
         <v>1</v>
       </c>
-      <c r="K22" s="12">
-        <v>0</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>29</v>
+      <c r="L22" s="12">
+        <v>0</v>
       </c>
       <c r="M22" s="14" t="s">
         <v>30</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="18" customHeight="1"/>
     <row r="24" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="7:13">
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="7:13">
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="7:13">
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="7:13">
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+    <row r="25" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="26" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="C27" s="2">
+        <v>301</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="2">
+        <v>99</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="29" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="30" s="2" customFormat="1" ht="18" customHeight="1" spans="8:14">
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="18" customHeight="1" spans="8:14">
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="18" customHeight="1" spans="8:14">
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="18" customHeight="1" spans="8:14">
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 C3 F3 C4:C5 F4:F5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 C3 F3 G3 F4 G4 F5 G5 F8 G8 C4:C5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -2264,10 +2541,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:N29"/>
+  <dimension ref="C1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2275,1057 +2552,1138 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="3" customWidth="1"/>
-    <col min="9" max="10" width="14.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.875" style="3" customWidth="1"/>
-    <col min="12" max="13" width="20.625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="5" max="7" width="13.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="3" customWidth="1"/>
+    <col min="10" max="11" width="14.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="3" customWidth="1"/>
+    <col min="13" max="14" width="20.625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="7:13">
-      <c r="G1" s="3"/>
+    <row r="1" s="1" customFormat="1" spans="8:14">
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="3:14">
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="3:15">
       <c r="C2" s="4"/>
-      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="3:13">
+      <c r="N2" s="3"/>
+      <c r="O2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:14">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:13">
+      <c r="N3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:14">
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="K4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:13">
+      <c r="N4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:14">
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>19</v>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="K5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C6" s="2">
         <v>1000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>1051</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="8">
+        <v>1051</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="2">
         <v>60000</v>
       </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
         <v>40000</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C7" s="2">
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>1052</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7" s="8">
+        <v>1052</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="2">
         <v>60000</v>
       </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
         <v>40000</v>
       </c>
-      <c r="L7" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C8" s="2">
         <v>1002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>1053</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G8" s="8">
+        <v>1053</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="2">
         <v>60000</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
         <v>40000</v>
       </c>
-      <c r="L8" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C9" s="2">
         <v>1003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>1054</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9" s="8">
+        <v>1054</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="2">
         <v>60000</v>
       </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
         <v>40000</v>
       </c>
-      <c r="L9" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C10" s="2">
         <v>1004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>1055</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" s="8">
+        <v>1055</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="2">
         <v>60000</v>
       </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
         <v>40000</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C11" s="2">
         <v>1005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>1056</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="G11" s="8">
+        <v>1056</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="2">
         <v>60000</v>
       </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
       <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
         <v>40000</v>
       </c>
-      <c r="L11" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C12" s="2">
         <v>1006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E12" s="2">
         <v>98</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>1057</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" s="8">
+        <v>1057</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="2">
         <v>60000</v>
       </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
       <c r="J12" s="2">
         <v>0</v>
       </c>
       <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
         <v>40000</v>
       </c>
-      <c r="L12" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C13" s="2">
         <v>1007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E13" s="2">
         <v>98</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>1058</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="G13" s="8">
+        <v>1058</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="2">
         <v>60000</v>
       </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
       <c r="J13" s="2">
         <v>0</v>
       </c>
       <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
         <v>40000</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C14" s="2">
         <v>1008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E14" s="2">
         <v>98</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>1059</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="8">
+        <v>1059</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="2">
         <v>60000</v>
       </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
       <c r="J14" s="2">
         <v>0</v>
       </c>
       <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
         <v>40000</v>
       </c>
-      <c r="L14" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C15" s="2">
         <v>1009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>1060</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="G15" s="8">
+        <v>1060</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="2">
         <v>60000</v>
       </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
       <c r="J15" s="2">
         <v>0</v>
       </c>
       <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
         <v>40000</v>
       </c>
-      <c r="L15" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C16" s="2">
         <v>1010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2">
         <v>98</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>1061</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16" s="8">
+        <v>1061</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="2">
         <v>60000</v>
       </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
       <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
         <v>40000</v>
       </c>
-      <c r="L16" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C17" s="2">
         <v>1011</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2">
         <v>98</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <v>1062</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="8">
+        <v>1062</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="2">
         <v>60000</v>
       </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
       <c r="J17" s="2">
         <v>0</v>
       </c>
       <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
         <v>40000</v>
       </c>
-      <c r="L17" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C18" s="2">
         <v>1012</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E18" s="2">
         <v>98</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>1063</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="G18" s="8">
+        <v>1063</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="2">
         <v>60000</v>
       </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
       <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
         <v>40000</v>
       </c>
-      <c r="L18" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C19" s="2">
         <v>1013</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E19" s="2">
         <v>98</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="8">
         <v>1064</v>
       </c>
-      <c r="G19" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19" s="8">
+        <v>1064</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="2">
         <v>60000</v>
       </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
         <v>40000</v>
       </c>
-      <c r="L19" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C20" s="2">
         <v>1014</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E20" s="2">
         <v>98</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <v>1065</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="G20" s="8">
+        <v>1065</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="2">
         <v>60000</v>
       </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
       <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
         <v>40000</v>
       </c>
-      <c r="L20" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C21" s="2">
         <v>1015</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E21" s="2">
         <v>98</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <v>1066</v>
       </c>
-      <c r="G21" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="G21" s="8">
+        <v>1066</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="2">
         <v>60000</v>
       </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
       <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
         <v>40000</v>
       </c>
-      <c r="L21" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M21" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C22" s="2">
         <v>1016</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E22" s="2">
         <v>98</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="8">
         <v>1067</v>
       </c>
-      <c r="G22" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="G22" s="8">
+        <v>1067</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="2">
         <v>60000</v>
       </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
       <c r="J22" s="2">
         <v>0</v>
       </c>
       <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
         <v>40000</v>
       </c>
-      <c r="L22" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C23" s="2">
         <v>1017</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E23" s="2">
         <v>98</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="8">
         <v>1068</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="G23" s="8">
+        <v>1068</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="2">
         <v>60000</v>
       </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
       <c r="J23" s="2">
         <v>0</v>
       </c>
       <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
         <v>40000</v>
       </c>
-      <c r="L23" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C24" s="2">
         <v>1018</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E24" s="2">
         <v>98</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="8">
         <v>1069</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="G24" s="8">
+        <v>1069</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="2">
         <v>60000</v>
       </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
       <c r="J24" s="2">
         <v>0</v>
       </c>
       <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
         <v>40000</v>
       </c>
-      <c r="L24" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C25" s="2">
         <v>1019</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E25" s="2">
         <v>98</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="8">
         <v>1070</v>
       </c>
-      <c r="G25" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="G25" s="8">
+        <v>1070</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" s="2">
         <v>60000</v>
       </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
       <c r="J25" s="2">
         <v>0</v>
       </c>
       <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
         <v>40000</v>
       </c>
-      <c r="L25" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C26" s="2">
         <v>1020</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E26" s="2">
         <v>98</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="8">
         <v>1071</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="G26" s="8">
+        <v>1071</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="2">
         <v>60000</v>
       </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
       <c r="J26" s="2">
         <v>0</v>
       </c>
       <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
         <v>40000</v>
       </c>
-      <c r="L26" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M26" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C27" s="2">
         <v>1021</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E27" s="2">
         <v>98</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="8">
         <v>1072</v>
       </c>
-      <c r="G27" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="G27" s="8">
+        <v>1072</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="2">
         <v>60000</v>
       </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
       <c r="J27" s="2">
         <v>0</v>
       </c>
       <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
         <v>40000</v>
       </c>
-      <c r="L27" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+      <c r="N27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C28" s="2">
         <v>1022</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E28" s="2">
         <v>98</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="8">
         <v>1073</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="G28" s="8">
+        <v>1073</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="I28" s="2">
         <v>60000</v>
       </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
       <c r="J28" s="2">
         <v>0</v>
       </c>
       <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
         <v>40000</v>
       </c>
-      <c r="L28" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14">
+      <c r="N28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15">
       <c r="C29" s="2">
         <v>1023</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E29" s="2">
         <v>98</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="8">
         <v>1074</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" s="2">
+      <c r="G29" s="8">
+        <v>1074</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="2">
         <v>60000</v>
       </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
       <c r="J29" s="2">
         <v>0</v>
       </c>
       <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
         <v>40000</v>
       </c>
-      <c r="L29" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M29" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>120</v>
+      <c r="N29" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 C3 C4:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 C3 F3 G3 F4 G4 F5 G5 C4:C5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -3338,10 +3696,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:M14"/>
+  <dimension ref="C1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3349,353 +3707,377 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="3" customWidth="1"/>
-    <col min="9" max="10" width="14.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.875" style="3" customWidth="1"/>
-    <col min="12" max="13" width="20.625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="5" max="7" width="13.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="3" customWidth="1"/>
+    <col min="10" max="11" width="14.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="3" customWidth="1"/>
+    <col min="13" max="14" width="20.625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="7:13">
-      <c r="G1" s="3"/>
+    <row r="1" s="1" customFormat="1" spans="8:14">
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="3:13">
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="3:14">
       <c r="C2" s="4"/>
-      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="3:13">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:14">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:13">
+      <c r="N3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:14">
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="K4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:13">
+      <c r="N4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:14">
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>19</v>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="K5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C6" s="2">
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>1070</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="8">
+        <v>1070</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="2">
         <v>240000</v>
       </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
         <v>120000</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M6" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="N6" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C7" s="2">
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>1071</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7" s="8">
+        <v>1071</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="2">
         <v>240000</v>
       </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
         <v>120000</v>
       </c>
-      <c r="L7" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M7" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="N7" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C8" s="2">
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>1072</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G8" s="8">
+        <v>1072</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="2">
         <v>240000</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
         <v>120000</v>
       </c>
-      <c r="L8" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M8" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="N8" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C9" s="2">
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>1073</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9" s="8">
+        <v>1073</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="2">
         <v>240000</v>
       </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
         <v>120000</v>
       </c>
-      <c r="L9" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M9" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:13">
+      <c r="N9" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
       <c r="C10" s="2">
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>1074</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" s="8">
+        <v>1099</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I10" s="2">
         <v>240000</v>
       </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
         <v>120000</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="M10" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="7:13">
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="7:13">
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="7:13">
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="7:13">
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="N10" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="8:14">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="8:14">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="8:14">
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="8:14">
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 C3 C4:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 C3 F3 G3 F4 G4 F5 G5 C4:C5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -277,6 +277,9 @@
     <t>掉落Id</t>
   </si>
   <si>
+    <t>起始爆率</t>
+  </si>
+  <si>
     <t>掉落概率</t>
   </si>
   <si>
@@ -286,9 +289,6 @@
     <t>ShareDz</t>
   </si>
   <si>
-    <t>起始爆率</t>
-  </si>
-  <si>
     <t>开始日期</t>
   </si>
   <si>
@@ -304,15 +304,15 @@
     <t>DropId</t>
   </si>
   <si>
+    <t>StartRate</t>
+  </si>
+  <si>
     <t>Rate</t>
   </si>
   <si>
     <t>ShareRise</t>
   </si>
   <si>
-    <t>StartRate</t>
-  </si>
-  <si>
     <t>StartDate</t>
   </si>
   <si>
@@ -385,24 +385,24 @@
     <t>1004</t>
   </si>
   <si>
+    <t>10000</t>
+  </si>
+  <si>
     <t>20000</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
     <t>龙之图鉴</t>
   </si>
   <si>
     <t>2005</t>
   </si>
   <si>
+    <t>40000</t>
+  </si>
+  <si>
     <t>80000</t>
   </si>
   <si>
-    <t>40000</t>
-  </si>
-  <si>
     <t>第一批白图鉴</t>
   </si>
   <si>
@@ -436,7 +436,7 @@
     <t>3002</t>
   </si>
   <si>
-    <t>200000</t>
+    <t>100000</t>
   </si>
   <si>
     <t>守沙100书页</t>
@@ -1713,7 +1713,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1723,9 +1723,9 @@
     <col min="4" max="4" width="13.875" style="2" customWidth="1"/>
     <col min="5" max="7" width="13.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="10" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="10" customWidth="1"/>
-    <col min="10" max="11" width="14.125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="10" customWidth="1"/>
+    <col min="11" max="12" width="14.125" style="10" customWidth="1"/>
     <col min="13" max="14" width="20.625" style="10" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
@@ -1813,10 +1813,10 @@
         <v>16</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>18</v>
@@ -1882,11 +1882,11 @@
       <c r="H6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
       </c>
       <c r="K6" s="12">
         <v>0</v>
@@ -1929,14 +1929,14 @@
       <c r="H8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="12">
+      <c r="K8" s="12">
         <v>1</v>
-      </c>
-      <c r="K8" s="12">
-        <v>0</v>
       </c>
       <c r="L8" s="12">
         <v>0</v>
@@ -1967,14 +1967,14 @@
       <c r="H9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="12">
+      <c r="K9" s="12">
         <v>1</v>
-      </c>
-      <c r="K9" s="12">
-        <v>0</v>
       </c>
       <c r="L9" s="12">
         <v>0</v>
@@ -2005,14 +2005,14 @@
       <c r="H10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="12">
+      <c r="K10" s="12">
         <v>1</v>
-      </c>
-      <c r="K10" s="12">
-        <v>0</v>
       </c>
       <c r="L10" s="12">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>1000</v>
       </c>
       <c r="G11" s="2">
-        <v>1069</v>
+        <v>1099</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>39</v>
@@ -2046,14 +2046,14 @@
       <c r="I11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="15" t="s">
+      <c r="J11" s="15" t="s">
         <v>37</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>30</v>
@@ -2073,7 +2073,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1099</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>41</v>
@@ -2081,14 +2084,14 @@
       <c r="I12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="15" t="s">
+      <c r="J12" s="15" t="s">
         <v>43</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
       </c>
       <c r="M12" s="14" t="s">
         <v>30</v>
@@ -2108,22 +2111,25 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1099</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-      <c r="L13" s="15" t="s">
+      <c r="J13" s="14" t="s">
         <v>47</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>30</v>
@@ -2151,14 +2157,14 @@
       <c r="H14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="12">
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="12">
         <v>1</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0</v>
       </c>
       <c r="L14" s="12">
         <v>0</v>
@@ -2189,14 +2195,14 @@
       <c r="H15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="12">
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="12">
         <v>1</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0</v>
       </c>
       <c r="L15" s="12">
         <v>0</v>
@@ -2227,14 +2233,14 @@
       <c r="H16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="12">
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="12">
         <v>1</v>
-      </c>
-      <c r="K16" s="12">
-        <v>0</v>
       </c>
       <c r="L16" s="12">
         <v>0</v>
@@ -2265,14 +2271,14 @@
       <c r="H17" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="12">
+      <c r="K17" s="12">
         <v>1</v>
-      </c>
-      <c r="K17" s="12">
-        <v>0</v>
       </c>
       <c r="L17" s="12">
         <v>0</v>
@@ -2306,16 +2312,16 @@
       <c r="H18" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>1</v>
       </c>
-      <c r="K18" s="12">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
+      <c r="L18" s="12">
         <v>0</v>
       </c>
       <c r="M18" s="14" t="s">
@@ -2345,17 +2351,17 @@
       <c r="H20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
         <v>1</v>
       </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="12">
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
         <v>1</v>
-      </c>
-      <c r="L20" s="12">
-        <v>0</v>
       </c>
       <c r="M20" s="14" t="s">
         <v>30</v>
@@ -2383,17 +2389,17 @@
       <c r="H21" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
         <v>1</v>
       </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="12">
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
         <v>1</v>
-      </c>
-      <c r="L21" s="12">
-        <v>0</v>
       </c>
       <c r="M21" s="14" t="s">
         <v>30</v>
@@ -2421,17 +2427,17 @@
       <c r="H22" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
         <v>1</v>
       </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="12">
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
         <v>1</v>
-      </c>
-      <c r="L22" s="12">
-        <v>0</v>
       </c>
       <c r="M22" s="14" t="s">
         <v>30</v>
@@ -2463,17 +2469,17 @@
       <c r="H27" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
         <v>1</v>
       </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
       <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
         <v>1</v>
-      </c>
-      <c r="L27" s="12">
-        <v>0</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>30</v>
@@ -2544,7 +2550,7 @@
   <dimension ref="C1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F29"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2554,9 +2560,9 @@
     <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
     <col min="5" max="7" width="13.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="3" customWidth="1"/>
-    <col min="10" max="11" width="14.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="3" customWidth="1"/>
+    <col min="11" max="12" width="14.125" style="3" customWidth="1"/>
     <col min="13" max="14" width="20.625" style="3" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
@@ -2608,10 +2614,10 @@
       <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="M3" s="7" t="s">
@@ -2646,11 +2652,11 @@
       <c r="J4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>17</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>18</v>
@@ -2684,10 +2690,10 @@
       <c r="J5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="7" t="s">
@@ -2717,16 +2723,16 @@
         <v>68</v>
       </c>
       <c r="I6" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J6" s="2">
         <v>60000</v>
       </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
       <c r="K6" s="2">
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>30</v>
@@ -2758,16 +2764,16 @@
         <v>71</v>
       </c>
       <c r="I7" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J7" s="2">
         <v>60000</v>
       </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>30</v>
@@ -2799,16 +2805,16 @@
         <v>74</v>
       </c>
       <c r="I8" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J8" s="2">
         <v>60000</v>
       </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>30</v>
@@ -2840,16 +2846,16 @@
         <v>77</v>
       </c>
       <c r="I9" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J9" s="2">
         <v>60000</v>
       </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M9" s="14" t="s">
         <v>30</v>
@@ -2881,16 +2887,16 @@
         <v>80</v>
       </c>
       <c r="I10" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J10" s="2">
         <v>60000</v>
       </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M10" s="14" t="s">
         <v>30</v>
@@ -2922,16 +2928,16 @@
         <v>83</v>
       </c>
       <c r="I11" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J11" s="2">
         <v>60000</v>
       </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>30</v>
@@ -2963,16 +2969,16 @@
         <v>86</v>
       </c>
       <c r="I12" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J12" s="2">
         <v>60000</v>
       </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M12" s="14" t="s">
         <v>30</v>
@@ -3004,16 +3010,16 @@
         <v>89</v>
       </c>
       <c r="I13" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J13" s="2">
         <v>60000</v>
       </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>30</v>
@@ -3045,16 +3051,16 @@
         <v>92</v>
       </c>
       <c r="I14" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J14" s="2">
         <v>60000</v>
       </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M14" s="14" t="s">
         <v>30</v>
@@ -3086,16 +3092,16 @@
         <v>94</v>
       </c>
       <c r="I15" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J15" s="2">
         <v>60000</v>
       </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
       <c r="K15" s="2">
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M15" s="14" t="s">
         <v>30</v>
@@ -3127,16 +3133,16 @@
         <v>96</v>
       </c>
       <c r="I16" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J16" s="2">
         <v>60000</v>
       </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
       <c r="K16" s="2">
         <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M16" s="14" t="s">
         <v>30</v>
@@ -3168,16 +3174,16 @@
         <v>98</v>
       </c>
       <c r="I17" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J17" s="2">
         <v>60000</v>
       </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
       <c r="K17" s="2">
         <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M17" s="14" t="s">
         <v>30</v>
@@ -3209,16 +3215,16 @@
         <v>100</v>
       </c>
       <c r="I18" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J18" s="2">
         <v>60000</v>
       </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
       <c r="K18" s="2">
         <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M18" s="14" t="s">
         <v>30</v>
@@ -3250,16 +3256,16 @@
         <v>103</v>
       </c>
       <c r="I19" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J19" s="2">
         <v>60000</v>
       </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
       <c r="K19" s="2">
         <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M19" s="14" t="s">
         <v>30</v>
@@ -3291,16 +3297,16 @@
         <v>106</v>
       </c>
       <c r="I20" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J20" s="2">
         <v>60000</v>
       </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
       <c r="K20" s="2">
         <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M20" s="14" t="s">
         <v>30</v>
@@ -3332,16 +3338,16 @@
         <v>109</v>
       </c>
       <c r="I21" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J21" s="2">
         <v>60000</v>
       </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
       <c r="K21" s="2">
         <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M21" s="14" t="s">
         <v>30</v>
@@ -3373,16 +3379,16 @@
         <v>111</v>
       </c>
       <c r="I22" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J22" s="2">
         <v>60000</v>
       </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
       <c r="K22" s="2">
         <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M22" s="14" t="s">
         <v>30</v>
@@ -3414,16 +3420,16 @@
         <v>113</v>
       </c>
       <c r="I23" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J23" s="2">
         <v>60000</v>
       </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
       <c r="K23" s="2">
         <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M23" s="14" t="s">
         <v>30</v>
@@ -3455,16 +3461,16 @@
         <v>116</v>
       </c>
       <c r="I24" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J24" s="2">
         <v>60000</v>
       </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
       <c r="K24" s="2">
         <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M24" s="14" t="s">
         <v>30</v>
@@ -3496,16 +3502,16 @@
         <v>119</v>
       </c>
       <c r="I25" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J25" s="2">
         <v>60000</v>
       </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
       <c r="K25" s="2">
         <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M25" s="14" t="s">
         <v>30</v>
@@ -3537,16 +3543,16 @@
         <v>122</v>
       </c>
       <c r="I26" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J26" s="2">
         <v>60000</v>
       </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
       <c r="K26" s="2">
         <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>30</v>
@@ -3578,16 +3584,16 @@
         <v>125</v>
       </c>
       <c r="I27" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J27" s="2">
         <v>60000</v>
       </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
       <c r="K27" s="2">
         <v>0</v>
       </c>
       <c r="L27" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>30</v>
@@ -3619,16 +3625,16 @@
         <v>127</v>
       </c>
       <c r="I28" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J28" s="2">
         <v>60000</v>
       </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
       <c r="K28" s="2">
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M28" s="14" t="s">
         <v>30</v>
@@ -3660,16 +3666,16 @@
         <v>130</v>
       </c>
       <c r="I29" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J29" s="2">
         <v>60000</v>
       </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
       <c r="K29" s="2">
         <v>0</v>
       </c>
       <c r="L29" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="M29" s="14" t="s">
         <v>30</v>
@@ -3699,7 +3705,7 @@
   <dimension ref="C1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3709,9 +3715,9 @@
     <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
     <col min="5" max="7" width="13.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="3" customWidth="1"/>
-    <col min="10" max="11" width="14.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="3" customWidth="1"/>
+    <col min="11" max="12" width="14.125" style="3" customWidth="1"/>
     <col min="13" max="14" width="20.625" style="3" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
@@ -3760,10 +3766,10 @@
       <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="M3" s="7" t="s">
@@ -3798,11 +3804,11 @@
       <c r="J4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>17</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>18</v>
@@ -3836,10 +3842,10 @@
       <c r="J5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="7" t="s">
@@ -3869,16 +3875,16 @@
         <v>133</v>
       </c>
       <c r="I6" s="2">
+        <v>120000</v>
+      </c>
+      <c r="J6" s="2">
         <v>240000</v>
       </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
       <c r="K6" s="2">
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>30</v>
@@ -3907,16 +3913,16 @@
         <v>135</v>
       </c>
       <c r="I7" s="2">
+        <v>120000</v>
+      </c>
+      <c r="J7" s="2">
         <v>240000</v>
       </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>30</v>
@@ -3945,16 +3951,16 @@
         <v>137</v>
       </c>
       <c r="I8" s="2">
+        <v>120000</v>
+      </c>
+      <c r="J8" s="2">
         <v>240000</v>
       </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>30</v>
@@ -3983,16 +3989,16 @@
         <v>139</v>
       </c>
       <c r="I9" s="2">
+        <v>120000</v>
+      </c>
+      <c r="J9" s="2">
         <v>240000</v>
       </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="M9" s="14" t="s">
         <v>30</v>
@@ -4021,16 +4027,16 @@
         <v>141</v>
       </c>
       <c r="I10" s="2">
+        <v>120000</v>
+      </c>
+      <c r="J10" s="2">
         <v>240000</v>
       </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="M10" s="14" t="s">
         <v>30</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="142">
   <si>
     <t>_id</t>
   </si>
@@ -1713,7 +1713,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2294,6 +2294,9 @@
       <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C18" s="2">
         <v>110</v>
       </c>
@@ -2307,7 +2310,7 @@
         <v>1070</v>
       </c>
       <c r="G18" s="2">
-        <v>1099</v>
+        <v>0</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>58</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="150">
   <si>
     <t>_id</t>
   </si>
@@ -340,118 +340,142 @@
     <t>2024-02-17</t>
   </si>
   <si>
+    <t>第一批白图鉴</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>2023-10-21</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>第一批绿图鉴</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>第一批蓝图鉴</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>第一批紫图鉴</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>第一二批白图鉴</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>第一二批绿图鉴</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>16000</t>
+  </si>
+  <si>
+    <t>第一二批蓝图鉴</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>第一二批紫图鉴</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>32000</t>
+  </si>
+  <si>
+    <t>守沙100书页</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>守沙图鉴</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>守沙时装</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>第一时装</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>第二时装</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>专属之心</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
     <t>第一批冠名图鉴</t>
   </si>
   <si>
     <t>2001</t>
   </si>
   <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>2023-10-21</t>
-  </si>
-  <si>
-    <t>2024-10-21</t>
-  </si>
-  <si>
-    <t>第一批白绿图鉴</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>8000</t>
-  </si>
-  <si>
-    <t>第一批蓝紫图鉴</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>第一时装</t>
-  </si>
-  <si>
-    <t>3001</t>
-  </si>
-  <si>
-    <t>专属之心</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>20000</t>
+    <t>5000</t>
   </si>
   <si>
     <t>龙之图鉴</t>
   </si>
   <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>40000</t>
+    <t>2006</t>
   </si>
   <si>
     <t>80000</t>
-  </si>
-  <si>
-    <t>第一批白图鉴</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>第一批绿图鉴</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>第二批蓝图鉴</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>第二批紫图鉴</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>第二时装</t>
-  </si>
-  <si>
-    <t>3002</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>守沙100书页</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>守沙图鉴</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>守沙时装</t>
   </si>
   <si>
     <t>镜像挑战</t>
@@ -887,12 +911,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1710,13 +1734,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="8.75" style="2" customWidth="1"/>
@@ -1730,7 +1754,7 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="8:14">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="8:14">
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -1739,7 +1763,7 @@
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="3:14">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="3:14">
       <c r="C2" s="13"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -1749,7 +1773,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="3:14">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="3:14">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1787,7 +1811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="3:14">
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="3:14">
       <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1825,7 +1849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="3:14">
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="3:14">
       <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
@@ -1863,7 +1887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:14">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -1901,18 +1925,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="8:14">
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:14">
       <c r="C8" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>27</v>
@@ -1948,9 +1963,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:14">
       <c r="C9" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>32</v>
@@ -1986,9 +2001,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:14">
       <c r="C10" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>35</v>
@@ -2024,9 +2039,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:14">
       <c r="C11" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
@@ -2038,19 +2053,19 @@
         <v>1000</v>
       </c>
       <c r="G11" s="2">
-        <v>1099</v>
-      </c>
-      <c r="H11" s="14" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1</v>
       </c>
       <c r="L11" s="12">
         <v>0</v>
@@ -2062,33 +2077,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:14">
       <c r="C12" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>1000</v>
+        <v>1035</v>
       </c>
       <c r="G12" s="2">
         <v>1099</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="15" t="s">
+      <c r="H12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="2">
-        <v>0</v>
+      <c r="K12" s="12">
+        <v>1</v>
       </c>
       <c r="L12" s="12">
         <v>0</v>
@@ -2100,9 +2115,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:14">
       <c r="C13" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>44</v>
@@ -2111,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>1000</v>
+        <v>1035</v>
       </c>
       <c r="G13" s="2">
         <v>1099</v>
@@ -2119,31 +2134,31 @@
       <c r="H13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="K13" s="12">
+        <v>1</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C14" s="2">
+        <v>107</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
-        <v>0</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
-      <c r="C14" s="2">
-        <v>106</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -2155,13 +2170,13 @@
         <v>1099</v>
       </c>
       <c r="H14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="K14" s="12">
         <v>1</v>
@@ -2176,9 +2191,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:14">
       <c r="C15" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>50</v>
@@ -2199,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K15" s="12">
         <v>1</v>
@@ -2214,295 +2229,372 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
-      <c r="C16" s="2">
-        <v>108</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1035</v>
-      </c>
-      <c r="G16" s="2">
+    <row r="16" s="2" customFormat="1" customHeight="1"/>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C17" s="2">
+        <v>201</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="2">
+        <v>100</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>1</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C18" s="2">
+        <v>202</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="2">
+        <v>100</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>1</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C19" s="2">
+        <v>203</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2">
+        <v>100</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <v>1</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="8:14">
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C21" s="2">
+        <v>301</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="2">
         <v>1099</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14" t="s">
+      <c r="H21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="2">
+        <v>302</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1070</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1"/>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C24" s="2">
+        <v>801</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1099</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="12">
+      <c r="J24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C25" s="2">
+        <v>802</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1099</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="12">
         <v>1</v>
       </c>
-      <c r="L16" s="12">
-        <v>0</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
-      <c r="C17" s="2">
-        <v>109</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1035</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C26" s="2">
+        <v>803</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="2">
         <v>1099</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="12">
+      <c r="H26" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="10:14">
+      <c r="J27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C28" s="2">
+        <v>991</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="2">
+        <v>99</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
         <v>1</v>
       </c>
-      <c r="L17" s="12">
-        <v>0</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="2">
-        <v>110</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1070</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" s="2">
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
         <v>1</v>
       </c>
-      <c r="L18" s="12">
-        <v>0</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
-      <c r="C20" s="2">
-        <v>201</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="2">
-        <v>100</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="12">
-        <v>1</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
-      <c r="C21" s="2">
-        <v>202</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="2">
-        <v>100</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="12">
-        <v>1</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
-      <c r="C22" s="2">
-        <v>203</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="2">
-        <v>100</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="12">
-        <v>1</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="24" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="25" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="26" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
-      <c r="C27" s="2">
-        <v>301</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="2">
-        <v>99</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="12">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>1</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="29" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="30" s="2" customFormat="1" ht="18" customHeight="1" spans="8:14">
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="18" customHeight="1" spans="8:14">
+      <c r="M28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1"/>
+    <row r="30" s="2" customFormat="1" customHeight="1"/>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="8:14">
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
@@ -2511,7 +2603,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" s="2" customFormat="1" ht="18" customHeight="1" spans="8:14">
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="8:14">
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -2520,7 +2612,7 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="18" customHeight="1" spans="8:14">
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="8:14">
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -2529,15 +2621,21 @@
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
     </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="8:14">
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="F25">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 C3 F3 G3 F4 G4 F5 G5 F8 G8 C4:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 C3 F3 G3 F4 G4 F5 G5 F25 C4:C5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -2589,7 +2687,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="3:14">
@@ -2711,7 +2809,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -2723,7 +2821,7 @@
         <v>1051</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2">
         <v>40000</v>
@@ -2744,7 +2842,7 @@
         <v>31</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -2752,7 +2850,7 @@
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -2764,7 +2862,7 @@
         <v>1052</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I7" s="2">
         <v>40000</v>
@@ -2785,7 +2883,7 @@
         <v>31</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -2793,7 +2891,7 @@
         <v>1002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -2805,7 +2903,7 @@
         <v>1053</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I8" s="2">
         <v>40000</v>
@@ -2826,7 +2924,7 @@
         <v>31</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -2834,7 +2932,7 @@
         <v>1003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -2846,7 +2944,7 @@
         <v>1054</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I9" s="2">
         <v>40000</v>
@@ -2867,7 +2965,7 @@
         <v>31</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -2875,7 +2973,7 @@
         <v>1004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -2887,7 +2985,7 @@
         <v>1055</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I10" s="2">
         <v>40000</v>
@@ -2908,7 +3006,7 @@
         <v>31</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -2916,7 +3014,7 @@
         <v>1005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -2928,7 +3026,7 @@
         <v>1056</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I11" s="2">
         <v>40000</v>
@@ -2949,7 +3047,7 @@
         <v>31</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -2957,7 +3055,7 @@
         <v>1006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2">
         <v>98</v>
@@ -2969,7 +3067,7 @@
         <v>1057</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I12" s="2">
         <v>40000</v>
@@ -2990,7 +3088,7 @@
         <v>31</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -2998,7 +3096,7 @@
         <v>1007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2">
         <v>98</v>
@@ -3010,7 +3108,7 @@
         <v>1058</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I13" s="2">
         <v>40000</v>
@@ -3031,7 +3129,7 @@
         <v>31</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3039,7 +3137,7 @@
         <v>1008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E14" s="2">
         <v>98</v>
@@ -3051,7 +3149,7 @@
         <v>1059</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I14" s="2">
         <v>40000</v>
@@ -3072,7 +3170,7 @@
         <v>31</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3080,7 +3178,7 @@
         <v>1009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
@@ -3092,7 +3190,7 @@
         <v>1060</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I15" s="2">
         <v>40000</v>
@@ -3113,7 +3211,7 @@
         <v>31</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3121,7 +3219,7 @@
         <v>1010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E16" s="2">
         <v>98</v>
@@ -3133,7 +3231,7 @@
         <v>1061</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="I16" s="2">
         <v>40000</v>
@@ -3154,7 +3252,7 @@
         <v>31</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3162,7 +3260,7 @@
         <v>1011</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E17" s="2">
         <v>98</v>
@@ -3174,7 +3272,7 @@
         <v>1062</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="I17" s="2">
         <v>40000</v>
@@ -3195,7 +3293,7 @@
         <v>31</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3203,7 +3301,7 @@
         <v>1012</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2">
         <v>98</v>
@@ -3215,7 +3313,7 @@
         <v>1063</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I18" s="2">
         <v>40000</v>
@@ -3236,7 +3334,7 @@
         <v>31</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3244,7 +3342,7 @@
         <v>1013</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E19" s="2">
         <v>98</v>
@@ -3256,7 +3354,7 @@
         <v>1064</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I19" s="2">
         <v>40000</v>
@@ -3277,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3285,7 +3383,7 @@
         <v>1014</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E20" s="2">
         <v>98</v>
@@ -3297,7 +3395,7 @@
         <v>1065</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I20" s="2">
         <v>40000</v>
@@ -3318,7 +3416,7 @@
         <v>31</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3326,7 +3424,7 @@
         <v>1015</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E21" s="2">
         <v>98</v>
@@ -3338,7 +3436,7 @@
         <v>1066</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="I21" s="2">
         <v>40000</v>
@@ -3359,7 +3457,7 @@
         <v>31</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3367,7 +3465,7 @@
         <v>1016</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E22" s="2">
         <v>98</v>
@@ -3379,7 +3477,7 @@
         <v>1067</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I22" s="2">
         <v>40000</v>
@@ -3400,7 +3498,7 @@
         <v>31</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3408,7 +3506,7 @@
         <v>1017</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E23" s="2">
         <v>98</v>
@@ -3420,7 +3518,7 @@
         <v>1068</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="I23" s="2">
         <v>40000</v>
@@ -3441,7 +3539,7 @@
         <v>31</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3449,7 +3547,7 @@
         <v>1018</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E24" s="2">
         <v>98</v>
@@ -3461,7 +3559,7 @@
         <v>1069</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="I24" s="2">
         <v>40000</v>
@@ -3482,7 +3580,7 @@
         <v>31</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3490,7 +3588,7 @@
         <v>1019</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E25" s="2">
         <v>98</v>
@@ -3502,7 +3600,7 @@
         <v>1070</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I25" s="2">
         <v>40000</v>
@@ -3523,7 +3621,7 @@
         <v>31</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3531,7 +3629,7 @@
         <v>1020</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E26" s="2">
         <v>98</v>
@@ -3543,7 +3641,7 @@
         <v>1071</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="I26" s="2">
         <v>40000</v>
@@ -3564,7 +3662,7 @@
         <v>31</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3572,7 +3670,7 @@
         <v>1021</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E27" s="2">
         <v>98</v>
@@ -3584,7 +3682,7 @@
         <v>1072</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="I27" s="2">
         <v>40000</v>
@@ -3605,7 +3703,7 @@
         <v>31</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3613,7 +3711,7 @@
         <v>1022</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E28" s="2">
         <v>98</v>
@@ -3625,7 +3723,7 @@
         <v>1073</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I28" s="2">
         <v>40000</v>
@@ -3646,7 +3744,7 @@
         <v>31</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="3:15">
@@ -3654,7 +3752,7 @@
         <v>1023</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E29" s="2">
         <v>98</v>
@@ -3666,7 +3764,7 @@
         <v>1074</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="I29" s="2">
         <v>40000</v>
@@ -3687,7 +3785,7 @@
         <v>31</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3863,7 +3961,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -3875,7 +3973,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -3901,7 +3999,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -3913,7 +4011,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -3939,7 +4037,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -3951,7 +4049,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -3977,7 +4075,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -3989,7 +4087,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -4015,7 +4113,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -4027,7 +4125,7 @@
         <v>1099</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -325,7 +325,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>春节活动</t>
+    <t>清明活动</t>
   </si>
   <si>
     <t>1005</t>
@@ -334,10 +334,10 @@
     <t>50</t>
   </si>
   <si>
-    <t>2024-02-07</t>
-  </si>
-  <si>
-    <t>2024-02-17</t>
+    <t>2024-04-04</t>
+  </si>
+  <si>
+    <t>2024-04-07</t>
   </si>
   <si>
     <t>第一批白图鉴</t>
@@ -911,12 +911,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1737,7 +1737,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="153">
   <si>
     <t>_id</t>
   </si>
@@ -346,133 +346,142 @@
     <t>2010</t>
   </si>
   <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>2023-10-21</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>第一批绿图鉴</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>16000</t>
+  </si>
+  <si>
+    <t>第一批蓝图鉴</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>第一批紫图鉴</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>32000</t>
+  </si>
+  <si>
+    <t>第一二批白图鉴</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>第一二批绿图鉴</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>第一二批蓝图鉴</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>第一二批紫图鉴</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>守沙100书页</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>守沙图鉴</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>守沙时装</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>第一时装</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>第二时装</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>专属之心</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
     <t>10000</t>
   </si>
   <si>
-    <t>2023-10-21</t>
-  </si>
-  <si>
-    <t>2024-10-21</t>
-  </si>
-  <si>
-    <t>第一批绿图鉴</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
     <t>20000</t>
   </si>
   <si>
-    <t>第一批蓝图鉴</t>
-  </si>
-  <si>
-    <t>2012</t>
+    <t>第一批冠名图鉴</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>5000</t>
   </si>
   <si>
     <t>30000</t>
   </si>
   <si>
-    <t>第一批紫图鉴</t>
-  </si>
-  <si>
-    <t>2013</t>
+    <t>龙之图鉴</t>
+  </si>
+  <si>
+    <t>2006</t>
   </si>
   <si>
     <t>40000</t>
-  </si>
-  <si>
-    <t>第一二批白图鉴</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>8000</t>
-  </si>
-  <si>
-    <t>第一二批绿图鉴</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>16000</t>
-  </si>
-  <si>
-    <t>第一二批蓝图鉴</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>第一二批紫图鉴</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>32000</t>
-  </si>
-  <si>
-    <t>守沙100书页</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>守沙图鉴</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>守沙时装</t>
-  </si>
-  <si>
-    <t>3001</t>
-  </si>
-  <si>
-    <t>第一时装</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>第二时装</t>
-  </si>
-  <si>
-    <t>3002</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>专属之心</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>第一批冠名图鉴</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>龙之图鉴</t>
-  </si>
-  <si>
-    <t>2006</t>
   </si>
   <si>
     <t>80000</t>
@@ -911,12 +920,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1737,7 +1746,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2214,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="K15" s="12">
         <v>1</v>
@@ -2235,7 +2244,7 @@
         <v>201</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2">
         <v>100</v>
@@ -2247,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="12">
         <v>0</v>
@@ -2273,7 +2282,7 @@
         <v>202</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2">
         <v>100</v>
@@ -2285,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="12">
         <v>0</v>
@@ -2311,7 +2320,7 @@
         <v>203</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2">
         <v>100</v>
@@ -2323,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="12">
         <v>0</v>
@@ -2356,7 +2365,7 @@
         <v>301</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -2368,13 +2377,13 @@
         <v>1099</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
@@ -2391,16 +2400,16 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2">
         <v>302</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -2412,13 +2421,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -2439,7 +2448,7 @@
         <v>801</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -2451,13 +2460,13 @@
         <v>1099</v>
       </c>
       <c r="H24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I24" s="15" t="s">
-        <v>29</v>
-      </c>
       <c r="J24" s="15" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -2477,7 +2486,7 @@
         <v>802</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -2489,13 +2498,13 @@
         <v>1099</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="K25" s="12">
         <v>1</v>
@@ -2515,7 +2524,7 @@
         <v>803</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -2527,13 +2536,13 @@
         <v>1099</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -2559,7 +2568,7 @@
         <v>991</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2">
         <v>99</v>
@@ -2571,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I28" s="12">
         <v>0</v>
@@ -2687,7 +2696,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="3:14">
@@ -2809,7 +2818,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -2821,7 +2830,7 @@
         <v>1051</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2">
         <v>40000</v>
@@ -2842,7 +2851,7 @@
         <v>31</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -2850,7 +2859,7 @@
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -2862,7 +2871,7 @@
         <v>1052</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2">
         <v>40000</v>
@@ -2883,7 +2892,7 @@
         <v>31</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -2891,7 +2900,7 @@
         <v>1002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -2903,7 +2912,7 @@
         <v>1053</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I8" s="2">
         <v>40000</v>
@@ -2924,7 +2933,7 @@
         <v>31</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -2932,7 +2941,7 @@
         <v>1003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -2944,7 +2953,7 @@
         <v>1054</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I9" s="2">
         <v>40000</v>
@@ -2965,7 +2974,7 @@
         <v>31</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -2973,7 +2982,7 @@
         <v>1004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -2985,7 +2994,7 @@
         <v>1055</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I10" s="2">
         <v>40000</v>
@@ -3006,7 +3015,7 @@
         <v>31</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3014,7 +3023,7 @@
         <v>1005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -3026,7 +3035,7 @@
         <v>1056</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I11" s="2">
         <v>40000</v>
@@ -3047,7 +3056,7 @@
         <v>31</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3055,7 +3064,7 @@
         <v>1006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2">
         <v>98</v>
@@ -3067,7 +3076,7 @@
         <v>1057</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I12" s="2">
         <v>40000</v>
@@ -3088,7 +3097,7 @@
         <v>31</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3096,7 +3105,7 @@
         <v>1007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2">
         <v>98</v>
@@ -3108,7 +3117,7 @@
         <v>1058</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I13" s="2">
         <v>40000</v>
@@ -3129,7 +3138,7 @@
         <v>31</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3137,7 +3146,7 @@
         <v>1008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E14" s="2">
         <v>98</v>
@@ -3149,7 +3158,7 @@
         <v>1059</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I14" s="2">
         <v>40000</v>
@@ -3170,7 +3179,7 @@
         <v>31</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3178,7 +3187,7 @@
         <v>1009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
@@ -3190,7 +3199,7 @@
         <v>1060</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I15" s="2">
         <v>40000</v>
@@ -3211,7 +3220,7 @@
         <v>31</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3219,7 +3228,7 @@
         <v>1010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E16" s="2">
         <v>98</v>
@@ -3231,7 +3240,7 @@
         <v>1061</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I16" s="2">
         <v>40000</v>
@@ -3252,7 +3261,7 @@
         <v>31</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3260,7 +3269,7 @@
         <v>1011</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E17" s="2">
         <v>98</v>
@@ -3272,7 +3281,7 @@
         <v>1062</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I17" s="2">
         <v>40000</v>
@@ -3293,7 +3302,7 @@
         <v>31</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3301,7 +3310,7 @@
         <v>1012</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E18" s="2">
         <v>98</v>
@@ -3313,7 +3322,7 @@
         <v>1063</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I18" s="2">
         <v>40000</v>
@@ -3334,7 +3343,7 @@
         <v>31</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3342,7 +3351,7 @@
         <v>1013</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E19" s="2">
         <v>98</v>
@@ -3354,7 +3363,7 @@
         <v>1064</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I19" s="2">
         <v>40000</v>
@@ -3375,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3383,7 +3392,7 @@
         <v>1014</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E20" s="2">
         <v>98</v>
@@ -3395,7 +3404,7 @@
         <v>1065</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I20" s="2">
         <v>40000</v>
@@ -3416,7 +3425,7 @@
         <v>31</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3424,7 +3433,7 @@
         <v>1015</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E21" s="2">
         <v>98</v>
@@ -3436,7 +3445,7 @@
         <v>1066</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I21" s="2">
         <v>40000</v>
@@ -3457,7 +3466,7 @@
         <v>31</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3465,7 +3474,7 @@
         <v>1016</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E22" s="2">
         <v>98</v>
@@ -3477,7 +3486,7 @@
         <v>1067</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I22" s="2">
         <v>40000</v>
@@ -3498,7 +3507,7 @@
         <v>31</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3506,7 +3515,7 @@
         <v>1017</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E23" s="2">
         <v>98</v>
@@ -3518,7 +3527,7 @@
         <v>1068</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I23" s="2">
         <v>40000</v>
@@ -3539,7 +3548,7 @@
         <v>31</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3547,7 +3556,7 @@
         <v>1018</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E24" s="2">
         <v>98</v>
@@ -3559,7 +3568,7 @@
         <v>1069</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I24" s="2">
         <v>40000</v>
@@ -3580,7 +3589,7 @@
         <v>31</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3588,7 +3597,7 @@
         <v>1019</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E25" s="2">
         <v>98</v>
@@ -3600,7 +3609,7 @@
         <v>1070</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I25" s="2">
         <v>40000</v>
@@ -3621,7 +3630,7 @@
         <v>31</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3629,7 +3638,7 @@
         <v>1020</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E26" s="2">
         <v>98</v>
@@ -3641,7 +3650,7 @@
         <v>1071</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I26" s="2">
         <v>40000</v>
@@ -3662,7 +3671,7 @@
         <v>31</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3670,7 +3679,7 @@
         <v>1021</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E27" s="2">
         <v>98</v>
@@ -3682,7 +3691,7 @@
         <v>1072</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I27" s="2">
         <v>40000</v>
@@ -3703,7 +3712,7 @@
         <v>31</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3711,7 +3720,7 @@
         <v>1022</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E28" s="2">
         <v>98</v>
@@ -3723,7 +3732,7 @@
         <v>1073</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I28" s="2">
         <v>40000</v>
@@ -3744,7 +3753,7 @@
         <v>31</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="3:15">
@@ -3752,7 +3761,7 @@
         <v>1023</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E29" s="2">
         <v>98</v>
@@ -3764,7 +3773,7 @@
         <v>1074</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I29" s="2">
         <v>40000</v>
@@ -3785,7 +3794,7 @@
         <v>31</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3961,7 +3970,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -3973,7 +3982,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -3999,7 +4008,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -4011,7 +4020,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -4037,7 +4046,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -4049,7 +4058,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -4075,7 +4084,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -4087,7 +4096,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -4113,7 +4122,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -4125,7 +4134,7 @@
         <v>1099</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="154">
   <si>
     <t>_id</t>
   </si>
@@ -388,7 +388,7 @@
     <t>2014</t>
   </si>
   <si>
-    <t>6000</t>
+    <t>7000</t>
   </si>
   <si>
     <t>第一二批绿图鉴</t>
@@ -397,7 +397,7 @@
     <t>2015</t>
   </si>
   <si>
-    <t>12000</t>
+    <t>14000</t>
   </si>
   <si>
     <t>第一二批蓝图鉴</t>
@@ -406,13 +406,16 @@
     <t>2016</t>
   </si>
   <si>
-    <t>18000</t>
+    <t>21000</t>
   </si>
   <si>
     <t>第一二批紫图鉴</t>
   </si>
   <si>
     <t>2017</t>
+  </si>
+  <si>
+    <t>28000</t>
   </si>
   <si>
     <t>守沙100书页</t>
@@ -920,12 +923,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1746,7 +1749,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2223,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="K15" s="12">
         <v>1</v>
@@ -2244,7 +2247,7 @@
         <v>201</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2">
         <v>100</v>
@@ -2256,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" s="12">
         <v>0</v>
@@ -2282,7 +2285,7 @@
         <v>202</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2">
         <v>100</v>
@@ -2294,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18" s="12">
         <v>0</v>
@@ -2320,7 +2323,7 @@
         <v>203</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2">
         <v>100</v>
@@ -2332,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="12">
         <v>0</v>
@@ -2365,7 +2368,7 @@
         <v>301</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -2377,13 +2380,13 @@
         <v>1099</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
@@ -2400,16 +2403,16 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2">
         <v>302</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -2421,13 +2424,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -2448,7 +2451,7 @@
         <v>801</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -2460,13 +2463,13 @@
         <v>1099</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -2486,7 +2489,7 @@
         <v>802</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -2498,13 +2501,13 @@
         <v>1099</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K25" s="12">
         <v>1</v>
@@ -2524,7 +2527,7 @@
         <v>803</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -2536,13 +2539,13 @@
         <v>1099</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -2568,7 +2571,7 @@
         <v>991</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2">
         <v>99</v>
@@ -2580,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" s="12">
         <v>0</v>
@@ -2696,7 +2699,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="3:14">
@@ -2818,7 +2821,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -2830,7 +2833,7 @@
         <v>1051</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" s="2">
         <v>40000</v>
@@ -2851,7 +2854,7 @@
         <v>31</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -2859,7 +2862,7 @@
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -2871,7 +2874,7 @@
         <v>1052</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7" s="2">
         <v>40000</v>
@@ -2892,7 +2895,7 @@
         <v>31</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -2900,7 +2903,7 @@
         <v>1002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -2912,7 +2915,7 @@
         <v>1053</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8" s="2">
         <v>40000</v>
@@ -2933,7 +2936,7 @@
         <v>31</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -2941,7 +2944,7 @@
         <v>1003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -2953,7 +2956,7 @@
         <v>1054</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I9" s="2">
         <v>40000</v>
@@ -2974,7 +2977,7 @@
         <v>31</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -2982,7 +2985,7 @@
         <v>1004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -2994,7 +2997,7 @@
         <v>1055</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I10" s="2">
         <v>40000</v>
@@ -3015,7 +3018,7 @@
         <v>31</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3023,7 +3026,7 @@
         <v>1005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -3035,7 +3038,7 @@
         <v>1056</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I11" s="2">
         <v>40000</v>
@@ -3056,7 +3059,7 @@
         <v>31</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3064,7 +3067,7 @@
         <v>1006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2">
         <v>98</v>
@@ -3076,7 +3079,7 @@
         <v>1057</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I12" s="2">
         <v>40000</v>
@@ -3097,7 +3100,7 @@
         <v>31</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3105,7 +3108,7 @@
         <v>1007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2">
         <v>98</v>
@@ -3117,7 +3120,7 @@
         <v>1058</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I13" s="2">
         <v>40000</v>
@@ -3138,7 +3141,7 @@
         <v>31</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3146,7 +3149,7 @@
         <v>1008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E14" s="2">
         <v>98</v>
@@ -3158,7 +3161,7 @@
         <v>1059</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I14" s="2">
         <v>40000</v>
@@ -3179,7 +3182,7 @@
         <v>31</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3187,7 +3190,7 @@
         <v>1009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
@@ -3199,7 +3202,7 @@
         <v>1060</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I15" s="2">
         <v>40000</v>
@@ -3220,7 +3223,7 @@
         <v>31</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3228,7 +3231,7 @@
         <v>1010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E16" s="2">
         <v>98</v>
@@ -3240,7 +3243,7 @@
         <v>1061</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I16" s="2">
         <v>40000</v>
@@ -3261,7 +3264,7 @@
         <v>31</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3269,7 +3272,7 @@
         <v>1011</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E17" s="2">
         <v>98</v>
@@ -3281,7 +3284,7 @@
         <v>1062</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I17" s="2">
         <v>40000</v>
@@ -3302,7 +3305,7 @@
         <v>31</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3310,7 +3313,7 @@
         <v>1012</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2">
         <v>98</v>
@@ -3322,7 +3325,7 @@
         <v>1063</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I18" s="2">
         <v>40000</v>
@@ -3343,7 +3346,7 @@
         <v>31</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3351,7 +3354,7 @@
         <v>1013</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E19" s="2">
         <v>98</v>
@@ -3363,7 +3366,7 @@
         <v>1064</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I19" s="2">
         <v>40000</v>
@@ -3384,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3392,7 +3395,7 @@
         <v>1014</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E20" s="2">
         <v>98</v>
@@ -3404,7 +3407,7 @@
         <v>1065</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I20" s="2">
         <v>40000</v>
@@ -3425,7 +3428,7 @@
         <v>31</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3433,7 +3436,7 @@
         <v>1015</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E21" s="2">
         <v>98</v>
@@ -3445,7 +3448,7 @@
         <v>1066</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I21" s="2">
         <v>40000</v>
@@ -3466,7 +3469,7 @@
         <v>31</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3474,7 +3477,7 @@
         <v>1016</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E22" s="2">
         <v>98</v>
@@ -3486,7 +3489,7 @@
         <v>1067</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I22" s="2">
         <v>40000</v>
@@ -3507,7 +3510,7 @@
         <v>31</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3515,7 +3518,7 @@
         <v>1017</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E23" s="2">
         <v>98</v>
@@ -3527,7 +3530,7 @@
         <v>1068</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I23" s="2">
         <v>40000</v>
@@ -3548,7 +3551,7 @@
         <v>31</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3556,7 +3559,7 @@
         <v>1018</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E24" s="2">
         <v>98</v>
@@ -3568,7 +3571,7 @@
         <v>1069</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I24" s="2">
         <v>40000</v>
@@ -3589,7 +3592,7 @@
         <v>31</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3597,7 +3600,7 @@
         <v>1019</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E25" s="2">
         <v>98</v>
@@ -3609,7 +3612,7 @@
         <v>1070</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I25" s="2">
         <v>40000</v>
@@ -3630,7 +3633,7 @@
         <v>31</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3638,7 +3641,7 @@
         <v>1020</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E26" s="2">
         <v>98</v>
@@ -3650,7 +3653,7 @@
         <v>1071</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I26" s="2">
         <v>40000</v>
@@ -3671,7 +3674,7 @@
         <v>31</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3679,7 +3682,7 @@
         <v>1021</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E27" s="2">
         <v>98</v>
@@ -3691,7 +3694,7 @@
         <v>1072</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I27" s="2">
         <v>40000</v>
@@ -3712,7 +3715,7 @@
         <v>31</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3720,7 +3723,7 @@
         <v>1022</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E28" s="2">
         <v>98</v>
@@ -3732,7 +3735,7 @@
         <v>1073</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I28" s="2">
         <v>40000</v>
@@ -3753,7 +3756,7 @@
         <v>31</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="3:15">
@@ -3761,7 +3764,7 @@
         <v>1023</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E29" s="2">
         <v>98</v>
@@ -3773,7 +3776,7 @@
         <v>1074</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I29" s="2">
         <v>40000</v>
@@ -3794,7 +3797,7 @@
         <v>31</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3970,7 +3973,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -3982,7 +3985,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -4008,7 +4011,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -4020,7 +4023,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -4046,7 +4049,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -4058,7 +4061,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -4084,7 +4087,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -4096,7 +4099,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -4122,7 +4125,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -4134,7 +4137,7 @@
         <v>1099</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="152">
   <si>
     <t>_id</t>
   </si>
@@ -346,7 +346,7 @@
     <t>2010</t>
   </si>
   <si>
-    <t>8000</t>
+    <t>6000</t>
   </si>
   <si>
     <t>2023-10-21</t>
@@ -361,63 +361,60 @@
     <t>2011</t>
   </si>
   <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>第一批蓝图鉴</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>第一批紫图鉴</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>第一二批白图鉴</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>第一二批绿图鉴</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>第一二批蓝图鉴</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>第一二批紫图鉴</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
     <t>16000</t>
   </si>
   <si>
-    <t>第一批蓝图鉴</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>第一批紫图鉴</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>32000</t>
-  </si>
-  <si>
-    <t>第一二批白图鉴</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>7000</t>
-  </si>
-  <si>
-    <t>第一二批绿图鉴</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>第一二批蓝图鉴</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>第一二批紫图鉴</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>28000</t>
-  </si>
-  <si>
     <t>守沙100书页</t>
   </si>
   <si>
@@ -485,9 +482,6 @@
   </si>
   <si>
     <t>40000</t>
-  </si>
-  <si>
-    <t>80000</t>
   </si>
   <si>
     <t>镜像挑战</t>
@@ -1749,7 +1743,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2188,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="K14" s="12">
         <v>1</v>
@@ -2208,7 +2202,7 @@
         <v>108</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -2220,13 +2214,13 @@
         <v>1099</v>
       </c>
       <c r="H15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="K15" s="12">
         <v>1</v>
@@ -2247,7 +2241,7 @@
         <v>201</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2">
         <v>100</v>
@@ -2259,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="12">
         <v>0</v>
@@ -2285,7 +2279,7 @@
         <v>202</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2">
         <v>100</v>
@@ -2297,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="12">
         <v>0</v>
@@ -2323,7 +2317,7 @@
         <v>203</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2">
         <v>100</v>
@@ -2335,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="12">
         <v>0</v>
@@ -2368,7 +2362,7 @@
         <v>301</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -2380,13 +2374,13 @@
         <v>1099</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
@@ -2403,16 +2397,16 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2">
         <v>302</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -2424,13 +2418,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -2451,7 +2445,7 @@
         <v>801</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -2463,13 +2457,13 @@
         <v>1099</v>
       </c>
       <c r="H24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="J24" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -2489,7 +2483,7 @@
         <v>802</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -2501,13 +2495,13 @@
         <v>1099</v>
       </c>
       <c r="H25" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="J25" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>72</v>
       </c>
       <c r="K25" s="12">
         <v>1</v>
@@ -2527,7 +2521,7 @@
         <v>803</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -2539,13 +2533,13 @@
         <v>1099</v>
       </c>
       <c r="H26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="15" t="s">
-        <v>75</v>
-      </c>
       <c r="J26" s="14" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -2571,7 +2565,7 @@
         <v>991</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2">
         <v>99</v>
@@ -2583,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I28" s="12">
         <v>0</v>
@@ -2699,7 +2693,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="3:14">
@@ -2821,7 +2815,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -2833,7 +2827,7 @@
         <v>1051</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2">
         <v>40000</v>
@@ -2854,7 +2848,7 @@
         <v>31</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -2862,7 +2856,7 @@
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -2874,7 +2868,7 @@
         <v>1052</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I7" s="2">
         <v>40000</v>
@@ -2895,7 +2889,7 @@
         <v>31</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -2903,7 +2897,7 @@
         <v>1002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -2915,7 +2909,7 @@
         <v>1053</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2">
         <v>40000</v>
@@ -2936,7 +2930,7 @@
         <v>31</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -2944,7 +2938,7 @@
         <v>1003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -2956,7 +2950,7 @@
         <v>1054</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I9" s="2">
         <v>40000</v>
@@ -2977,7 +2971,7 @@
         <v>31</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -2985,7 +2979,7 @@
         <v>1004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -2997,7 +2991,7 @@
         <v>1055</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I10" s="2">
         <v>40000</v>
@@ -3018,7 +3012,7 @@
         <v>31</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3026,7 +3020,7 @@
         <v>1005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -3038,7 +3032,7 @@
         <v>1056</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I11" s="2">
         <v>40000</v>
@@ -3059,7 +3053,7 @@
         <v>31</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3067,7 +3061,7 @@
         <v>1006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2">
         <v>98</v>
@@ -3079,7 +3073,7 @@
         <v>1057</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I12" s="2">
         <v>40000</v>
@@ -3100,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3108,7 +3102,7 @@
         <v>1007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" s="2">
         <v>98</v>
@@ -3120,7 +3114,7 @@
         <v>1058</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I13" s="2">
         <v>40000</v>
@@ -3141,7 +3135,7 @@
         <v>31</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3149,7 +3143,7 @@
         <v>1008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E14" s="2">
         <v>98</v>
@@ -3161,7 +3155,7 @@
         <v>1059</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I14" s="2">
         <v>40000</v>
@@ -3182,7 +3176,7 @@
         <v>31</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3190,7 +3184,7 @@
         <v>1009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
@@ -3202,7 +3196,7 @@
         <v>1060</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I15" s="2">
         <v>40000</v>
@@ -3223,7 +3217,7 @@
         <v>31</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3231,7 +3225,7 @@
         <v>1010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E16" s="2">
         <v>98</v>
@@ -3243,7 +3237,7 @@
         <v>1061</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I16" s="2">
         <v>40000</v>
@@ -3264,7 +3258,7 @@
         <v>31</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3272,7 +3266,7 @@
         <v>1011</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E17" s="2">
         <v>98</v>
@@ -3284,7 +3278,7 @@
         <v>1062</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I17" s="2">
         <v>40000</v>
@@ -3305,7 +3299,7 @@
         <v>31</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3313,7 +3307,7 @@
         <v>1012</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E18" s="2">
         <v>98</v>
@@ -3325,7 +3319,7 @@
         <v>1063</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I18" s="2">
         <v>40000</v>
@@ -3346,7 +3340,7 @@
         <v>31</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3354,7 +3348,7 @@
         <v>1013</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E19" s="2">
         <v>98</v>
@@ -3366,7 +3360,7 @@
         <v>1064</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I19" s="2">
         <v>40000</v>
@@ -3387,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3395,7 +3389,7 @@
         <v>1014</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E20" s="2">
         <v>98</v>
@@ -3407,7 +3401,7 @@
         <v>1065</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I20" s="2">
         <v>40000</v>
@@ -3428,7 +3422,7 @@
         <v>31</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3436,7 +3430,7 @@
         <v>1015</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E21" s="2">
         <v>98</v>
@@ -3448,7 +3442,7 @@
         <v>1066</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I21" s="2">
         <v>40000</v>
@@ -3469,7 +3463,7 @@
         <v>31</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3477,7 +3471,7 @@
         <v>1016</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E22" s="2">
         <v>98</v>
@@ -3489,7 +3483,7 @@
         <v>1067</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I22" s="2">
         <v>40000</v>
@@ -3510,7 +3504,7 @@
         <v>31</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3518,7 +3512,7 @@
         <v>1017</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E23" s="2">
         <v>98</v>
@@ -3530,7 +3524,7 @@
         <v>1068</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I23" s="2">
         <v>40000</v>
@@ -3551,7 +3545,7 @@
         <v>31</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3559,7 +3553,7 @@
         <v>1018</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E24" s="2">
         <v>98</v>
@@ -3571,7 +3565,7 @@
         <v>1069</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I24" s="2">
         <v>40000</v>
@@ -3592,7 +3586,7 @@
         <v>31</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3600,7 +3594,7 @@
         <v>1019</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E25" s="2">
         <v>98</v>
@@ -3612,7 +3606,7 @@
         <v>1070</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I25" s="2">
         <v>40000</v>
@@ -3633,7 +3627,7 @@
         <v>31</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3641,7 +3635,7 @@
         <v>1020</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E26" s="2">
         <v>98</v>
@@ -3653,7 +3647,7 @@
         <v>1071</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I26" s="2">
         <v>40000</v>
@@ -3674,7 +3668,7 @@
         <v>31</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3682,7 +3676,7 @@
         <v>1021</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E27" s="2">
         <v>98</v>
@@ -3694,7 +3688,7 @@
         <v>1072</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I27" s="2">
         <v>40000</v>
@@ -3715,7 +3709,7 @@
         <v>31</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
@@ -3723,7 +3717,7 @@
         <v>1022</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E28" s="2">
         <v>98</v>
@@ -3735,7 +3729,7 @@
         <v>1073</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I28" s="2">
         <v>40000</v>
@@ -3756,7 +3750,7 @@
         <v>31</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="3:15">
@@ -3764,7 +3758,7 @@
         <v>1023</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E29" s="2">
         <v>98</v>
@@ -3776,7 +3770,7 @@
         <v>1074</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I29" s="2">
         <v>40000</v>
@@ -3797,7 +3791,7 @@
         <v>31</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3973,7 +3967,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -3985,7 +3979,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -4011,7 +4005,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -4023,7 +4017,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -4049,7 +4043,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -4061,7 +4055,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -4087,7 +4081,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -4099,7 +4093,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -4125,7 +4119,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -4137,7 +4131,7 @@
         <v>1099</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1743,7 +1743,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="164">
   <si>
     <t>_id</t>
   </si>
@@ -283,6 +283,9 @@
     <t>掉落概率</t>
   </si>
   <si>
+    <t>保底掉落</t>
+  </si>
+  <si>
     <t>享受爆率加成</t>
   </si>
   <si>
@@ -310,6 +313,9 @@
     <t>Rate</t>
   </si>
   <si>
+    <t>EndRate</t>
+  </si>
+  <si>
     <t>ShareRise</t>
   </si>
   <si>
@@ -683,6 +689,36 @@
   </si>
   <si>
     <t>攻击倍率</t>
+  </si>
+  <si>
+    <t>梦魇冰晶</t>
+  </si>
+  <si>
+    <t>1400024</t>
+  </si>
+  <si>
+    <t>梦魇蝠翼</t>
+  </si>
+  <si>
+    <t>1400025</t>
+  </si>
+  <si>
+    <t>梦魇魂火</t>
+  </si>
+  <si>
+    <t>1400026</t>
+  </si>
+  <si>
+    <t>梦魇腐肉</t>
+  </si>
+  <si>
+    <t>1400027</t>
+  </si>
+  <si>
+    <t>梦魇蛇胆</t>
+  </si>
+  <si>
+    <t>1400028</t>
   </si>
   <si>
     <t>1介红装1</t>
@@ -1740,10 +1776,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1754,13 +1790,13 @@
     <col min="5" max="7" width="13.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="10" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="10" customWidth="1"/>
-    <col min="11" max="12" width="14.125" style="10" customWidth="1"/>
-    <col min="13" max="14" width="20.625" style="10" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="10" max="11" width="13.75" style="10" customWidth="1"/>
+    <col min="12" max="13" width="14.125" style="10" customWidth="1"/>
+    <col min="14" max="15" width="20.625" style="10" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="8:14">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="8:15">
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -1768,8 +1804,9 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
-    </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C2" s="13"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -1778,8 +1815,9 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
-    </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1816,13 +1854,16 @@
       <c r="N3" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O3" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>2</v>
@@ -1834,71 +1875,77 @@
         <v>4</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" customHeight="1" spans="3:14">
+        <v>20</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:14">
+        <v>23</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1910,13 +1957,13 @@
         <v>9999</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I6" s="12">
         <v>0</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K6" s="12">
         <v>0</v>
@@ -1924,19 +1971,22 @@
       <c r="L6" s="12">
         <v>0</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>25</v>
+      <c r="M6" s="12">
+        <v>0</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:14">
+        <v>27</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C8" s="2">
         <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1948,33 +1998,36 @@
         <v>1069</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I8" s="12">
         <v>0</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
         <v>1</v>
       </c>
-      <c r="L8" s="12">
-        <v>0</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>30</v>
+      <c r="M8" s="12">
+        <v>0</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:14">
+        <v>32</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C9" s="2">
         <v>102</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1986,33 +2039,36 @@
         <v>1069</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I9" s="12">
         <v>0</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K9" s="12">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
         <v>1</v>
       </c>
-      <c r="L9" s="12">
-        <v>0</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>30</v>
+      <c r="M9" s="12">
+        <v>0</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:14">
+        <v>32</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C10" s="2">
         <v>103</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -2024,33 +2080,36 @@
         <v>1069</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I10" s="12">
         <v>0</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
         <v>1</v>
       </c>
-      <c r="L10" s="12">
-        <v>0</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>30</v>
+      <c r="M10" s="12">
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:14">
+        <v>32</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C11" s="2">
         <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -2062,33 +2121,36 @@
         <v>1069</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I11" s="12">
         <v>0</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
         <v>1</v>
       </c>
-      <c r="L11" s="12">
-        <v>0</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>30</v>
+      <c r="M11" s="12">
+        <v>0</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:14">
+        <v>32</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C12" s="2">
         <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -2100,33 +2162,36 @@
         <v>1099</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I12" s="12">
         <v>0</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
         <v>1</v>
       </c>
-      <c r="L12" s="12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>30</v>
+      <c r="M12" s="12">
+        <v>0</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:14">
+        <v>32</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C13" s="2">
         <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -2138,33 +2203,36 @@
         <v>1099</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I13" s="12">
         <v>0</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
         <v>1</v>
       </c>
-      <c r="L13" s="12">
-        <v>0</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>30</v>
+      <c r="M13" s="12">
+        <v>0</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:14">
+        <v>32</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C14" s="2">
         <v>107</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -2176,33 +2244,36 @@
         <v>1099</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I14" s="12">
         <v>0</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K14" s="12">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
         <v>1</v>
       </c>
-      <c r="L14" s="12">
-        <v>0</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>30</v>
+      <c r="M14" s="12">
+        <v>0</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:14">
+        <v>32</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C15" s="2">
         <v>108</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -2214,34 +2285,37 @@
         <v>1099</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I15" s="12">
         <v>0</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
         <v>1</v>
       </c>
-      <c r="L15" s="12">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>30</v>
+      <c r="M15" s="12">
+        <v>0</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1"/>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:14">
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C17" s="2">
         <v>201</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2">
         <v>100</v>
@@ -2253,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I17" s="12">
         <v>0</v>
@@ -2261,25 +2335,28 @@
       <c r="J17" s="2">
         <v>1</v>
       </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="12">
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
         <v>1</v>
       </c>
-      <c r="M17" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="N17" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:14">
+        <v>32</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C18" s="2">
         <v>202</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E18" s="2">
         <v>100</v>
@@ -2291,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I18" s="12">
         <v>0</v>
@@ -2299,25 +2376,28 @@
       <c r="J18" s="2">
         <v>1</v>
       </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="12">
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12">
         <v>1</v>
       </c>
-      <c r="M18" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="N18" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:14">
+        <v>32</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C19" s="2">
         <v>203</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2">
         <v>100</v>
@@ -2329,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I19" s="12">
         <v>0</v>
@@ -2337,32 +2417,38 @@
       <c r="J19" s="2">
         <v>1</v>
       </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="12">
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
         <v>1</v>
       </c>
-      <c r="M19" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="N19" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="8:14">
+        <v>32</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="8:15">
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-    </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C21" s="2">
         <v>301</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -2374,39 +2460,42 @@
         <v>1099</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="12">
-        <v>0</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:14">
+        <v>32</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2">
         <v>302</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -2418,34 +2507,37 @@
         <v>0</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="12">
-        <v>0</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12">
+        <v>0</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1"/>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:14">
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C24" s="2">
         <v>801</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -2457,33 +2549,36 @@
         <v>1099</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="12">
-        <v>0</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>30</v>
+        <v>69</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12">
+        <v>0</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:14">
+        <v>32</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C25" s="2">
         <v>802</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -2495,33 +2590,36 @@
         <v>1099</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
         <v>1</v>
       </c>
-      <c r="L25" s="12">
-        <v>0</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>30</v>
+      <c r="M25" s="12">
+        <v>0</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:14">
+        <v>32</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C26" s="2">
         <v>803</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -2533,39 +2631,43 @@
         <v>1099</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-      <c r="L26" s="12">
-        <v>0</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="12">
+        <v>0</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="10:14">
+        <v>32</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="10:15">
       <c r="J27" s="12"/>
-      <c r="L27" s="12"/>
+      <c r="K27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-    </row>
-    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:14">
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C28" s="2">
         <v>991</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2">
         <v>99</v>
@@ -2577,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I28" s="12">
         <v>0</v>
@@ -2585,22 +2687,25 @@
       <c r="J28" s="2">
         <v>1</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="12">
         <v>0</v>
       </c>
       <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
         <v>1</v>
       </c>
-      <c r="M28" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="N28" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1"/>
     <row r="30" s="2" customFormat="1" customHeight="1"/>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="8:14">
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="8:15">
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
@@ -2608,8 +2713,9 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
-    </row>
-    <row r="32" s="2" customFormat="1" customHeight="1" spans="8:14">
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="8:15">
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -2617,8 +2723,9 @@
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
-    </row>
-    <row r="33" s="2" customFormat="1" customHeight="1" spans="8:14">
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="8:15">
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -2626,8 +2733,9 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
-    </row>
-    <row r="34" s="2" customFormat="1" customHeight="1" spans="8:14">
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="8:15">
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -2635,6 +2743,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F25">
@@ -2654,10 +2763,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:O29"/>
+  <dimension ref="C1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="K3" sqref="K3:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2668,13 +2777,13 @@
     <col min="5" max="7" width="13.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="3" customWidth="1"/>
-    <col min="11" max="12" width="14.125" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.625" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="10" max="11" width="13.75" style="3" customWidth="1"/>
+    <col min="12" max="13" width="14.125" style="3" customWidth="1"/>
+    <col min="14" max="15" width="20.625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="8:14">
+    <row r="1" s="1" customFormat="1" spans="8:15">
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -2682,8 +2791,9 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="3:15">
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="3:16">
       <c r="C2" s="4"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -2692,16 +2802,17 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="3:14">
+      <c r="O2" s="3"/>
+      <c r="P2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:15">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
@@ -2721,25 +2832,28 @@
       <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:14">
+      <c r="O3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:15">
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
@@ -2751,71 +2865,77 @@
         <v>4</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="K4" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="L4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="N4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:14">
+        <v>20</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:15">
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>23</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C6" s="2">
         <v>1000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -2827,7 +2947,7 @@
         <v>1051</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I6" s="2">
         <v>40000</v>
@@ -2841,22 +2961,25 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>30</v>
+      <c r="M6" s="2">
+        <v>0</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C7" s="2">
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -2868,7 +2991,7 @@
         <v>1052</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I7" s="2">
         <v>40000</v>
@@ -2882,22 +3005,25 @@
       <c r="L7" s="2">
         <v>0</v>
       </c>
-      <c r="M7" s="14" t="s">
-        <v>30</v>
+      <c r="M7" s="2">
+        <v>0</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C8" s="2">
         <v>1002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -2909,7 +3035,7 @@
         <v>1053</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I8" s="2">
         <v>40000</v>
@@ -2923,22 +3049,25 @@
       <c r="L8" s="2">
         <v>0</v>
       </c>
-      <c r="M8" s="14" t="s">
-        <v>30</v>
+      <c r="M8" s="2">
+        <v>0</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C9" s="2">
         <v>1003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -2950,7 +3079,7 @@
         <v>1054</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I9" s="2">
         <v>40000</v>
@@ -2964,22 +3093,25 @@
       <c r="L9" s="2">
         <v>0</v>
       </c>
-      <c r="M9" s="14" t="s">
-        <v>30</v>
+      <c r="M9" s="2">
+        <v>0</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C10" s="2">
         <v>1004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -2991,7 +3123,7 @@
         <v>1055</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I10" s="2">
         <v>40000</v>
@@ -3005,22 +3137,25 @@
       <c r="L10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" s="14" t="s">
-        <v>30</v>
+      <c r="M10" s="2">
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C11" s="2">
         <v>1005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -3032,7 +3167,7 @@
         <v>1056</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I11" s="2">
         <v>40000</v>
@@ -3046,22 +3181,25 @@
       <c r="L11" s="2">
         <v>0</v>
       </c>
-      <c r="M11" s="14" t="s">
-        <v>30</v>
+      <c r="M11" s="2">
+        <v>0</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C12" s="2">
         <v>1006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2">
         <v>98</v>
@@ -3073,7 +3211,7 @@
         <v>1057</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I12" s="2">
         <v>40000</v>
@@ -3087,22 +3225,25 @@
       <c r="L12" s="2">
         <v>0</v>
       </c>
-      <c r="M12" s="14" t="s">
-        <v>30</v>
+      <c r="M12" s="2">
+        <v>0</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C13" s="2">
         <v>1007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2">
         <v>98</v>
@@ -3114,7 +3255,7 @@
         <v>1058</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I13" s="2">
         <v>40000</v>
@@ -3128,22 +3269,25 @@
       <c r="L13" s="2">
         <v>0</v>
       </c>
-      <c r="M13" s="14" t="s">
-        <v>30</v>
+      <c r="M13" s="2">
+        <v>0</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C14" s="2">
         <v>1008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E14" s="2">
         <v>98</v>
@@ -3155,7 +3299,7 @@
         <v>1059</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I14" s="2">
         <v>40000</v>
@@ -3169,22 +3313,25 @@
       <c r="L14" s="2">
         <v>0</v>
       </c>
-      <c r="M14" s="14" t="s">
-        <v>30</v>
+      <c r="M14" s="2">
+        <v>0</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C15" s="2">
         <v>1009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
@@ -3196,7 +3343,7 @@
         <v>1060</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I15" s="2">
         <v>40000</v>
@@ -3210,22 +3357,25 @@
       <c r="L15" s="2">
         <v>0</v>
       </c>
-      <c r="M15" s="14" t="s">
-        <v>30</v>
+      <c r="M15" s="2">
+        <v>0</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C16" s="2">
         <v>1010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E16" s="2">
         <v>98</v>
@@ -3237,7 +3387,7 @@
         <v>1061</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I16" s="2">
         <v>40000</v>
@@ -3251,22 +3401,25 @@
       <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="M16" s="14" t="s">
-        <v>30</v>
+      <c r="M16" s="2">
+        <v>0</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C17" s="2">
         <v>1011</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E17" s="2">
         <v>98</v>
@@ -3278,7 +3431,7 @@
         <v>1062</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I17" s="2">
         <v>40000</v>
@@ -3292,22 +3445,25 @@
       <c r="L17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" s="14" t="s">
-        <v>30</v>
+      <c r="M17" s="2">
+        <v>0</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C18" s="2">
         <v>1012</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2">
         <v>98</v>
@@ -3319,7 +3475,7 @@
         <v>1063</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I18" s="2">
         <v>40000</v>
@@ -3333,22 +3489,25 @@
       <c r="L18" s="2">
         <v>0</v>
       </c>
-      <c r="M18" s="14" t="s">
-        <v>30</v>
+      <c r="M18" s="2">
+        <v>0</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C19" s="2">
         <v>1013</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E19" s="2">
         <v>98</v>
@@ -3360,7 +3519,7 @@
         <v>1064</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I19" s="2">
         <v>40000</v>
@@ -3374,22 +3533,25 @@
       <c r="L19" s="2">
         <v>0</v>
       </c>
-      <c r="M19" s="14" t="s">
-        <v>30</v>
+      <c r="M19" s="2">
+        <v>0</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C20" s="2">
         <v>1014</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E20" s="2">
         <v>98</v>
@@ -3401,7 +3563,7 @@
         <v>1065</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I20" s="2">
         <v>40000</v>
@@ -3415,22 +3577,25 @@
       <c r="L20" s="2">
         <v>0</v>
       </c>
-      <c r="M20" s="14" t="s">
-        <v>30</v>
+      <c r="M20" s="2">
+        <v>0</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C21" s="2">
         <v>1015</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E21" s="2">
         <v>98</v>
@@ -3442,7 +3607,7 @@
         <v>1066</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I21" s="2">
         <v>40000</v>
@@ -3456,22 +3621,25 @@
       <c r="L21" s="2">
         <v>0</v>
       </c>
-      <c r="M21" s="14" t="s">
-        <v>30</v>
+      <c r="M21" s="2">
+        <v>0</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C22" s="2">
         <v>1016</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E22" s="2">
         <v>98</v>
@@ -3483,7 +3651,7 @@
         <v>1067</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I22" s="2">
         <v>40000</v>
@@ -3497,22 +3665,25 @@
       <c r="L22" s="2">
         <v>0</v>
       </c>
-      <c r="M22" s="14" t="s">
-        <v>30</v>
+      <c r="M22" s="2">
+        <v>0</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C23" s="2">
         <v>1017</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E23" s="2">
         <v>98</v>
@@ -3524,7 +3695,7 @@
         <v>1068</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I23" s="2">
         <v>40000</v>
@@ -3538,22 +3709,25 @@
       <c r="L23" s="2">
         <v>0</v>
       </c>
-      <c r="M23" s="14" t="s">
-        <v>30</v>
+      <c r="M23" s="2">
+        <v>0</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C24" s="2">
         <v>1018</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E24" s="2">
         <v>98</v>
@@ -3565,7 +3739,7 @@
         <v>1069</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I24" s="2">
         <v>40000</v>
@@ -3579,22 +3753,25 @@
       <c r="L24" s="2">
         <v>0</v>
       </c>
-      <c r="M24" s="14" t="s">
-        <v>30</v>
+      <c r="M24" s="2">
+        <v>0</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C25" s="2">
         <v>1019</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E25" s="2">
         <v>98</v>
@@ -3606,7 +3783,7 @@
         <v>1070</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I25" s="2">
         <v>40000</v>
@@ -3620,22 +3797,25 @@
       <c r="L25" s="2">
         <v>0</v>
       </c>
-      <c r="M25" s="14" t="s">
-        <v>30</v>
+      <c r="M25" s="2">
+        <v>0</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C26" s="2">
         <v>1020</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E26" s="2">
         <v>98</v>
@@ -3647,7 +3827,7 @@
         <v>1071</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I26" s="2">
         <v>40000</v>
@@ -3661,22 +3841,25 @@
       <c r="L26" s="2">
         <v>0</v>
       </c>
-      <c r="M26" s="14" t="s">
-        <v>30</v>
+      <c r="M26" s="2">
+        <v>0</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C27" s="2">
         <v>1021</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E27" s="2">
         <v>98</v>
@@ -3688,7 +3871,7 @@
         <v>1072</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I27" s="2">
         <v>40000</v>
@@ -3702,22 +3885,25 @@
       <c r="L27" s="2">
         <v>0</v>
       </c>
-      <c r="M27" s="14" t="s">
-        <v>30</v>
+      <c r="M27" s="2">
+        <v>0</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C28" s="2">
         <v>1022</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E28" s="2">
         <v>98</v>
@@ -3729,7 +3915,7 @@
         <v>1073</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I28" s="2">
         <v>40000</v>
@@ -3743,22 +3929,25 @@
       <c r="L28" s="2">
         <v>0</v>
       </c>
-      <c r="M28" s="14" t="s">
-        <v>30</v>
+      <c r="M28" s="2">
+        <v>0</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16">
       <c r="C29" s="2">
         <v>1023</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E29" s="2">
         <v>98</v>
@@ -3770,28 +3959,251 @@
         <v>1074</v>
       </c>
       <c r="H29" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+      <c r="C30" s="2">
+        <v>1024</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="2">
+        <v>98</v>
+      </c>
+      <c r="F30" s="8">
+        <v>1075</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1075</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+      <c r="C31" s="2">
+        <v>1025</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="2">
+        <v>98</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1076</v>
+      </c>
+      <c r="G31" s="8">
+        <v>1076</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+      <c r="C32" s="2">
+        <v>1026</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="2">
+        <v>98</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1077</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1077</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+      <c r="C33" s="2">
+        <v>1027</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="2">
+        <v>98</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1078</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1078</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P33" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I29" s="2">
-        <v>40000</v>
-      </c>
-      <c r="J29" s="2">
-        <v>60000</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>141</v>
+    </row>
+    <row r="34" spans="3:16">
+      <c r="C34" s="2">
+        <v>1028</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="2">
+        <v>98</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1079</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1079</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3809,10 +4221,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:N14"/>
+  <dimension ref="C1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3823,13 +4235,13 @@
     <col min="5" max="7" width="13.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="3" customWidth="1"/>
-    <col min="11" max="12" width="14.125" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.625" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="10" max="11" width="13.75" style="3" customWidth="1"/>
+    <col min="12" max="13" width="14.125" style="3" customWidth="1"/>
+    <col min="14" max="15" width="20.625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="8:14">
+    <row r="1" s="1" customFormat="1" spans="8:15">
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -3837,8 +4249,9 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="3:14">
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="3:15">
       <c r="C2" s="4"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -3847,13 +4260,14 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="3:14">
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:15">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
@@ -3873,25 +4287,28 @@
       <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:14">
+      <c r="O3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:15">
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
@@ -3903,71 +4320,77 @@
         <v>4</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="K4" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="L4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="N4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:14">
+        <v>20</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:15">
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+        <v>23</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C6" s="2">
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -3979,7 +4402,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -3993,19 +4416,22 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>30</v>
+      <c r="M6" s="2">
+        <v>0</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+        <v>32</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C7" s="2">
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -4017,7 +4443,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -4031,19 +4457,22 @@
       <c r="L7" s="2">
         <v>0</v>
       </c>
-      <c r="M7" s="14" t="s">
-        <v>30</v>
+      <c r="M7" s="2">
+        <v>0</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+        <v>32</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C8" s="2">
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -4055,7 +4484,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -4069,19 +4498,22 @@
       <c r="L8" s="2">
         <v>0</v>
       </c>
-      <c r="M8" s="14" t="s">
-        <v>30</v>
+      <c r="M8" s="2">
+        <v>0</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+        <v>32</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C9" s="2">
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -4093,7 +4525,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -4107,19 +4539,22 @@
       <c r="L9" s="2">
         <v>0</v>
       </c>
-      <c r="M9" s="14" t="s">
-        <v>30</v>
+      <c r="M9" s="2">
+        <v>0</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:14">
+        <v>32</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C10" s="2">
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -4128,10 +4563,10 @@
         <v>1074</v>
       </c>
       <c r="G10" s="8">
-        <v>1099</v>
+        <v>1074</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>
@@ -4145,23 +4580,58 @@
       <c r="L10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" s="14" t="s">
-        <v>30</v>
+      <c r="M10" s="2">
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="8:14">
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="8:14">
+        <v>32</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+      <c r="C11" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="2">
+        <v>98</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1075</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1099</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>360000</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="8:15">
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -4169,8 +4639,9 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="8:14">
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="8:15">
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -4178,8 +4649,9 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="8:14">
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="8:15">
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -4187,6 +4659,367 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="162">
   <si>
     <t>_id</t>
   </si>
@@ -388,106 +388,100 @@
     <t>24000</t>
   </si>
   <si>
-    <t>第一二批白图鉴</t>
+    <t>第二批白图鉴</t>
   </si>
   <si>
     <t>2014</t>
   </si>
   <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>第一二批绿图鉴</t>
+    <t>第二批绿图鉴</t>
   </si>
   <si>
     <t>2015</t>
   </si>
   <si>
+    <t>第二批蓝图鉴</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>第二批紫图鉴</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>守沙100书页</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>守沙图鉴</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>守沙时装</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>第一时装</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>第二时装</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>专属之心</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>第一批冠名图鉴</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>龙之图鉴</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
     <t>80000</t>
-  </si>
-  <si>
-    <t>第一二批蓝图鉴</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>第一二批紫图鉴</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>16000</t>
-  </si>
-  <si>
-    <t>守沙100书页</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>守沙图鉴</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>守沙时装</t>
-  </si>
-  <si>
-    <t>3001</t>
-  </si>
-  <si>
-    <t>第一时装</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>第二时装</t>
-  </si>
-  <si>
-    <t>3002</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>专属之心</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>第一批冠名图鉴</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>龙之图鉴</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>40000</t>
   </si>
   <si>
     <t>镜像挑战</t>
@@ -1778,8 +1772,8 @@
   <sheetPr/>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1995,7 +1989,7 @@
         <v>1000</v>
       </c>
       <c r="G8" s="2">
-        <v>1069</v>
+        <v>1099</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>30</v>
@@ -2036,7 +2030,7 @@
         <v>1000</v>
       </c>
       <c r="G9" s="2">
-        <v>1069</v>
+        <v>1099</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>35</v>
@@ -2077,7 +2071,7 @@
         <v>1000</v>
       </c>
       <c r="G10" s="2">
-        <v>1069</v>
+        <v>1099</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>38</v>
@@ -2118,7 +2112,7 @@
         <v>1000</v>
       </c>
       <c r="G11" s="2">
-        <v>1069</v>
+        <v>1099</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>41</v>
@@ -2168,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K12" s="12">
         <v>0</v>
@@ -2191,7 +2185,7 @@
         <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -2203,13 +2197,13 @@
         <v>1099</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="12">
         <v>0</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K13" s="12">
         <v>0</v>
@@ -2232,7 +2226,7 @@
         <v>107</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -2244,13 +2238,13 @@
         <v>1099</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I14" s="12">
         <v>0</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K14" s="12">
         <v>0</v>
@@ -2273,7 +2267,7 @@
         <v>108</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -2285,13 +2279,13 @@
         <v>1099</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I15" s="12">
         <v>0</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K15" s="12">
         <v>0</v>
@@ -2315,7 +2309,7 @@
         <v>201</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2">
         <v>100</v>
@@ -2327,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I17" s="12">
         <v>0</v>
@@ -2356,7 +2350,7 @@
         <v>202</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2">
         <v>100</v>
@@ -2368,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I18" s="12">
         <v>0</v>
@@ -2397,7 +2391,7 @@
         <v>203</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2">
         <v>100</v>
@@ -2409,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I19" s="12">
         <v>0</v>
@@ -2448,7 +2442,7 @@
         <v>301</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -2460,13 +2454,13 @@
         <v>1099</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K21" s="12">
         <v>0</v>
@@ -2486,16 +2480,16 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2">
         <v>302</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -2507,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K22" s="12">
         <v>0</v>
@@ -2537,7 +2531,7 @@
         <v>801</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -2549,13 +2543,13 @@
         <v>1099</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K24" s="12">
         <v>0</v>
@@ -2578,7 +2572,7 @@
         <v>802</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -2590,13 +2584,13 @@
         <v>1099</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K25" s="12">
         <v>0</v>
@@ -2619,7 +2613,7 @@
         <v>803</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -2631,13 +2625,13 @@
         <v>1099</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="K26" s="12">
         <v>0</v>
@@ -2667,7 +2661,7 @@
         <v>991</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2">
         <v>99</v>
@@ -2679,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I28" s="12">
         <v>0</v>
@@ -2804,7 +2798,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="3:15">
@@ -2935,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -2947,7 +2941,7 @@
         <v>1051</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2">
         <v>40000</v>
@@ -2971,7 +2965,7 @@
         <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -2979,7 +2973,7 @@
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -2991,7 +2985,7 @@
         <v>1052</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I7" s="2">
         <v>40000</v>
@@ -3015,7 +3009,7 @@
         <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3023,7 +3017,7 @@
         <v>1002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -3035,7 +3029,7 @@
         <v>1053</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2">
         <v>40000</v>
@@ -3059,7 +3053,7 @@
         <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3067,7 +3061,7 @@
         <v>1003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -3079,7 +3073,7 @@
         <v>1054</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I9" s="2">
         <v>40000</v>
@@ -3103,7 +3097,7 @@
         <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3111,7 +3105,7 @@
         <v>1004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -3123,7 +3117,7 @@
         <v>1055</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I10" s="2">
         <v>40000</v>
@@ -3147,7 +3141,7 @@
         <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3155,7 +3149,7 @@
         <v>1005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -3167,7 +3161,7 @@
         <v>1056</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I11" s="2">
         <v>40000</v>
@@ -3191,7 +3185,7 @@
         <v>33</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3199,7 +3193,7 @@
         <v>1006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2">
         <v>98</v>
@@ -3211,7 +3205,7 @@
         <v>1057</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I12" s="2">
         <v>40000</v>
@@ -3235,7 +3229,7 @@
         <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3243,7 +3237,7 @@
         <v>1007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" s="2">
         <v>98</v>
@@ -3255,7 +3249,7 @@
         <v>1058</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I13" s="2">
         <v>40000</v>
@@ -3279,7 +3273,7 @@
         <v>33</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3287,7 +3281,7 @@
         <v>1008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E14" s="2">
         <v>98</v>
@@ -3299,7 +3293,7 @@
         <v>1059</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I14" s="2">
         <v>40000</v>
@@ -3323,7 +3317,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3331,7 +3325,7 @@
         <v>1009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
@@ -3343,7 +3337,7 @@
         <v>1060</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I15" s="2">
         <v>40000</v>
@@ -3367,7 +3361,7 @@
         <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3375,7 +3369,7 @@
         <v>1010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E16" s="2">
         <v>98</v>
@@ -3387,7 +3381,7 @@
         <v>1061</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I16" s="2">
         <v>40000</v>
@@ -3411,7 +3405,7 @@
         <v>33</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3419,7 +3413,7 @@
         <v>1011</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E17" s="2">
         <v>98</v>
@@ -3431,7 +3425,7 @@
         <v>1062</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I17" s="2">
         <v>40000</v>
@@ -3455,7 +3449,7 @@
         <v>33</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3463,7 +3457,7 @@
         <v>1012</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E18" s="2">
         <v>98</v>
@@ -3475,7 +3469,7 @@
         <v>1063</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I18" s="2">
         <v>40000</v>
@@ -3499,7 +3493,7 @@
         <v>33</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3507,7 +3501,7 @@
         <v>1013</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E19" s="2">
         <v>98</v>
@@ -3519,7 +3513,7 @@
         <v>1064</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I19" s="2">
         <v>40000</v>
@@ -3543,7 +3537,7 @@
         <v>33</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3551,7 +3545,7 @@
         <v>1014</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E20" s="2">
         <v>98</v>
@@ -3563,7 +3557,7 @@
         <v>1065</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I20" s="2">
         <v>40000</v>
@@ -3587,7 +3581,7 @@
         <v>33</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3595,7 +3589,7 @@
         <v>1015</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E21" s="2">
         <v>98</v>
@@ -3607,7 +3601,7 @@
         <v>1066</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I21" s="2">
         <v>40000</v>
@@ -3631,7 +3625,7 @@
         <v>33</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3639,7 +3633,7 @@
         <v>1016</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E22" s="2">
         <v>98</v>
@@ -3651,7 +3645,7 @@
         <v>1067</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I22" s="2">
         <v>40000</v>
@@ -3675,7 +3669,7 @@
         <v>33</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3683,7 +3677,7 @@
         <v>1017</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E23" s="2">
         <v>98</v>
@@ -3695,7 +3689,7 @@
         <v>1068</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I23" s="2">
         <v>40000</v>
@@ -3719,7 +3713,7 @@
         <v>33</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3727,7 +3721,7 @@
         <v>1018</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E24" s="2">
         <v>98</v>
@@ -3739,7 +3733,7 @@
         <v>1069</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I24" s="2">
         <v>40000</v>
@@ -3763,7 +3757,7 @@
         <v>33</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3771,7 +3765,7 @@
         <v>1019</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E25" s="2">
         <v>98</v>
@@ -3783,7 +3777,7 @@
         <v>1070</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I25" s="2">
         <v>40000</v>
@@ -3807,7 +3801,7 @@
         <v>33</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3815,7 +3809,7 @@
         <v>1020</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E26" s="2">
         <v>98</v>
@@ -3827,7 +3821,7 @@
         <v>1071</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I26" s="2">
         <v>40000</v>
@@ -3851,7 +3845,7 @@
         <v>33</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3859,7 +3853,7 @@
         <v>1021</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E27" s="2">
         <v>98</v>
@@ -3871,7 +3865,7 @@
         <v>1072</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I27" s="2">
         <v>40000</v>
@@ -3895,7 +3889,7 @@
         <v>33</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3903,7 +3897,7 @@
         <v>1022</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E28" s="2">
         <v>98</v>
@@ -3915,7 +3909,7 @@
         <v>1073</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I28" s="2">
         <v>40000</v>
@@ -3939,7 +3933,7 @@
         <v>33</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="3:16">
@@ -3947,7 +3941,7 @@
         <v>1023</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E29" s="2">
         <v>98</v>
@@ -3959,7 +3953,7 @@
         <v>1074</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
@@ -3983,7 +3977,7 @@
         <v>33</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3991,7 +3985,7 @@
         <v>1024</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E30" s="2">
         <v>98</v>
@@ -4003,7 +3997,7 @@
         <v>1075</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -4027,7 +4021,7 @@
         <v>33</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -4035,7 +4029,7 @@
         <v>1025</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E31" s="2">
         <v>98</v>
@@ -4047,7 +4041,7 @@
         <v>1076</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
@@ -4071,7 +4065,7 @@
         <v>33</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -4079,7 +4073,7 @@
         <v>1026</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E32" s="2">
         <v>98</v>
@@ -4091,7 +4085,7 @@
         <v>1077</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -4115,7 +4109,7 @@
         <v>33</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -4123,7 +4117,7 @@
         <v>1027</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E33" s="2">
         <v>98</v>
@@ -4135,7 +4129,7 @@
         <v>1078</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -4159,7 +4153,7 @@
         <v>33</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="3:16">
@@ -4167,7 +4161,7 @@
         <v>1028</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E34" s="2">
         <v>98</v>
@@ -4179,7 +4173,7 @@
         <v>1079</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
@@ -4203,7 +4197,7 @@
         <v>33</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4223,7 +4217,7 @@
   <sheetPr/>
   <dimension ref="C1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -4390,7 +4384,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -4402,7 +4396,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -4431,7 +4425,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -4443,7 +4437,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -4472,7 +4466,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -4484,7 +4478,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -4513,7 +4507,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -4525,7 +4519,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -4554,7 +4548,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -4566,7 +4560,7 @@
         <v>1074</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>
@@ -4595,7 +4589,7 @@
         <v>2005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -4607,7 +4601,7 @@
         <v>1099</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -4665,11 +4659,6 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
@@ -4677,11 +4666,6 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
@@ -4689,11 +4673,6 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
@@ -4701,11 +4680,6 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
     </row>
@@ -4713,11 +4687,6 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
     </row>
@@ -4725,11 +4694,6 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
     </row>
@@ -4737,11 +4701,6 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
     </row>
@@ -4749,11 +4708,6 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
     </row>
@@ -4761,11 +4715,6 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
     </row>
@@ -4773,11 +4722,6 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
     </row>
@@ -4785,11 +4729,6 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
     </row>
@@ -4797,11 +4736,6 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
     </row>
@@ -4809,11 +4743,6 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
     </row>
@@ -4821,11 +4750,6 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
     </row>
@@ -4833,11 +4757,6 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
     </row>
@@ -4845,11 +4764,6 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
     </row>
@@ -4857,11 +4771,6 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
     </row>
@@ -4869,11 +4778,6 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
     </row>
@@ -4881,11 +4785,6 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
     </row>
@@ -4893,11 +4792,6 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
     </row>
@@ -4905,11 +4799,6 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
     </row>
@@ -4917,11 +4806,6 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
     </row>
@@ -4929,11 +4813,6 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
     </row>
@@ -4941,11 +4820,6 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
     </row>
@@ -4953,11 +4827,6 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
     </row>
@@ -4965,11 +4834,6 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
     </row>
@@ -4977,11 +4841,6 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
     </row>
@@ -4989,11 +4848,6 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
     </row>
@@ -5001,11 +4855,6 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
     </row>
@@ -5013,11 +4862,6 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
     </row>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="161">
   <si>
     <t>_id</t>
   </si>
@@ -436,58 +436,55 @@
     <t>15000</t>
   </si>
   <si>
+    <t>第二时装</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>专属之心</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>第一批冠名图鉴</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>龙之图鉴</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>镜像挑战</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>第二时装</t>
-  </si>
-  <si>
-    <t>3002</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>专属之心</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>第一批冠名图鉴</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>龙之图鉴</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>40000</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>镜像挑战</t>
-  </si>
-  <si>
-    <t>1003</t>
   </si>
   <si>
     <t>触龙之心</t>
@@ -1770,10 +1767,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O34"/>
+  <dimension ref="C1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:J15"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2478,18 +2475,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>59</v>
-      </c>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C22" s="2">
         <v>302</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -2498,16 +2489,16 @@
         <v>1070</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>1099</v>
       </c>
       <c r="H22" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="K22" s="12">
         <v>0</v>
@@ -2531,7 +2522,7 @@
         <v>801</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -2543,13 +2534,13 @@
         <v>1099</v>
       </c>
       <c r="H24" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="J24" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="K24" s="12">
         <v>0</v>
@@ -2572,7 +2563,7 @@
         <v>802</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -2584,13 +2575,13 @@
         <v>1099</v>
       </c>
       <c r="H25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="14" t="s">
-        <v>69</v>
-      </c>
       <c r="J25" s="14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K25" s="12">
         <v>0</v>
@@ -2613,7 +2604,7 @@
         <v>803</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -2625,13 +2616,13 @@
         <v>1099</v>
       </c>
       <c r="H26" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="K26" s="12">
         <v>0</v>
@@ -2661,7 +2652,7 @@
         <v>991</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E28" s="2">
         <v>99</v>
@@ -2673,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I28" s="12">
         <v>0</v>
@@ -2798,7 +2789,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="3:15">
@@ -2929,7 +2920,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -2941,7 +2932,7 @@
         <v>1051</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6" s="2">
         <v>40000</v>
@@ -2965,7 +2956,7 @@
         <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -2973,7 +2964,7 @@
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -2985,7 +2976,7 @@
         <v>1052</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7" s="2">
         <v>40000</v>
@@ -3009,7 +3000,7 @@
         <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3017,7 +3008,7 @@
         <v>1002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -3029,7 +3020,7 @@
         <v>1053</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8" s="2">
         <v>40000</v>
@@ -3053,7 +3044,7 @@
         <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3061,7 +3052,7 @@
         <v>1003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -3073,7 +3064,7 @@
         <v>1054</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I9" s="2">
         <v>40000</v>
@@ -3097,7 +3088,7 @@
         <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3105,7 +3096,7 @@
         <v>1004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -3117,7 +3108,7 @@
         <v>1055</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="2">
         <v>40000</v>
@@ -3141,7 +3132,7 @@
         <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3149,7 +3140,7 @@
         <v>1005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -3161,7 +3152,7 @@
         <v>1056</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I11" s="2">
         <v>40000</v>
@@ -3185,7 +3176,7 @@
         <v>33</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3193,7 +3184,7 @@
         <v>1006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2">
         <v>98</v>
@@ -3205,7 +3196,7 @@
         <v>1057</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="2">
         <v>40000</v>
@@ -3229,7 +3220,7 @@
         <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3237,7 +3228,7 @@
         <v>1007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2">
         <v>98</v>
@@ -3249,7 +3240,7 @@
         <v>1058</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I13" s="2">
         <v>40000</v>
@@ -3273,7 +3264,7 @@
         <v>33</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3281,7 +3272,7 @@
         <v>1008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="2">
         <v>98</v>
@@ -3293,7 +3284,7 @@
         <v>1059</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I14" s="2">
         <v>40000</v>
@@ -3317,7 +3308,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3325,7 +3316,7 @@
         <v>1009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
@@ -3337,7 +3328,7 @@
         <v>1060</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I15" s="2">
         <v>40000</v>
@@ -3361,7 +3352,7 @@
         <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3369,7 +3360,7 @@
         <v>1010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="2">
         <v>98</v>
@@ -3381,7 +3372,7 @@
         <v>1061</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I16" s="2">
         <v>40000</v>
@@ -3405,7 +3396,7 @@
         <v>33</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3413,7 +3404,7 @@
         <v>1011</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E17" s="2">
         <v>98</v>
@@ -3425,7 +3416,7 @@
         <v>1062</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I17" s="2">
         <v>40000</v>
@@ -3449,7 +3440,7 @@
         <v>33</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3457,7 +3448,7 @@
         <v>1012</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="2">
         <v>98</v>
@@ -3469,7 +3460,7 @@
         <v>1063</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I18" s="2">
         <v>40000</v>
@@ -3493,7 +3484,7 @@
         <v>33</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3501,7 +3492,7 @@
         <v>1013</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19" s="2">
         <v>98</v>
@@ -3513,7 +3504,7 @@
         <v>1064</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I19" s="2">
         <v>40000</v>
@@ -3537,7 +3528,7 @@
         <v>33</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3545,7 +3536,7 @@
         <v>1014</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="2">
         <v>98</v>
@@ -3557,7 +3548,7 @@
         <v>1065</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I20" s="2">
         <v>40000</v>
@@ -3581,7 +3572,7 @@
         <v>33</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3589,7 +3580,7 @@
         <v>1015</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E21" s="2">
         <v>98</v>
@@ -3601,7 +3592,7 @@
         <v>1066</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I21" s="2">
         <v>40000</v>
@@ -3625,7 +3616,7 @@
         <v>33</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3633,7 +3624,7 @@
         <v>1016</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="2">
         <v>98</v>
@@ -3645,7 +3636,7 @@
         <v>1067</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I22" s="2">
         <v>40000</v>
@@ -3669,7 +3660,7 @@
         <v>33</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3677,7 +3668,7 @@
         <v>1017</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="2">
         <v>98</v>
@@ -3689,7 +3680,7 @@
         <v>1068</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I23" s="2">
         <v>40000</v>
@@ -3713,7 +3704,7 @@
         <v>33</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3721,7 +3712,7 @@
         <v>1018</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24" s="2">
         <v>98</v>
@@ -3733,7 +3724,7 @@
         <v>1069</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I24" s="2">
         <v>40000</v>
@@ -3757,7 +3748,7 @@
         <v>33</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3765,7 +3756,7 @@
         <v>1019</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E25" s="2">
         <v>98</v>
@@ -3777,7 +3768,7 @@
         <v>1070</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I25" s="2">
         <v>40000</v>
@@ -3801,7 +3792,7 @@
         <v>33</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3809,7 +3800,7 @@
         <v>1020</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26" s="2">
         <v>98</v>
@@ -3821,7 +3812,7 @@
         <v>1071</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I26" s="2">
         <v>40000</v>
@@ -3845,7 +3836,7 @@
         <v>33</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3853,7 +3844,7 @@
         <v>1021</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27" s="2">
         <v>98</v>
@@ -3865,7 +3856,7 @@
         <v>1072</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I27" s="2">
         <v>40000</v>
@@ -3889,7 +3880,7 @@
         <v>33</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3897,7 +3888,7 @@
         <v>1022</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E28" s="2">
         <v>98</v>
@@ -3909,7 +3900,7 @@
         <v>1073</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I28" s="2">
         <v>40000</v>
@@ -3933,7 +3924,7 @@
         <v>33</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="3:16">
@@ -3941,7 +3932,7 @@
         <v>1023</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E29" s="2">
         <v>98</v>
@@ -3953,7 +3944,7 @@
         <v>1074</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
@@ -3977,7 +3968,7 @@
         <v>33</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -3985,7 +3976,7 @@
         <v>1024</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" s="2">
         <v>98</v>
@@ -3997,7 +3988,7 @@
         <v>1075</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -4021,7 +4012,7 @@
         <v>33</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -4029,7 +4020,7 @@
         <v>1025</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" s="2">
         <v>98</v>
@@ -4041,7 +4032,7 @@
         <v>1076</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
@@ -4065,7 +4056,7 @@
         <v>33</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -4073,7 +4064,7 @@
         <v>1026</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E32" s="2">
         <v>98</v>
@@ -4085,7 +4076,7 @@
         <v>1077</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -4109,7 +4100,7 @@
         <v>33</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -4117,7 +4108,7 @@
         <v>1027</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E33" s="2">
         <v>98</v>
@@ -4129,7 +4120,7 @@
         <v>1078</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -4153,7 +4144,7 @@
         <v>33</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="3:16">
@@ -4161,7 +4152,7 @@
         <v>1028</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E34" s="2">
         <v>98</v>
@@ -4173,7 +4164,7 @@
         <v>1079</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
@@ -4197,7 +4188,7 @@
         <v>33</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4384,7 +4375,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -4396,7 +4387,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -4425,7 +4416,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -4437,7 +4428,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -4466,7 +4457,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -4478,7 +4469,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -4507,7 +4498,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -4519,7 +4510,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -4548,7 +4539,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -4560,7 +4551,7 @@
         <v>1074</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>
@@ -4589,7 +4580,7 @@
         <v>2005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -4601,7 +4592,7 @@
         <v>1099</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -340,10 +340,10 @@
     <t>50</t>
   </si>
   <si>
-    <t>2024-04-04</t>
-  </si>
-  <si>
-    <t>2024-04-07</t>
+    <t>2024-05-01</t>
+  </si>
+  <si>
+    <t>2024-05-06</t>
   </si>
   <si>
     <t>第一批白图鉴</t>
@@ -1769,8 +1769,8 @@
   <sheetPr/>
   <dimension ref="C1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -1770,7 +1770,7 @@
   <dimension ref="C1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1769,7 +1769,7 @@
   <sheetPr/>
   <dimension ref="C1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -2750,8 +2750,8 @@
   <sheetPr/>
   <dimension ref="C1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3947,10 +3947,10 @@
         <v>139</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J29" s="2">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
@@ -4012,7 +4012,7 @@
         <v>33</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -4056,7 +4056,7 @@
         <v>33</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
@@ -4144,7 +4144,7 @@
         <v>33</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="3:16">
@@ -4188,7 +4188,7 @@
         <v>33</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -457,7 +457,7 @@
     <t>20000</t>
   </si>
   <si>
-    <t>第一批冠名图鉴</t>
+    <t>冠名图鉴</t>
   </si>
   <si>
     <t>2001</t>
@@ -712,31 +712,31 @@
     <t>1400028</t>
   </si>
   <si>
-    <t>1介红装1</t>
+    <t>武器衣服红装</t>
   </si>
   <si>
     <t>210000</t>
   </si>
   <si>
-    <t>1介红装2</t>
+    <t>项链头盔红装</t>
   </si>
   <si>
     <t>210001</t>
   </si>
   <si>
-    <t>1介红装3</t>
+    <t>手镯戒指红装</t>
   </si>
   <si>
     <t>210002</t>
   </si>
   <si>
-    <t>1介红装4</t>
+    <t>腰带鞋子红装</t>
   </si>
   <si>
     <t>210003</t>
   </si>
   <si>
-    <t>1介红装5</t>
+    <t>全部红装</t>
   </si>
   <si>
     <t>210004</t>
@@ -1770,7 +1770,7 @@
   <dimension ref="C1:O34"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="F26" sqref="F26:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1980,7 +1980,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F8" s="2">
         <v>1000</v>
@@ -2021,7 +2021,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -2062,7 +2062,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F10" s="2">
         <v>1000</v>
@@ -2103,7 +2103,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F11" s="2">
         <v>1000</v>
@@ -2144,7 +2144,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F12" s="2">
         <v>1035</v>
@@ -2185,7 +2185,7 @@
         <v>45</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F13" s="2">
         <v>1035</v>
@@ -2226,7 +2226,7 @@
         <v>47</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F14" s="2">
         <v>1035</v>
@@ -2267,7 +2267,7 @@
         <v>49</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F15" s="2">
         <v>1035</v>
@@ -2442,7 +2442,7 @@
         <v>57</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F21" s="2">
         <v>1000</v>
@@ -2483,7 +2483,7 @@
         <v>59</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F22" s="2">
         <v>1070</v>
@@ -2525,7 +2525,7 @@
         <v>62</v>
       </c>
       <c r="E24" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F24" s="2">
         <v>1000</v>
@@ -2566,7 +2566,7 @@
         <v>66</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F25" s="2">
         <v>1000</v>
@@ -2607,7 +2607,7 @@
         <v>69</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F26" s="2">
         <v>1000</v>
@@ -2750,8 +2750,8 @@
   <sheetPr/>
   <dimension ref="C1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30:P34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="$A25:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4208,8 +4208,8 @@
   <sheetPr/>
   <dimension ref="C1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="161">
   <si>
     <t>_id</t>
   </si>
@@ -433,7 +433,7 @@
     <t>第一时装</t>
   </si>
   <si>
-    <t>15000</t>
+    <t>150000</t>
   </si>
   <si>
     <t>第二时装</t>
@@ -442,28 +442,28 @@
     <t>3002</t>
   </si>
   <si>
+    <t>专属之心</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>冠名图鉴</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
     <t>30000</t>
-  </si>
-  <si>
-    <t>专属之心</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>冠名图鉴</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>5000</t>
   </si>
   <si>
     <t>龙之图鉴</t>
@@ -1769,8 +1769,8 @@
   <sheetPr/>
   <dimension ref="C1:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:L26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2453,8 +2453,8 @@
       <c r="H21" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="15" t="s">
-        <v>58</v>
+      <c r="I21" s="2">
+        <v>0</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>58</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="12">
         <v>0</v>
@@ -2498,13 +2498,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K22" s="12">
         <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="12">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>801</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="2">
         <v>98</v>
@@ -2534,13 +2534,13 @@
         <v>1099</v>
       </c>
       <c r="H24" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="J24" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="K24" s="12">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>802</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="2">
         <v>98</v>
@@ -2575,13 +2575,13 @@
         <v>1099</v>
       </c>
       <c r="H25" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="J25" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>61</v>
       </c>
       <c r="K25" s="12">
         <v>0</v>
@@ -2750,7 +2750,7 @@
   <sheetPr/>
   <dimension ref="C1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A25" sqref="$A25:$XFD25"/>
     </sheetView>
   </sheetViews>
@@ -4208,7 +4208,7 @@
   <sheetPr/>
   <dimension ref="C1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="173">
   <si>
     <t>_id</t>
   </si>
@@ -710,6 +710,42 @@
   </si>
   <si>
     <t>1400028</t>
+  </si>
+  <si>
+    <t>梦魇狼爪</t>
+  </si>
+  <si>
+    <t>1400029</t>
+  </si>
+  <si>
+    <t>伤害增加</t>
+  </si>
+  <si>
+    <t>梦魇虫皮</t>
+  </si>
+  <si>
+    <t>1400030</t>
+  </si>
+  <si>
+    <t>攻击比例</t>
+  </si>
+  <si>
+    <t>梦魇鹰羽</t>
+  </si>
+  <si>
+    <t>1400031</t>
+  </si>
+  <si>
+    <t>梦魇虫角</t>
+  </si>
+  <si>
+    <t>1400032</t>
+  </si>
+  <si>
+    <t>梦魇蜈膏</t>
+  </si>
+  <si>
+    <t>1400033</t>
   </si>
   <si>
     <t>武器衣服红装</t>
@@ -1769,8 +1805,8 @@
   <sheetPr/>
   <dimension ref="C1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2748,13 +2784,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:P34"/>
+  <dimension ref="C1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="$A25:$XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P40" sqref="B40:P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
@@ -2768,7 +2804,7 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="8:15">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="8:15">
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -2778,7 +2814,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="3:16">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="3:16">
       <c r="C2" s="4"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -2792,7 +2828,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="3:15">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2833,7 +2869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:15">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
@@ -2874,7 +2910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="3:15">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
@@ -2915,7 +2951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C6" s="2">
         <v>1000</v>
       </c>
@@ -2959,7 +2995,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C7" s="2">
         <v>1001</v>
       </c>
@@ -3003,7 +3039,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C8" s="2">
         <v>1002</v>
       </c>
@@ -3047,7 +3083,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C9" s="2">
         <v>1003</v>
       </c>
@@ -3091,7 +3127,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C10" s="2">
         <v>1004</v>
       </c>
@@ -3135,7 +3171,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C11" s="2">
         <v>1005</v>
       </c>
@@ -3179,7 +3215,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C12" s="2">
         <v>1006</v>
       </c>
@@ -3223,7 +3259,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C13" s="2">
         <v>1007</v>
       </c>
@@ -3267,7 +3303,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C14" s="2">
         <v>1008</v>
       </c>
@@ -3311,7 +3347,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C15" s="2">
         <v>1009</v>
       </c>
@@ -3355,7 +3391,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C16" s="2">
         <v>1010</v>
       </c>
@@ -3399,7 +3435,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C17" s="2">
         <v>1011</v>
       </c>
@@ -3443,7 +3479,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C18" s="2">
         <v>1012</v>
       </c>
@@ -3487,7 +3523,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C19" s="2">
         <v>1013</v>
       </c>
@@ -3531,7 +3567,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C20" s="2">
         <v>1014</v>
       </c>
@@ -3575,7 +3611,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C21" s="2">
         <v>1015</v>
       </c>
@@ -3619,7 +3655,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C22" s="2">
         <v>1016</v>
       </c>
@@ -3663,7 +3699,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C23" s="2">
         <v>1017</v>
       </c>
@@ -3707,7 +3743,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C24" s="2">
         <v>1018</v>
       </c>
@@ -3751,7 +3787,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C25" s="2">
         <v>1019</v>
       </c>
@@ -3795,7 +3831,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C26" s="2">
         <v>1020</v>
       </c>
@@ -3839,7 +3875,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C27" s="2">
         <v>1021</v>
       </c>
@@ -3883,7 +3919,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C28" s="2">
         <v>1022</v>
       </c>
@@ -3927,7 +3963,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="3:16">
+    <row r="29" customHeight="1" spans="3:16">
       <c r="C29" s="2">
         <v>1023</v>
       </c>
@@ -3971,7 +4007,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C30" s="2">
         <v>1024</v>
       </c>
@@ -4015,7 +4051,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C31" s="2">
         <v>1025</v>
       </c>
@@ -4059,7 +4095,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C32" s="2">
         <v>1026</v>
       </c>
@@ -4103,7 +4139,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C33" s="2">
         <v>1027</v>
       </c>
@@ -4147,7 +4183,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="3:16">
+    <row r="34" customHeight="1" spans="3:16">
       <c r="C34" s="2">
         <v>1028</v>
       </c>
@@ -4189,6 +4225,226 @@
       </c>
       <c r="P34" s="2" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:16">
+      <c r="C35" s="2">
+        <v>1029</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="2">
+        <v>98</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1080</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1080</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:16">
+      <c r="C36" s="2">
+        <v>1030</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="2">
+        <v>98</v>
+      </c>
+      <c r="F36" s="8">
+        <v>1081</v>
+      </c>
+      <c r="G36" s="8">
+        <v>1081</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:16">
+      <c r="C37" s="2">
+        <v>1031</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="2">
+        <v>98</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1082</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1082</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:16">
+      <c r="C38" s="2">
+        <v>1032</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="2">
+        <v>98</v>
+      </c>
+      <c r="F38" s="8">
+        <v>1083</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1083</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:16">
+      <c r="C39" s="2">
+        <v>1033</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="2">
+        <v>98</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1084</v>
+      </c>
+      <c r="G39" s="8">
+        <v>1084</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4375,7 +4631,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -4387,7 +4643,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -4416,7 +4672,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -4428,7 +4684,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -4457,7 +4713,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -4469,7 +4725,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -4498,7 +4754,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -4510,7 +4766,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -4539,7 +4795,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -4551,7 +4807,7 @@
         <v>1074</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>
@@ -4580,7 +4836,7 @@
         <v>2005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -4592,7 +4848,7 @@
         <v>1099</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -433,7 +433,7 @@
     <t>第一时装</t>
   </si>
   <si>
-    <t>150000</t>
+    <t>100000</t>
   </si>
   <si>
     <t>第二时装</t>
@@ -1805,8 +1805,8 @@
   <sheetPr/>
   <dimension ref="C1:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2786,7 +2786,7 @@
   <sheetPr/>
   <dimension ref="C1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="P40" sqref="B40:P40"/>
     </sheetView>
   </sheetViews>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -433,7 +433,7 @@
     <t>第一时装</t>
   </si>
   <si>
-    <t>100000</t>
+    <t>150000</t>
   </si>
   <si>
     <t>第二时装</t>
@@ -1806,7 +1806,7 @@
   <dimension ref="C1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -340,10 +340,10 @@
     <t>50</t>
   </si>
   <si>
-    <t>2024-05-01</t>
-  </si>
-  <si>
-    <t>2024-05-06</t>
+    <t>2024-06-08</t>
+  </si>
+  <si>
+    <t>2024-05-11</t>
   </si>
   <si>
     <t>第一批白图鉴</t>
@@ -1806,7 +1806,7 @@
   <dimension ref="C1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -340,10 +340,10 @@
     <t>50</t>
   </si>
   <si>
-    <t>2024-06-08</t>
-  </si>
-  <si>
-    <t>2024-05-11</t>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>2024-06-11</t>
   </si>
   <si>
     <t>第一批白图鉴</t>
@@ -1806,7 +1806,7 @@
   <dimension ref="C1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="176">
   <si>
     <t>_id</t>
   </si>
@@ -476,6 +476,15 @@
   </si>
   <si>
     <t>80000</t>
+  </si>
+  <si>
+    <t>神技</t>
+  </si>
+  <si>
+    <t>4001</t>
+  </si>
+  <si>
+    <t>500000</t>
   </si>
   <si>
     <t>镜像挑战</t>
@@ -1803,10 +1812,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:O34"/>
+  <dimension ref="C1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2676,66 +2685,90 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="10:15">
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-    </row>
-    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C28" s="2">
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C27" s="2">
+        <v>804</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="2">
+        <v>98</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1086</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1199</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
+        <v>0</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C29" s="2">
         <v>991</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="D29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="2">
         <v>99</v>
       </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="12">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
         <v>1</v>
       </c>
-      <c r="K28" s="12">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
         <v>1</v>
       </c>
-      <c r="N28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" customHeight="1"/>
+      <c r="N29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="30" s="2" customFormat="1" customHeight="1"/>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="8:15">
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1"/>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="8:15">
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -2765,6 +2798,16 @@
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="8:15">
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F25">
@@ -2786,7 +2829,7 @@
   <sheetPr/>
   <dimension ref="C1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="P40" sqref="B40:P40"/>
     </sheetView>
   </sheetViews>
@@ -2825,7 +2868,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2956,7 +2999,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -2968,7 +3011,7 @@
         <v>1051</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I6" s="2">
         <v>40000</v>
@@ -2992,7 +3035,7 @@
         <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3000,7 +3043,7 @@
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -3012,7 +3055,7 @@
         <v>1052</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I7" s="2">
         <v>40000</v>
@@ -3036,7 +3079,7 @@
         <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3044,7 +3087,7 @@
         <v>1002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -3056,7 +3099,7 @@
         <v>1053</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I8" s="2">
         <v>40000</v>
@@ -3080,7 +3123,7 @@
         <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3088,7 +3131,7 @@
         <v>1003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -3100,7 +3143,7 @@
         <v>1054</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I9" s="2">
         <v>40000</v>
@@ -3124,7 +3167,7 @@
         <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3132,7 +3175,7 @@
         <v>1004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -3144,7 +3187,7 @@
         <v>1055</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I10" s="2">
         <v>40000</v>
@@ -3168,7 +3211,7 @@
         <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3176,7 +3219,7 @@
         <v>1005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -3188,7 +3231,7 @@
         <v>1056</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I11" s="2">
         <v>40000</v>
@@ -3212,7 +3255,7 @@
         <v>33</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3220,7 +3263,7 @@
         <v>1006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2">
         <v>98</v>
@@ -3232,7 +3275,7 @@
         <v>1057</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I12" s="2">
         <v>40000</v>
@@ -3256,7 +3299,7 @@
         <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3264,7 +3307,7 @@
         <v>1007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2">
         <v>98</v>
@@ -3276,7 +3319,7 @@
         <v>1058</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I13" s="2">
         <v>40000</v>
@@ -3300,7 +3343,7 @@
         <v>33</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3308,7 +3351,7 @@
         <v>1008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E14" s="2">
         <v>98</v>
@@ -3320,7 +3363,7 @@
         <v>1059</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I14" s="2">
         <v>40000</v>
@@ -3344,7 +3387,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3352,7 +3395,7 @@
         <v>1009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
@@ -3364,7 +3407,7 @@
         <v>1060</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I15" s="2">
         <v>40000</v>
@@ -3388,7 +3431,7 @@
         <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3396,7 +3439,7 @@
         <v>1010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E16" s="2">
         <v>98</v>
@@ -3408,7 +3451,7 @@
         <v>1061</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I16" s="2">
         <v>40000</v>
@@ -3432,7 +3475,7 @@
         <v>33</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3440,7 +3483,7 @@
         <v>1011</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E17" s="2">
         <v>98</v>
@@ -3452,7 +3495,7 @@
         <v>1062</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I17" s="2">
         <v>40000</v>
@@ -3476,7 +3519,7 @@
         <v>33</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3484,7 +3527,7 @@
         <v>1012</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2">
         <v>98</v>
@@ -3496,7 +3539,7 @@
         <v>1063</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I18" s="2">
         <v>40000</v>
@@ -3520,7 +3563,7 @@
         <v>33</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3528,7 +3571,7 @@
         <v>1013</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E19" s="2">
         <v>98</v>
@@ -3540,7 +3583,7 @@
         <v>1064</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I19" s="2">
         <v>40000</v>
@@ -3564,7 +3607,7 @@
         <v>33</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3572,7 +3615,7 @@
         <v>1014</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E20" s="2">
         <v>98</v>
@@ -3584,7 +3627,7 @@
         <v>1065</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I20" s="2">
         <v>40000</v>
@@ -3608,7 +3651,7 @@
         <v>33</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3616,7 +3659,7 @@
         <v>1015</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E21" s="2">
         <v>98</v>
@@ -3628,7 +3671,7 @@
         <v>1066</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I21" s="2">
         <v>40000</v>
@@ -3652,7 +3695,7 @@
         <v>33</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3660,7 +3703,7 @@
         <v>1016</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E22" s="2">
         <v>98</v>
@@ -3672,7 +3715,7 @@
         <v>1067</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I22" s="2">
         <v>40000</v>
@@ -3696,7 +3739,7 @@
         <v>33</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3704,7 +3747,7 @@
         <v>1017</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E23" s="2">
         <v>98</v>
@@ -3716,7 +3759,7 @@
         <v>1068</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I23" s="2">
         <v>40000</v>
@@ -3740,7 +3783,7 @@
         <v>33</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3748,7 +3791,7 @@
         <v>1018</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E24" s="2">
         <v>98</v>
@@ -3760,7 +3803,7 @@
         <v>1069</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I24" s="2">
         <v>40000</v>
@@ -3784,7 +3827,7 @@
         <v>33</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3792,7 +3835,7 @@
         <v>1019</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E25" s="2">
         <v>98</v>
@@ -3804,7 +3847,7 @@
         <v>1070</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I25" s="2">
         <v>40000</v>
@@ -3828,7 +3871,7 @@
         <v>33</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3836,7 +3879,7 @@
         <v>1020</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E26" s="2">
         <v>98</v>
@@ -3848,7 +3891,7 @@
         <v>1071</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I26" s="2">
         <v>40000</v>
@@ -3872,7 +3915,7 @@
         <v>33</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3880,7 +3923,7 @@
         <v>1021</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E27" s="2">
         <v>98</v>
@@ -3892,7 +3935,7 @@
         <v>1072</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I27" s="2">
         <v>40000</v>
@@ -3916,7 +3959,7 @@
         <v>33</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3924,7 +3967,7 @@
         <v>1022</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E28" s="2">
         <v>98</v>
@@ -3936,7 +3979,7 @@
         <v>1073</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I28" s="2">
         <v>40000</v>
@@ -3960,7 +4003,7 @@
         <v>33</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:16">
@@ -3968,7 +4011,7 @@
         <v>1023</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E29" s="2">
         <v>98</v>
@@ -3980,7 +4023,7 @@
         <v>1074</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I29" s="2">
         <v>40000</v>
@@ -4004,7 +4047,7 @@
         <v>33</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4012,7 +4055,7 @@
         <v>1024</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E30" s="2">
         <v>98</v>
@@ -4024,7 +4067,7 @@
         <v>1075</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -4048,7 +4091,7 @@
         <v>33</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4056,7 +4099,7 @@
         <v>1025</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E31" s="2">
         <v>98</v>
@@ -4068,7 +4111,7 @@
         <v>1076</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
@@ -4092,7 +4135,7 @@
         <v>33</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4100,7 +4143,7 @@
         <v>1026</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E32" s="2">
         <v>98</v>
@@ -4112,7 +4155,7 @@
         <v>1077</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -4136,7 +4179,7 @@
         <v>33</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4144,7 +4187,7 @@
         <v>1027</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E33" s="2">
         <v>98</v>
@@ -4156,7 +4199,7 @@
         <v>1078</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -4180,7 +4223,7 @@
         <v>33</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:16">
@@ -4188,7 +4231,7 @@
         <v>1028</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E34" s="2">
         <v>98</v>
@@ -4200,7 +4243,7 @@
         <v>1079</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
@@ -4224,7 +4267,7 @@
         <v>33</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:16">
@@ -4232,7 +4275,7 @@
         <v>1029</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E35" s="2">
         <v>98</v>
@@ -4244,7 +4287,7 @@
         <v>1080</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -4268,7 +4311,7 @@
         <v>33</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:16">
@@ -4276,7 +4319,7 @@
         <v>1030</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E36" s="2">
         <v>98</v>
@@ -4288,7 +4331,7 @@
         <v>1081</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -4312,7 +4355,7 @@
         <v>33</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:16">
@@ -4320,7 +4363,7 @@
         <v>1031</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E37" s="2">
         <v>98</v>
@@ -4332,7 +4375,7 @@
         <v>1082</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
@@ -4356,7 +4399,7 @@
         <v>33</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:16">
@@ -4364,7 +4407,7 @@
         <v>1032</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E38" s="2">
         <v>98</v>
@@ -4376,7 +4419,7 @@
         <v>1083</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -4400,7 +4443,7 @@
         <v>33</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:16">
@@ -4408,7 +4451,7 @@
         <v>1033</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E39" s="2">
         <v>98</v>
@@ -4420,7 +4463,7 @@
         <v>1084</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -4444,7 +4487,7 @@
         <v>33</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4631,7 +4674,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -4643,7 +4686,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -4672,7 +4715,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -4684,7 +4727,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -4713,7 +4756,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -4725,7 +4768,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -4754,7 +4797,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -4766,7 +4809,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -4795,7 +4838,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -4807,7 +4850,7 @@
         <v>1074</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>
@@ -4836,7 +4879,7 @@
         <v>2005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -4848,7 +4891,7 @@
         <v>1099</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1815,7 +1815,7 @@
   <dimension ref="C1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2696,7 +2696,7 @@
         <v>98</v>
       </c>
       <c r="F27" s="2">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G27" s="2">
         <v>1199</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="181">
   <si>
     <t>_id</t>
   </si>
@@ -755,6 +755,21 @@
   </si>
   <si>
     <t>1400033</t>
+  </si>
+  <si>
+    <t>1400034</t>
+  </si>
+  <si>
+    <t>1400035</t>
+  </si>
+  <si>
+    <t>1400036</t>
+  </si>
+  <si>
+    <t>1400037</t>
+  </si>
+  <si>
+    <t>1400038</t>
   </si>
   <si>
     <t>武器衣服红装</t>
@@ -1814,7 +1829,7 @@
   <sheetPr/>
   <dimension ref="C1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -2827,10 +2842,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:P39"/>
+  <dimension ref="C1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P40" sqref="B40:P40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39:H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -4487,6 +4502,226 @@
         <v>33</v>
       </c>
       <c r="P39" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:16">
+      <c r="C40" s="2">
+        <v>1034</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="2">
+        <v>98</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1085</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1085</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:16">
+      <c r="C41" s="2">
+        <v>1035</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="2">
+        <v>98</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1086</v>
+      </c>
+      <c r="G41" s="8">
+        <v>1086</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:16">
+      <c r="C42" s="2">
+        <v>1036</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="2">
+        <v>98</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1087</v>
+      </c>
+      <c r="G42" s="8">
+        <v>1087</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:16">
+      <c r="C43" s="2">
+        <v>1037</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="2">
+        <v>98</v>
+      </c>
+      <c r="F43" s="8">
+        <v>1088</v>
+      </c>
+      <c r="G43" s="8">
+        <v>1088</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:16">
+      <c r="C44" s="2">
+        <v>1038</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="2">
+        <v>98</v>
+      </c>
+      <c r="F44" s="8">
+        <v>1089</v>
+      </c>
+      <c r="G44" s="8">
+        <v>1089</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P44" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4674,7 +4909,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -4686,7 +4921,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -4715,7 +4950,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -4727,7 +4962,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -4756,7 +4991,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -4768,7 +5003,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -4797,7 +5032,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -4809,7 +5044,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -4838,7 +5073,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -4850,7 +5085,7 @@
         <v>1074</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>
@@ -4879,7 +5114,7 @@
         <v>2005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -4891,7 +5126,7 @@
         <v>1099</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="183">
   <si>
     <t>_id</t>
   </si>
@@ -478,15 +478,6 @@
     <t>80000</t>
   </si>
   <si>
-    <t>神技</t>
-  </si>
-  <si>
-    <t>4001</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
     <t>镜像挑战</t>
   </si>
   <si>
@@ -757,16 +748,31 @@
     <t>1400033</t>
   </si>
   <si>
+    <t>梦魇虫心</t>
+  </si>
+  <si>
     <t>1400034</t>
   </si>
   <si>
+    <t>梦魇龙皮</t>
+  </si>
+  <si>
     <t>1400035</t>
   </si>
   <si>
+    <t>梦魇猪皮</t>
+  </si>
+  <si>
     <t>1400036</t>
   </si>
   <si>
+    <t>梦魇猪心</t>
+  </si>
+  <si>
     <t>1400037</t>
+  </si>
+  <si>
+    <t>梦魇蝎皮</t>
   </si>
   <si>
     <t>1400038</t>
@@ -1830,7 +1836,7 @@
   <dimension ref="C1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2700,53 +2706,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C27" s="2">
-        <v>804</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="2">
-        <v>98</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1085</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1199</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K27" s="12">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="12">
-        <v>0</v>
-      </c>
-      <c r="N27" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>33</v>
-      </c>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="10:15">
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C29" s="2">
         <v>991</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E29" s="2">
         <v>99</v>
@@ -2758,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I29" s="12">
         <v>0</v>
@@ -2845,7 +2817,7 @@
   <dimension ref="C1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39:H44"/>
+      <selection activeCell="D40" sqref="D40:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2883,7 +2855,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -3014,7 +2986,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -3026,7 +2998,7 @@
         <v>1051</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I6" s="2">
         <v>40000</v>
@@ -3050,7 +3022,7 @@
         <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3058,7 +3030,7 @@
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -3070,7 +3042,7 @@
         <v>1052</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I7" s="2">
         <v>40000</v>
@@ -3094,7 +3066,7 @@
         <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3102,7 +3074,7 @@
         <v>1002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -3114,7 +3086,7 @@
         <v>1053</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I8" s="2">
         <v>40000</v>
@@ -3138,7 +3110,7 @@
         <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3146,7 +3118,7 @@
         <v>1003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -3158,7 +3130,7 @@
         <v>1054</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I9" s="2">
         <v>40000</v>
@@ -3182,7 +3154,7 @@
         <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3190,7 +3162,7 @@
         <v>1004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -3202,7 +3174,7 @@
         <v>1055</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I10" s="2">
         <v>40000</v>
@@ -3226,7 +3198,7 @@
         <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3234,7 +3206,7 @@
         <v>1005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -3246,7 +3218,7 @@
         <v>1056</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I11" s="2">
         <v>40000</v>
@@ -3270,7 +3242,7 @@
         <v>33</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3278,7 +3250,7 @@
         <v>1006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2">
         <v>98</v>
@@ -3290,7 +3262,7 @@
         <v>1057</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I12" s="2">
         <v>40000</v>
@@ -3314,7 +3286,7 @@
         <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3322,7 +3294,7 @@
         <v>1007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2">
         <v>98</v>
@@ -3334,7 +3306,7 @@
         <v>1058</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I13" s="2">
         <v>40000</v>
@@ -3358,7 +3330,7 @@
         <v>33</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3366,7 +3338,7 @@
         <v>1008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E14" s="2">
         <v>98</v>
@@ -3378,7 +3350,7 @@
         <v>1059</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I14" s="2">
         <v>40000</v>
@@ -3402,7 +3374,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3410,7 +3382,7 @@
         <v>1009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
@@ -3422,7 +3394,7 @@
         <v>1060</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I15" s="2">
         <v>40000</v>
@@ -3446,7 +3418,7 @@
         <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3454,7 +3426,7 @@
         <v>1010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E16" s="2">
         <v>98</v>
@@ -3466,7 +3438,7 @@
         <v>1061</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I16" s="2">
         <v>40000</v>
@@ -3490,7 +3462,7 @@
         <v>33</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3498,7 +3470,7 @@
         <v>1011</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E17" s="2">
         <v>98</v>
@@ -3510,7 +3482,7 @@
         <v>1062</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I17" s="2">
         <v>40000</v>
@@ -3534,7 +3506,7 @@
         <v>33</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3542,7 +3514,7 @@
         <v>1012</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E18" s="2">
         <v>98</v>
@@ -3554,7 +3526,7 @@
         <v>1063</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I18" s="2">
         <v>40000</v>
@@ -3578,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3586,7 +3558,7 @@
         <v>1013</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E19" s="2">
         <v>98</v>
@@ -3598,7 +3570,7 @@
         <v>1064</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I19" s="2">
         <v>40000</v>
@@ -3622,7 +3594,7 @@
         <v>33</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3630,7 +3602,7 @@
         <v>1014</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E20" s="2">
         <v>98</v>
@@ -3642,7 +3614,7 @@
         <v>1065</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I20" s="2">
         <v>40000</v>
@@ -3666,7 +3638,7 @@
         <v>33</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3674,7 +3646,7 @@
         <v>1015</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E21" s="2">
         <v>98</v>
@@ -3686,7 +3658,7 @@
         <v>1066</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I21" s="2">
         <v>40000</v>
@@ -3710,7 +3682,7 @@
         <v>33</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3718,7 +3690,7 @@
         <v>1016</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E22" s="2">
         <v>98</v>
@@ -3730,7 +3702,7 @@
         <v>1067</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I22" s="2">
         <v>40000</v>
@@ -3754,7 +3726,7 @@
         <v>33</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3762,7 +3734,7 @@
         <v>1017</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E23" s="2">
         <v>98</v>
@@ -3774,7 +3746,7 @@
         <v>1068</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I23" s="2">
         <v>40000</v>
@@ -3798,7 +3770,7 @@
         <v>33</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3806,7 +3778,7 @@
         <v>1018</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E24" s="2">
         <v>98</v>
@@ -3818,7 +3790,7 @@
         <v>1069</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I24" s="2">
         <v>40000</v>
@@ -3842,7 +3814,7 @@
         <v>33</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3850,7 +3822,7 @@
         <v>1019</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E25" s="2">
         <v>98</v>
@@ -3862,7 +3834,7 @@
         <v>1070</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I25" s="2">
         <v>40000</v>
@@ -3886,7 +3858,7 @@
         <v>33</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3894,7 +3866,7 @@
         <v>1020</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E26" s="2">
         <v>98</v>
@@ -3906,7 +3878,7 @@
         <v>1071</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I26" s="2">
         <v>40000</v>
@@ -3930,7 +3902,7 @@
         <v>33</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3938,7 +3910,7 @@
         <v>1021</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E27" s="2">
         <v>98</v>
@@ -3950,7 +3922,7 @@
         <v>1072</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I27" s="2">
         <v>40000</v>
@@ -3974,7 +3946,7 @@
         <v>33</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3982,7 +3954,7 @@
         <v>1022</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E28" s="2">
         <v>98</v>
@@ -3994,7 +3966,7 @@
         <v>1073</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I28" s="2">
         <v>40000</v>
@@ -4018,7 +3990,7 @@
         <v>33</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:16">
@@ -4026,7 +3998,7 @@
         <v>1023</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E29" s="2">
         <v>98</v>
@@ -4038,7 +4010,7 @@
         <v>1074</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I29" s="2">
         <v>40000</v>
@@ -4062,7 +4034,7 @@
         <v>33</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4070,7 +4042,7 @@
         <v>1024</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E30" s="2">
         <v>98</v>
@@ -4082,7 +4054,7 @@
         <v>1075</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -4106,7 +4078,7 @@
         <v>33</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4114,7 +4086,7 @@
         <v>1025</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E31" s="2">
         <v>98</v>
@@ -4126,7 +4098,7 @@
         <v>1076</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
@@ -4150,7 +4122,7 @@
         <v>33</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4158,7 +4130,7 @@
         <v>1026</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E32" s="2">
         <v>98</v>
@@ -4170,7 +4142,7 @@
         <v>1077</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -4194,7 +4166,7 @@
         <v>33</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4202,7 +4174,7 @@
         <v>1027</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E33" s="2">
         <v>98</v>
@@ -4214,7 +4186,7 @@
         <v>1078</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -4238,7 +4210,7 @@
         <v>33</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:16">
@@ -4246,7 +4218,7 @@
         <v>1028</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E34" s="2">
         <v>98</v>
@@ -4258,7 +4230,7 @@
         <v>1079</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
@@ -4282,7 +4254,7 @@
         <v>33</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:16">
@@ -4290,7 +4262,7 @@
         <v>1029</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E35" s="2">
         <v>98</v>
@@ -4302,7 +4274,7 @@
         <v>1080</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -4326,7 +4298,7 @@
         <v>33</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:16">
@@ -4334,7 +4306,7 @@
         <v>1030</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E36" s="2">
         <v>98</v>
@@ -4346,7 +4318,7 @@
         <v>1081</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -4370,7 +4342,7 @@
         <v>33</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:16">
@@ -4378,7 +4350,7 @@
         <v>1031</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E37" s="2">
         <v>98</v>
@@ -4390,7 +4362,7 @@
         <v>1082</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
@@ -4414,7 +4386,7 @@
         <v>33</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:16">
@@ -4422,7 +4394,7 @@
         <v>1032</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E38" s="2">
         <v>98</v>
@@ -4434,7 +4406,7 @@
         <v>1083</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -4458,7 +4430,7 @@
         <v>33</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:16">
@@ -4466,7 +4438,7 @@
         <v>1033</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E39" s="2">
         <v>98</v>
@@ -4478,7 +4450,7 @@
         <v>1084</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -4502,7 +4474,7 @@
         <v>33</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:16">
@@ -4510,7 +4482,7 @@
         <v>1034</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E40" s="2">
         <v>98</v>
@@ -4522,7 +4494,7 @@
         <v>1085</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
@@ -4546,7 +4518,7 @@
         <v>33</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:16">
@@ -4554,7 +4526,7 @@
         <v>1035</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E41" s="2">
         <v>98</v>
@@ -4566,7 +4538,7 @@
         <v>1086</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
@@ -4590,7 +4562,7 @@
         <v>33</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:16">
@@ -4598,7 +4570,7 @@
         <v>1036</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E42" s="2">
         <v>98</v>
@@ -4634,7 +4606,7 @@
         <v>33</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:16">
@@ -4642,7 +4614,7 @@
         <v>1037</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E43" s="2">
         <v>98</v>
@@ -4654,7 +4626,7 @@
         <v>1088</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I43" s="2">
         <v>0</v>
@@ -4678,7 +4650,7 @@
         <v>33</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:16">
@@ -4686,7 +4658,7 @@
         <v>1038</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E44" s="2">
         <v>98</v>
@@ -4698,7 +4670,7 @@
         <v>1089</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I44" s="2">
         <v>0</v>
@@ -4722,7 +4694,7 @@
         <v>33</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4909,7 +4881,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -4921,7 +4893,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -4950,7 +4922,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -4962,7 +4934,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -4991,7 +4963,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -5003,7 +4975,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -5032,7 +5004,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -5044,7 +5016,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -5073,7 +5045,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -5085,7 +5057,7 @@
         <v>1074</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>
@@ -5114,7 +5086,7 @@
         <v>2005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -5126,7 +5098,7 @@
         <v>1099</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="194">
   <si>
     <t>_id</t>
   </si>
@@ -394,24 +394,69 @@
     <t>2014</t>
   </si>
   <si>
+    <t>5000</t>
+  </si>
+  <si>
     <t>第二批绿图鉴</t>
   </si>
   <si>
     <t>2015</t>
   </si>
   <si>
+    <t>10000</t>
+  </si>
+  <si>
     <t>第二批蓝图鉴</t>
   </si>
   <si>
     <t>2016</t>
   </si>
   <si>
+    <t>15000</t>
+  </si>
+  <si>
     <t>第二批紫图鉴</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>第三批白图鉴</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>第三批绿图鉴</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>第三批蓝图鉴</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>第三批紫图鉴</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>16000</t>
+  </si>
+  <si>
     <t>守沙100书页</t>
   </si>
   <si>
@@ -448,21 +493,12 @@
     <t>1004</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
     <t>冠名图鉴</t>
   </si>
   <si>
     <t>2001</t>
   </si>
   <si>
-    <t>5000</t>
-  </si>
-  <si>
     <t>30000</t>
   </si>
   <si>
@@ -473,9 +509,6 @@
   </si>
   <si>
     <t>40000</t>
-  </si>
-  <si>
-    <t>80000</t>
   </si>
   <si>
     <t>镜像挑战</t>
@@ -1833,10 +1866,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:O35"/>
+  <dimension ref="C1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2225,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K12" s="12">
         <v>0</v>
@@ -2248,7 +2281,7 @@
         <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2">
         <v>98</v>
@@ -2260,13 +2293,13 @@
         <v>1099</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" s="12">
         <v>0</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="K13" s="12">
         <v>0</v>
@@ -2289,7 +2322,7 @@
         <v>107</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2">
         <v>98</v>
@@ -2301,13 +2334,13 @@
         <v>1099</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I14" s="12">
         <v>0</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="K14" s="12">
         <v>0</v>
@@ -2330,7 +2363,7 @@
         <v>108</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
@@ -2342,13 +2375,13 @@
         <v>1099</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I15" s="12">
         <v>0</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K15" s="12">
         <v>0</v>
@@ -2366,40 +2399,80 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" customHeight="1"/>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C16" s="2">
+        <v>109</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2">
+        <v>98</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1070</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1099</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
+      <c r="L16" s="12">
+        <v>1</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C17" s="2">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>1070</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>52</v>
+        <v>1099</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="I17" s="12">
         <v>0</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
         <v>1</v>
       </c>
-      <c r="K17" s="12">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
       <c r="M17" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="14" t="s">
         <v>32</v>
@@ -2410,37 +2483,37 @@
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C18" s="2">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F18" s="2">
-        <v>0</v>
+        <v>1070</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>1099</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I18" s="12">
         <v>0</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
         <v>1</v>
       </c>
-      <c r="K18" s="12">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
       <c r="M18" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="14" t="s">
         <v>32</v>
@@ -2451,37 +2524,37 @@
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C19" s="2">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F19" s="2">
-        <v>0</v>
+        <v>1070</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>56</v>
+        <v>1099</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="I19" s="12">
         <v>0</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
         <v>1</v>
       </c>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
       <c r="M19" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="14" t="s">
         <v>32</v>
@@ -2490,49 +2563,40 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="8:15">
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="K20" s="12">
-        <v>0</v>
-      </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1"/>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C21" s="2">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E21" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F21" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>1099</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
       </c>
       <c r="K21" s="12">
         <v>0</v>
       </c>
       <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
         <v>1</v>
-      </c>
-      <c r="M21" s="12">
-        <v>0</v>
       </c>
       <c r="N21" s="14" t="s">
         <v>32</v>
@@ -2543,38 +2607,38 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C22" s="2">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E22" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F22" s="2">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>1099</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
       </c>
       <c r="K22" s="12">
         <v>0</v>
       </c>
       <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12">
         <v>1</v>
       </c>
-      <c r="M22" s="12">
-        <v>0</v>
-      </c>
       <c r="N22" s="14" t="s">
         <v>32</v>
       </c>
@@ -2582,54 +2646,63 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" customHeight="1"/>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C24" s="2">
-        <v>801</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="2">
-        <v>98</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1099</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>64</v>
-      </c>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C23" s="2">
+        <v>203</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="2">
+        <v>100</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12">
+        <v>1</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="8:15">
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
       <c r="K24" s="12">
         <v>0</v>
       </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="12">
-        <v>0</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>33</v>
-      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C25" s="2">
-        <v>802</v>
+        <v>301</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E25" s="2">
         <v>98</v>
@@ -2641,18 +2714,18 @@
         <v>1099</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="K25" s="12">
         <v>0</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="2">
         <v>1</v>
       </c>
       <c r="M25" s="12">
@@ -2667,34 +2740,34 @@
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C26" s="2">
-        <v>803</v>
+        <v>302</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2">
         <v>98</v>
       </c>
       <c r="F26" s="2">
-        <v>1000</v>
+        <v>1070</v>
       </c>
       <c r="G26" s="2">
         <v>1099</v>
       </c>
-      <c r="H26" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>72</v>
+      <c r="H26" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="K26" s="12">
         <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="12">
         <v>0</v>
@@ -2706,102 +2779,226 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="10:15">
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
+    <row r="27" s="2" customFormat="1" customHeight="1"/>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C28" s="2">
+        <v>801</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="2">
+        <v>98</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1099</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="12">
+        <v>0</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C29" s="2">
+        <v>802</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="2">
+        <v>98</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1099</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
+        <v>1</v>
+      </c>
+      <c r="M29" s="12">
+        <v>0</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C30" s="2">
+        <v>803</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="2">
+        <v>98</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1099</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="12">
+        <v>0</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="10:15">
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C33" s="2">
         <v>991</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="D33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="2">
         <v>99</v>
       </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
         <v>1</v>
       </c>
-      <c r="K29" s="12">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2">
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
         <v>1</v>
       </c>
-      <c r="N29" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" customHeight="1"/>
-    <row r="31" s="2" customFormat="1" customHeight="1"/>
-    <row r="32" s="2" customFormat="1" customHeight="1" spans="8:15">
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-    </row>
-    <row r="33" s="2" customFormat="1" customHeight="1" spans="8:15">
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-    </row>
-    <row r="34" s="2" customFormat="1" customHeight="1" spans="8:15">
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-    </row>
-    <row r="35" s="2" customFormat="1" customHeight="1" spans="8:15">
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
+      <c r="N33" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1"/>
+    <row r="35" s="2" customFormat="1" customHeight="1"/>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="8:15">
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="8:15">
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="8:15">
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="8:15">
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F29">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 C3 F3 G3 F4 G4 F5 G5 F25 C4:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 C3 F3 G3 F4 G4 F5 G5 F29 C4:C5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -2816,7 +3013,7 @@
   <sheetPr/>
   <dimension ref="C1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D40" sqref="D40:D44"/>
     </sheetView>
   </sheetViews>
@@ -2855,7 +3052,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2986,7 +3183,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -2998,7 +3195,7 @@
         <v>1051</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I6" s="2">
         <v>40000</v>
@@ -3022,7 +3219,7 @@
         <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3030,7 +3227,7 @@
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -3042,7 +3239,7 @@
         <v>1052</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I7" s="2">
         <v>40000</v>
@@ -3066,7 +3263,7 @@
         <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3074,7 +3271,7 @@
         <v>1002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -3086,7 +3283,7 @@
         <v>1053</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I8" s="2">
         <v>40000</v>
@@ -3110,7 +3307,7 @@
         <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3118,7 +3315,7 @@
         <v>1003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -3130,7 +3327,7 @@
         <v>1054</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I9" s="2">
         <v>40000</v>
@@ -3154,7 +3351,7 @@
         <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3162,7 +3359,7 @@
         <v>1004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -3174,7 +3371,7 @@
         <v>1055</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I10" s="2">
         <v>40000</v>
@@ -3198,7 +3395,7 @@
         <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3206,7 +3403,7 @@
         <v>1005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -3218,7 +3415,7 @@
         <v>1056</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="I11" s="2">
         <v>40000</v>
@@ -3242,7 +3439,7 @@
         <v>33</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3250,7 +3447,7 @@
         <v>1006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E12" s="2">
         <v>98</v>
@@ -3262,7 +3459,7 @@
         <v>1057</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="I12" s="2">
         <v>40000</v>
@@ -3286,7 +3483,7 @@
         <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3294,7 +3491,7 @@
         <v>1007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E13" s="2">
         <v>98</v>
@@ -3306,7 +3503,7 @@
         <v>1058</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="I13" s="2">
         <v>40000</v>
@@ -3330,7 +3527,7 @@
         <v>33</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3338,7 +3535,7 @@
         <v>1008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E14" s="2">
         <v>98</v>
@@ -3350,7 +3547,7 @@
         <v>1059</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="I14" s="2">
         <v>40000</v>
@@ -3374,7 +3571,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3382,7 +3579,7 @@
         <v>1009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
@@ -3394,7 +3591,7 @@
         <v>1060</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I15" s="2">
         <v>40000</v>
@@ -3418,7 +3615,7 @@
         <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3426,7 +3623,7 @@
         <v>1010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E16" s="2">
         <v>98</v>
@@ -3438,7 +3635,7 @@
         <v>1061</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="I16" s="2">
         <v>40000</v>
@@ -3462,7 +3659,7 @@
         <v>33</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3470,7 +3667,7 @@
         <v>1011</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E17" s="2">
         <v>98</v>
@@ -3482,7 +3679,7 @@
         <v>1062</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="I17" s="2">
         <v>40000</v>
@@ -3506,7 +3703,7 @@
         <v>33</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3514,7 +3711,7 @@
         <v>1012</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E18" s="2">
         <v>98</v>
@@ -3526,7 +3723,7 @@
         <v>1063</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="I18" s="2">
         <v>40000</v>
@@ -3550,7 +3747,7 @@
         <v>33</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3558,7 +3755,7 @@
         <v>1013</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E19" s="2">
         <v>98</v>
@@ -3570,7 +3767,7 @@
         <v>1064</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="I19" s="2">
         <v>40000</v>
@@ -3594,7 +3791,7 @@
         <v>33</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3602,7 +3799,7 @@
         <v>1014</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E20" s="2">
         <v>98</v>
@@ -3614,7 +3811,7 @@
         <v>1065</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="I20" s="2">
         <v>40000</v>
@@ -3638,7 +3835,7 @@
         <v>33</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3646,7 +3843,7 @@
         <v>1015</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E21" s="2">
         <v>98</v>
@@ -3658,7 +3855,7 @@
         <v>1066</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="I21" s="2">
         <v>40000</v>
@@ -3682,7 +3879,7 @@
         <v>33</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3690,7 +3887,7 @@
         <v>1016</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E22" s="2">
         <v>98</v>
@@ -3702,7 +3899,7 @@
         <v>1067</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I22" s="2">
         <v>40000</v>
@@ -3726,7 +3923,7 @@
         <v>33</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3734,7 +3931,7 @@
         <v>1017</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E23" s="2">
         <v>98</v>
@@ -3746,7 +3943,7 @@
         <v>1068</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="I23" s="2">
         <v>40000</v>
@@ -3770,7 +3967,7 @@
         <v>33</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3778,7 +3975,7 @@
         <v>1018</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E24" s="2">
         <v>98</v>
@@ -3790,7 +3987,7 @@
         <v>1069</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="I24" s="2">
         <v>40000</v>
@@ -3814,7 +4011,7 @@
         <v>33</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3822,7 +4019,7 @@
         <v>1019</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E25" s="2">
         <v>98</v>
@@ -3834,7 +4031,7 @@
         <v>1070</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="I25" s="2">
         <v>40000</v>
@@ -3858,7 +4055,7 @@
         <v>33</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3866,7 +4063,7 @@
         <v>1020</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E26" s="2">
         <v>98</v>
@@ -3878,7 +4075,7 @@
         <v>1071</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="I26" s="2">
         <v>40000</v>
@@ -3902,7 +4099,7 @@
         <v>33</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3910,7 +4107,7 @@
         <v>1021</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E27" s="2">
         <v>98</v>
@@ -3922,7 +4119,7 @@
         <v>1072</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="I27" s="2">
         <v>40000</v>
@@ -3946,7 +4143,7 @@
         <v>33</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3954,7 +4151,7 @@
         <v>1022</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E28" s="2">
         <v>98</v>
@@ -3966,7 +4163,7 @@
         <v>1073</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="I28" s="2">
         <v>40000</v>
@@ -3990,7 +4187,7 @@
         <v>33</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:16">
@@ -3998,7 +4195,7 @@
         <v>1023</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E29" s="2">
         <v>98</v>
@@ -4010,7 +4207,7 @@
         <v>1074</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="I29" s="2">
         <v>40000</v>
@@ -4034,7 +4231,7 @@
         <v>33</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4042,7 +4239,7 @@
         <v>1024</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E30" s="2">
         <v>98</v>
@@ -4054,7 +4251,7 @@
         <v>1075</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -4078,7 +4275,7 @@
         <v>33</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4086,7 +4283,7 @@
         <v>1025</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E31" s="2">
         <v>98</v>
@@ -4098,7 +4295,7 @@
         <v>1076</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
@@ -4122,7 +4319,7 @@
         <v>33</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4130,7 +4327,7 @@
         <v>1026</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E32" s="2">
         <v>98</v>
@@ -4142,7 +4339,7 @@
         <v>1077</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -4166,7 +4363,7 @@
         <v>33</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4174,7 +4371,7 @@
         <v>1027</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E33" s="2">
         <v>98</v>
@@ -4186,7 +4383,7 @@
         <v>1078</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -4210,7 +4407,7 @@
         <v>33</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:16">
@@ -4218,7 +4415,7 @@
         <v>1028</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E34" s="2">
         <v>98</v>
@@ -4230,7 +4427,7 @@
         <v>1079</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
@@ -4254,7 +4451,7 @@
         <v>33</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:16">
@@ -4262,7 +4459,7 @@
         <v>1029</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E35" s="2">
         <v>98</v>
@@ -4274,7 +4471,7 @@
         <v>1080</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -4298,7 +4495,7 @@
         <v>33</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:16">
@@ -4306,7 +4503,7 @@
         <v>1030</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E36" s="2">
         <v>98</v>
@@ -4318,7 +4515,7 @@
         <v>1081</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -4342,7 +4539,7 @@
         <v>33</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:16">
@@ -4350,7 +4547,7 @@
         <v>1031</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E37" s="2">
         <v>98</v>
@@ -4362,7 +4559,7 @@
         <v>1082</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
@@ -4386,7 +4583,7 @@
         <v>33</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:16">
@@ -4394,7 +4591,7 @@
         <v>1032</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E38" s="2">
         <v>98</v>
@@ -4406,7 +4603,7 @@
         <v>1083</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -4430,7 +4627,7 @@
         <v>33</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:16">
@@ -4438,7 +4635,7 @@
         <v>1033</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E39" s="2">
         <v>98</v>
@@ -4450,7 +4647,7 @@
         <v>1084</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -4474,7 +4671,7 @@
         <v>33</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:16">
@@ -4482,7 +4679,7 @@
         <v>1034</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E40" s="2">
         <v>98</v>
@@ -4494,7 +4691,7 @@
         <v>1085</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
@@ -4518,7 +4715,7 @@
         <v>33</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:16">
@@ -4526,7 +4723,7 @@
         <v>1035</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E41" s="2">
         <v>98</v>
@@ -4538,7 +4735,7 @@
         <v>1086</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
@@ -4562,7 +4759,7 @@
         <v>33</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:16">
@@ -4570,7 +4767,7 @@
         <v>1036</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E42" s="2">
         <v>98</v>
@@ -4582,7 +4779,7 @@
         <v>1087</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
@@ -4606,7 +4803,7 @@
         <v>33</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:16">
@@ -4614,7 +4811,7 @@
         <v>1037</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E43" s="2">
         <v>98</v>
@@ -4626,7 +4823,7 @@
         <v>1088</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="I43" s="2">
         <v>0</v>
@@ -4650,7 +4847,7 @@
         <v>33</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:16">
@@ -4658,7 +4855,7 @@
         <v>1038</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E44" s="2">
         <v>98</v>
@@ -4670,7 +4867,7 @@
         <v>1089</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="I44" s="2">
         <v>0</v>
@@ -4694,7 +4891,7 @@
         <v>33</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4881,7 +5078,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -4893,7 +5090,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -4922,7 +5119,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -4934,7 +5131,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -4963,7 +5160,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -4975,7 +5172,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -5004,7 +5201,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -5016,7 +5213,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -5045,7 +5242,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -5057,7 +5254,7 @@
         <v>1074</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>
@@ -5086,7 +5283,7 @@
         <v>2005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -5098,7 +5295,7 @@
         <v>1099</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -331,7 +331,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>清明活动</t>
+    <t>暑假活动</t>
   </si>
   <si>
     <t>1005</t>
@@ -340,10 +340,10 @@
     <t>50</t>
   </si>
   <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>2024-06-11</t>
+    <t>2024-06-26</t>
+  </si>
+  <si>
+    <t>2024-07-07</t>
   </si>
   <si>
     <t>第一批白图鉴</t>
@@ -1869,7 +1869,7 @@
   <dimension ref="C1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -340,10 +340,10 @@
     <t>50</t>
   </si>
   <si>
-    <t>2024-06-26</t>
-  </si>
-  <si>
-    <t>2024-07-07</t>
+    <t>2024-06-30</t>
+  </si>
+  <si>
+    <t>2024-07-05</t>
   </si>
   <si>
     <t>第一批白图鉴</t>
@@ -1043,12 +1043,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1869,7 +1869,7 @@
   <dimension ref="C1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -343,7 +343,7 @@
     <t>2024-06-30</t>
   </si>
   <si>
-    <t>2024-07-05</t>
+    <t>2024-07-06</t>
   </si>
   <si>
     <t>第一批白图鉴</t>
@@ -1043,12 +1043,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="195">
   <si>
     <t>_id</t>
   </si>
@@ -439,76 +439,79 @@
     <t>2019</t>
   </si>
   <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>第三批蓝图鉴</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>第三批紫图鉴</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>16000</t>
+  </si>
+  <si>
+    <t>守沙100书页</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>守沙图鉴</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>守沙时装</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>第一时装</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>第二时装</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>专属之心</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>冠名图鉴</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>龙之图鉴</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
     <t>80000</t>
-  </si>
-  <si>
-    <t>第三批蓝图鉴</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>第三批紫图鉴</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>16000</t>
-  </si>
-  <si>
-    <t>守沙100书页</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>守沙图鉴</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>守沙时装</t>
-  </si>
-  <si>
-    <t>3001</t>
-  </si>
-  <si>
-    <t>第一时装</t>
-  </si>
-  <si>
-    <t>150000</t>
-  </si>
-  <si>
-    <t>第二时装</t>
-  </si>
-  <si>
-    <t>3002</t>
-  </si>
-  <si>
-    <t>专属之心</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>冠名图鉴</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>龙之图鉴</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>40000</t>
   </si>
   <si>
     <t>镜像挑战</t>
@@ -1043,12 +1046,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1869,7 +1872,7 @@
   <dimension ref="C1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2885,7 +2888,7 @@
         <v>83</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="K30" s="12">
         <v>0</v>
@@ -2915,7 +2918,7 @@
         <v>991</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E33" s="2">
         <v>99</v>
@@ -2927,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I33" s="12">
         <v>0</v>
@@ -3052,7 +3055,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -3183,7 +3186,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -3195,7 +3198,7 @@
         <v>1051</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2">
         <v>40000</v>
@@ -3219,7 +3222,7 @@
         <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3227,7 +3230,7 @@
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -3239,7 +3242,7 @@
         <v>1052</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I7" s="2">
         <v>40000</v>
@@ -3263,7 +3266,7 @@
         <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3271,7 +3274,7 @@
         <v>1002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -3283,7 +3286,7 @@
         <v>1053</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I8" s="2">
         <v>40000</v>
@@ -3307,7 +3310,7 @@
         <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3315,7 +3318,7 @@
         <v>1003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -3327,7 +3330,7 @@
         <v>1054</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I9" s="2">
         <v>40000</v>
@@ -3351,7 +3354,7 @@
         <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3359,7 +3362,7 @@
         <v>1004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -3371,7 +3374,7 @@
         <v>1055</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I10" s="2">
         <v>40000</v>
@@ -3395,7 +3398,7 @@
         <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3403,7 +3406,7 @@
         <v>1005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -3415,7 +3418,7 @@
         <v>1056</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I11" s="2">
         <v>40000</v>
@@ -3439,7 +3442,7 @@
         <v>33</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3447,7 +3450,7 @@
         <v>1006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E12" s="2">
         <v>98</v>
@@ -3459,7 +3462,7 @@
         <v>1057</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I12" s="2">
         <v>40000</v>
@@ -3483,7 +3486,7 @@
         <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3491,7 +3494,7 @@
         <v>1007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E13" s="2">
         <v>98</v>
@@ -3503,7 +3506,7 @@
         <v>1058</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I13" s="2">
         <v>40000</v>
@@ -3527,7 +3530,7 @@
         <v>33</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3535,7 +3538,7 @@
         <v>1008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E14" s="2">
         <v>98</v>
@@ -3547,7 +3550,7 @@
         <v>1059</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I14" s="2">
         <v>40000</v>
@@ -3571,7 +3574,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3579,7 +3582,7 @@
         <v>1009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
@@ -3591,7 +3594,7 @@
         <v>1060</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I15" s="2">
         <v>40000</v>
@@ -3615,7 +3618,7 @@
         <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3623,7 +3626,7 @@
         <v>1010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E16" s="2">
         <v>98</v>
@@ -3635,7 +3638,7 @@
         <v>1061</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I16" s="2">
         <v>40000</v>
@@ -3659,7 +3662,7 @@
         <v>33</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3667,7 +3670,7 @@
         <v>1011</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E17" s="2">
         <v>98</v>
@@ -3679,7 +3682,7 @@
         <v>1062</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I17" s="2">
         <v>40000</v>
@@ -3703,7 +3706,7 @@
         <v>33</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3711,7 +3714,7 @@
         <v>1012</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E18" s="2">
         <v>98</v>
@@ -3723,7 +3726,7 @@
         <v>1063</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I18" s="2">
         <v>40000</v>
@@ -3747,7 +3750,7 @@
         <v>33</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3755,7 +3758,7 @@
         <v>1013</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E19" s="2">
         <v>98</v>
@@ -3767,7 +3770,7 @@
         <v>1064</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I19" s="2">
         <v>40000</v>
@@ -3791,7 +3794,7 @@
         <v>33</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3799,7 +3802,7 @@
         <v>1014</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E20" s="2">
         <v>98</v>
@@ -3811,7 +3814,7 @@
         <v>1065</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I20" s="2">
         <v>40000</v>
@@ -3835,7 +3838,7 @@
         <v>33</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3843,7 +3846,7 @@
         <v>1015</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E21" s="2">
         <v>98</v>
@@ -3855,7 +3858,7 @@
         <v>1066</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I21" s="2">
         <v>40000</v>
@@ -3879,7 +3882,7 @@
         <v>33</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3887,7 +3890,7 @@
         <v>1016</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E22" s="2">
         <v>98</v>
@@ -3899,7 +3902,7 @@
         <v>1067</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I22" s="2">
         <v>40000</v>
@@ -3923,7 +3926,7 @@
         <v>33</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3931,7 +3934,7 @@
         <v>1017</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E23" s="2">
         <v>98</v>
@@ -3943,7 +3946,7 @@
         <v>1068</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I23" s="2">
         <v>40000</v>
@@ -3967,7 +3970,7 @@
         <v>33</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3975,7 +3978,7 @@
         <v>1018</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E24" s="2">
         <v>98</v>
@@ -3987,7 +3990,7 @@
         <v>1069</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I24" s="2">
         <v>40000</v>
@@ -4011,7 +4014,7 @@
         <v>33</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4019,7 +4022,7 @@
         <v>1019</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E25" s="2">
         <v>98</v>
@@ -4031,7 +4034,7 @@
         <v>1070</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I25" s="2">
         <v>40000</v>
@@ -4055,7 +4058,7 @@
         <v>33</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4063,7 +4066,7 @@
         <v>1020</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E26" s="2">
         <v>98</v>
@@ -4075,7 +4078,7 @@
         <v>1071</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I26" s="2">
         <v>40000</v>
@@ -4099,7 +4102,7 @@
         <v>33</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4107,7 +4110,7 @@
         <v>1021</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E27" s="2">
         <v>98</v>
@@ -4119,7 +4122,7 @@
         <v>1072</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I27" s="2">
         <v>40000</v>
@@ -4143,7 +4146,7 @@
         <v>33</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4151,7 +4154,7 @@
         <v>1022</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E28" s="2">
         <v>98</v>
@@ -4163,7 +4166,7 @@
         <v>1073</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I28" s="2">
         <v>40000</v>
@@ -4187,7 +4190,7 @@
         <v>33</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:16">
@@ -4195,7 +4198,7 @@
         <v>1023</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E29" s="2">
         <v>98</v>
@@ -4207,7 +4210,7 @@
         <v>1074</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I29" s="2">
         <v>40000</v>
@@ -4231,7 +4234,7 @@
         <v>33</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4239,7 +4242,7 @@
         <v>1024</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E30" s="2">
         <v>98</v>
@@ -4251,7 +4254,7 @@
         <v>1075</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -4275,7 +4278,7 @@
         <v>33</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4283,7 +4286,7 @@
         <v>1025</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E31" s="2">
         <v>98</v>
@@ -4295,7 +4298,7 @@
         <v>1076</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
@@ -4319,7 +4322,7 @@
         <v>33</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4327,7 +4330,7 @@
         <v>1026</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E32" s="2">
         <v>98</v>
@@ -4339,7 +4342,7 @@
         <v>1077</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -4363,7 +4366,7 @@
         <v>33</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4371,7 +4374,7 @@
         <v>1027</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E33" s="2">
         <v>98</v>
@@ -4383,7 +4386,7 @@
         <v>1078</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -4407,7 +4410,7 @@
         <v>33</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:16">
@@ -4415,7 +4418,7 @@
         <v>1028</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E34" s="2">
         <v>98</v>
@@ -4427,7 +4430,7 @@
         <v>1079</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
@@ -4451,7 +4454,7 @@
         <v>33</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:16">
@@ -4459,7 +4462,7 @@
         <v>1029</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E35" s="2">
         <v>98</v>
@@ -4471,7 +4474,7 @@
         <v>1080</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -4495,7 +4498,7 @@
         <v>33</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:16">
@@ -4503,7 +4506,7 @@
         <v>1030</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E36" s="2">
         <v>98</v>
@@ -4515,7 +4518,7 @@
         <v>1081</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -4539,7 +4542,7 @@
         <v>33</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:16">
@@ -4547,7 +4550,7 @@
         <v>1031</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E37" s="2">
         <v>98</v>
@@ -4559,7 +4562,7 @@
         <v>1082</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
@@ -4583,7 +4586,7 @@
         <v>33</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:16">
@@ -4591,7 +4594,7 @@
         <v>1032</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E38" s="2">
         <v>98</v>
@@ -4603,7 +4606,7 @@
         <v>1083</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -4627,7 +4630,7 @@
         <v>33</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:16">
@@ -4635,7 +4638,7 @@
         <v>1033</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E39" s="2">
         <v>98</v>
@@ -4647,7 +4650,7 @@
         <v>1084</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -4671,7 +4674,7 @@
         <v>33</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:16">
@@ -4679,7 +4682,7 @@
         <v>1034</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E40" s="2">
         <v>98</v>
@@ -4691,7 +4694,7 @@
         <v>1085</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
@@ -4715,7 +4718,7 @@
         <v>33</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:16">
@@ -4723,7 +4726,7 @@
         <v>1035</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E41" s="2">
         <v>98</v>
@@ -4735,7 +4738,7 @@
         <v>1086</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
@@ -4759,7 +4762,7 @@
         <v>33</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:16">
@@ -4767,7 +4770,7 @@
         <v>1036</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E42" s="2">
         <v>98</v>
@@ -4779,7 +4782,7 @@
         <v>1087</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
@@ -4803,7 +4806,7 @@
         <v>33</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:16">
@@ -4811,7 +4814,7 @@
         <v>1037</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E43" s="2">
         <v>98</v>
@@ -4823,7 +4826,7 @@
         <v>1088</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I43" s="2">
         <v>0</v>
@@ -4847,7 +4850,7 @@
         <v>33</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:16">
@@ -4855,7 +4858,7 @@
         <v>1038</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E44" s="2">
         <v>98</v>
@@ -4867,7 +4870,7 @@
         <v>1089</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I44" s="2">
         <v>0</v>
@@ -4891,7 +4894,7 @@
         <v>33</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5078,7 +5081,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -5090,7 +5093,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -5119,7 +5122,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -5131,7 +5134,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -5160,7 +5163,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -5172,7 +5175,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -5201,7 +5204,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -5213,7 +5216,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -5242,7 +5245,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -5254,7 +5257,7 @@
         <v>1074</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>
@@ -5283,7 +5286,7 @@
         <v>2005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -5295,7 +5298,7 @@
         <v>1099</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -331,7 +331,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>暑假活动</t>
+    <t>周年活动</t>
   </si>
   <si>
     <t>1005</t>
@@ -340,10 +340,10 @@
     <t>50</t>
   </si>
   <si>
-    <t>2024-06-30</t>
-  </si>
-  <si>
-    <t>2024-07-06</t>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
   </si>
   <si>
     <t>第一批白图鉴</t>
@@ -1871,8 +1871,8 @@
   <sheetPr/>
   <dimension ref="C1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="205">
   <si>
     <t>_id</t>
   </si>
@@ -812,6 +812,36 @@
   </si>
   <si>
     <t>1400038</t>
+  </si>
+  <si>
+    <t>噩梦宝甲</t>
+  </si>
+  <si>
+    <t>1400039</t>
+  </si>
+  <si>
+    <t>噩梦号角</t>
+  </si>
+  <si>
+    <t>1400040</t>
+  </si>
+  <si>
+    <t>噩梦雕像</t>
+  </si>
+  <si>
+    <t>1400041</t>
+  </si>
+  <si>
+    <t>噩梦权杖</t>
+  </si>
+  <si>
+    <t>1400042</t>
+  </si>
+  <si>
+    <t>噩梦獠牙</t>
+  </si>
+  <si>
+    <t>1400043</t>
   </si>
   <si>
     <t>武器衣服红装</t>
@@ -1046,12 +1076,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1871,7 +1901,7 @@
   <sheetPr/>
   <dimension ref="C1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D10" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -3014,10 +3044,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:P44"/>
+  <dimension ref="C1:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:D44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -4894,6 +4924,226 @@
         <v>33</v>
       </c>
       <c r="P44" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:16">
+      <c r="C45" s="2">
+        <v>1039</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="2">
+        <v>98</v>
+      </c>
+      <c r="F45" s="8">
+        <v>1090</v>
+      </c>
+      <c r="G45" s="8">
+        <v>1090</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O45" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:16">
+      <c r="C46" s="2">
+        <v>1040</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" s="2">
+        <v>98</v>
+      </c>
+      <c r="F46" s="8">
+        <v>1091</v>
+      </c>
+      <c r="G46" s="8">
+        <v>1091</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O46" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:16">
+      <c r="C47" s="2">
+        <v>1041</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="2">
+        <v>98</v>
+      </c>
+      <c r="F47" s="8">
+        <v>1092</v>
+      </c>
+      <c r="G47" s="8">
+        <v>1092</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:16">
+      <c r="C48" s="2">
+        <v>1042</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="2">
+        <v>98</v>
+      </c>
+      <c r="F48" s="8">
+        <v>1093</v>
+      </c>
+      <c r="G48" s="8">
+        <v>1093</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:16">
+      <c r="C49" s="2">
+        <v>1043</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" s="2">
+        <v>98</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1094</v>
+      </c>
+      <c r="G49" s="8">
+        <v>1094</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P49" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5081,7 +5331,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -5093,7 +5343,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -5122,7 +5372,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -5134,7 +5384,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -5163,7 +5413,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -5175,7 +5425,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -5204,7 +5454,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -5216,7 +5466,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -5245,7 +5495,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -5257,7 +5507,7 @@
         <v>1074</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>
@@ -5286,7 +5536,7 @@
         <v>2005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -5298,7 +5548,7 @@
         <v>1099</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -340,7 +340,7 @@
     <t>50</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-01</t>
   </si>
   <si>
     <t>2024-08-11</t>
@@ -1901,7 +1901,7 @@
   <sheetPr/>
   <dimension ref="C1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -3046,7 +3046,7 @@
   <sheetPr/>
   <dimension ref="C1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="207">
   <si>
     <t>_id</t>
   </si>
@@ -518,6 +518,12 @@
   </si>
   <si>
     <t>1003</t>
+  </si>
+  <si>
+    <t>幻境十层</t>
+  </si>
+  <si>
+    <t>1008</t>
   </si>
   <si>
     <t>#</t>
@@ -1901,8 +1907,8 @@
   <sheetPr/>
   <dimension ref="C1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2984,7 +2990,47 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" customHeight="1"/>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C34" s="2">
+        <v>992</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="2">
+        <v>101</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="35" s="2" customFormat="1" customHeight="1"/>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="8:15">
       <c r="H36" s="10"/>
@@ -3085,7 +3131,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -3216,7 +3262,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -3228,7 +3274,7 @@
         <v>1051</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I6" s="2">
         <v>40000</v>
@@ -3252,7 +3298,7 @@
         <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3260,7 +3306,7 @@
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -3272,7 +3318,7 @@
         <v>1052</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I7" s="2">
         <v>40000</v>
@@ -3296,7 +3342,7 @@
         <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3304,7 +3350,7 @@
         <v>1002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -3316,7 +3362,7 @@
         <v>1053</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I8" s="2">
         <v>40000</v>
@@ -3340,7 +3386,7 @@
         <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3348,7 +3394,7 @@
         <v>1003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -3360,7 +3406,7 @@
         <v>1054</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I9" s="2">
         <v>40000</v>
@@ -3384,7 +3430,7 @@
         <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3392,7 +3438,7 @@
         <v>1004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -3404,7 +3450,7 @@
         <v>1055</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I10" s="2">
         <v>40000</v>
@@ -3428,7 +3474,7 @@
         <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3436,7 +3482,7 @@
         <v>1005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -3448,7 +3494,7 @@
         <v>1056</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I11" s="2">
         <v>40000</v>
@@ -3472,7 +3518,7 @@
         <v>33</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3480,7 +3526,7 @@
         <v>1006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E12" s="2">
         <v>98</v>
@@ -3492,7 +3538,7 @@
         <v>1057</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I12" s="2">
         <v>40000</v>
@@ -3516,7 +3562,7 @@
         <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3524,7 +3570,7 @@
         <v>1007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E13" s="2">
         <v>98</v>
@@ -3536,7 +3582,7 @@
         <v>1058</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I13" s="2">
         <v>40000</v>
@@ -3560,7 +3606,7 @@
         <v>33</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3568,7 +3614,7 @@
         <v>1008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E14" s="2">
         <v>98</v>
@@ -3580,7 +3626,7 @@
         <v>1059</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I14" s="2">
         <v>40000</v>
@@ -3604,7 +3650,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3612,7 +3658,7 @@
         <v>1009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
@@ -3624,7 +3670,7 @@
         <v>1060</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I15" s="2">
         <v>40000</v>
@@ -3648,7 +3694,7 @@
         <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3656,7 +3702,7 @@
         <v>1010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E16" s="2">
         <v>98</v>
@@ -3668,7 +3714,7 @@
         <v>1061</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I16" s="2">
         <v>40000</v>
@@ -3692,7 +3738,7 @@
         <v>33</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3700,7 +3746,7 @@
         <v>1011</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E17" s="2">
         <v>98</v>
@@ -3712,7 +3758,7 @@
         <v>1062</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I17" s="2">
         <v>40000</v>
@@ -3736,7 +3782,7 @@
         <v>33</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3744,7 +3790,7 @@
         <v>1012</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E18" s="2">
         <v>98</v>
@@ -3756,7 +3802,7 @@
         <v>1063</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I18" s="2">
         <v>40000</v>
@@ -3780,7 +3826,7 @@
         <v>33</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3788,7 +3834,7 @@
         <v>1013</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E19" s="2">
         <v>98</v>
@@ -3800,7 +3846,7 @@
         <v>1064</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I19" s="2">
         <v>40000</v>
@@ -3824,7 +3870,7 @@
         <v>33</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3832,7 +3878,7 @@
         <v>1014</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E20" s="2">
         <v>98</v>
@@ -3844,7 +3890,7 @@
         <v>1065</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I20" s="2">
         <v>40000</v>
@@ -3868,7 +3914,7 @@
         <v>33</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3876,7 +3922,7 @@
         <v>1015</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2">
         <v>98</v>
@@ -3888,7 +3934,7 @@
         <v>1066</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I21" s="2">
         <v>40000</v>
@@ -3912,7 +3958,7 @@
         <v>33</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3920,7 +3966,7 @@
         <v>1016</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E22" s="2">
         <v>98</v>
@@ -3932,7 +3978,7 @@
         <v>1067</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I22" s="2">
         <v>40000</v>
@@ -3956,7 +4002,7 @@
         <v>33</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3964,7 +4010,7 @@
         <v>1017</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E23" s="2">
         <v>98</v>
@@ -3976,7 +4022,7 @@
         <v>1068</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I23" s="2">
         <v>40000</v>
@@ -4000,7 +4046,7 @@
         <v>33</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4008,7 +4054,7 @@
         <v>1018</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E24" s="2">
         <v>98</v>
@@ -4020,7 +4066,7 @@
         <v>1069</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I24" s="2">
         <v>40000</v>
@@ -4044,7 +4090,7 @@
         <v>33</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4052,7 +4098,7 @@
         <v>1019</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E25" s="2">
         <v>98</v>
@@ -4064,7 +4110,7 @@
         <v>1070</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I25" s="2">
         <v>40000</v>
@@ -4088,7 +4134,7 @@
         <v>33</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4096,7 +4142,7 @@
         <v>1020</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E26" s="2">
         <v>98</v>
@@ -4108,7 +4154,7 @@
         <v>1071</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I26" s="2">
         <v>40000</v>
@@ -4132,7 +4178,7 @@
         <v>33</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4140,7 +4186,7 @@
         <v>1021</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E27" s="2">
         <v>98</v>
@@ -4152,7 +4198,7 @@
         <v>1072</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I27" s="2">
         <v>40000</v>
@@ -4176,7 +4222,7 @@
         <v>33</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4184,7 +4230,7 @@
         <v>1022</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E28" s="2">
         <v>98</v>
@@ -4196,7 +4242,7 @@
         <v>1073</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I28" s="2">
         <v>40000</v>
@@ -4220,7 +4266,7 @@
         <v>33</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:16">
@@ -4228,7 +4274,7 @@
         <v>1023</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E29" s="2">
         <v>98</v>
@@ -4240,7 +4286,7 @@
         <v>1074</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I29" s="2">
         <v>40000</v>
@@ -4264,7 +4310,7 @@
         <v>33</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4272,7 +4318,7 @@
         <v>1024</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E30" s="2">
         <v>98</v>
@@ -4284,7 +4330,7 @@
         <v>1075</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -4308,7 +4354,7 @@
         <v>33</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4316,7 +4362,7 @@
         <v>1025</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E31" s="2">
         <v>98</v>
@@ -4328,7 +4374,7 @@
         <v>1076</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
@@ -4352,7 +4398,7 @@
         <v>33</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4360,7 +4406,7 @@
         <v>1026</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E32" s="2">
         <v>98</v>
@@ -4372,7 +4418,7 @@
         <v>1077</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -4396,7 +4442,7 @@
         <v>33</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4404,7 +4450,7 @@
         <v>1027</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E33" s="2">
         <v>98</v>
@@ -4416,7 +4462,7 @@
         <v>1078</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -4440,7 +4486,7 @@
         <v>33</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:16">
@@ -4448,7 +4494,7 @@
         <v>1028</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E34" s="2">
         <v>98</v>
@@ -4460,7 +4506,7 @@
         <v>1079</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
@@ -4484,7 +4530,7 @@
         <v>33</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:16">
@@ -4492,7 +4538,7 @@
         <v>1029</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E35" s="2">
         <v>98</v>
@@ -4504,7 +4550,7 @@
         <v>1080</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -4528,7 +4574,7 @@
         <v>33</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:16">
@@ -4536,7 +4582,7 @@
         <v>1030</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E36" s="2">
         <v>98</v>
@@ -4548,7 +4594,7 @@
         <v>1081</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -4572,7 +4618,7 @@
         <v>33</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:16">
@@ -4580,7 +4626,7 @@
         <v>1031</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E37" s="2">
         <v>98</v>
@@ -4592,7 +4638,7 @@
         <v>1082</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
@@ -4616,7 +4662,7 @@
         <v>33</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:16">
@@ -4624,7 +4670,7 @@
         <v>1032</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E38" s="2">
         <v>98</v>
@@ -4636,7 +4682,7 @@
         <v>1083</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -4660,7 +4706,7 @@
         <v>33</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:16">
@@ -4668,7 +4714,7 @@
         <v>1033</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E39" s="2">
         <v>98</v>
@@ -4680,7 +4726,7 @@
         <v>1084</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -4704,7 +4750,7 @@
         <v>33</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:16">
@@ -4712,7 +4758,7 @@
         <v>1034</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E40" s="2">
         <v>98</v>
@@ -4724,7 +4770,7 @@
         <v>1085</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
@@ -4748,7 +4794,7 @@
         <v>33</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:16">
@@ -4756,7 +4802,7 @@
         <v>1035</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E41" s="2">
         <v>98</v>
@@ -4768,7 +4814,7 @@
         <v>1086</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
@@ -4792,7 +4838,7 @@
         <v>33</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:16">
@@ -4800,7 +4846,7 @@
         <v>1036</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E42" s="2">
         <v>98</v>
@@ -4812,7 +4858,7 @@
         <v>1087</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
@@ -4836,7 +4882,7 @@
         <v>33</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:16">
@@ -4844,7 +4890,7 @@
         <v>1037</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E43" s="2">
         <v>98</v>
@@ -4856,7 +4902,7 @@
         <v>1088</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I43" s="2">
         <v>0</v>
@@ -4880,7 +4926,7 @@
         <v>33</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:16">
@@ -4888,7 +4934,7 @@
         <v>1038</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E44" s="2">
         <v>98</v>
@@ -4900,7 +4946,7 @@
         <v>1089</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I44" s="2">
         <v>0</v>
@@ -4924,7 +4970,7 @@
         <v>33</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:16">
@@ -4932,7 +4978,7 @@
         <v>1039</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E45" s="2">
         <v>98</v>
@@ -4944,7 +4990,7 @@
         <v>1090</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I45" s="2">
         <v>0</v>
@@ -4968,7 +5014,7 @@
         <v>33</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:16">
@@ -4976,7 +5022,7 @@
         <v>1040</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E46" s="2">
         <v>98</v>
@@ -4988,7 +5034,7 @@
         <v>1091</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I46" s="2">
         <v>0</v>
@@ -5012,7 +5058,7 @@
         <v>33</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:16">
@@ -5020,7 +5066,7 @@
         <v>1041</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E47" s="2">
         <v>98</v>
@@ -5032,7 +5078,7 @@
         <v>1092</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
@@ -5056,7 +5102,7 @@
         <v>33</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:16">
@@ -5064,7 +5110,7 @@
         <v>1042</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E48" s="2">
         <v>98</v>
@@ -5076,7 +5122,7 @@
         <v>1093</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I48" s="2">
         <v>0</v>
@@ -5100,7 +5146,7 @@
         <v>33</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:16">
@@ -5108,7 +5154,7 @@
         <v>1043</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E49" s="2">
         <v>98</v>
@@ -5120,7 +5166,7 @@
         <v>1094</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
@@ -5144,7 +5190,7 @@
         <v>33</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5331,7 +5377,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -5343,7 +5389,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -5372,7 +5418,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -5384,7 +5430,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -5413,7 +5459,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -5425,7 +5471,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -5454,7 +5500,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -5466,7 +5512,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -5495,7 +5541,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -5507,7 +5553,7 @@
         <v>1074</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>
@@ -5536,7 +5582,7 @@
         <v>2005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -5548,7 +5594,7 @@
         <v>1099</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="209">
   <si>
     <t>_id</t>
   </si>
@@ -493,6 +493,9 @@
     <t>1004</t>
   </si>
   <si>
+    <t>50000</t>
+  </si>
+  <si>
     <t>冠名图鉴</t>
   </si>
   <si>
@@ -502,16 +505,19 @@
     <t>30000</t>
   </si>
   <si>
+    <t>70000</t>
+  </si>
+  <si>
     <t>龙之图鉴</t>
   </si>
   <si>
     <t>2006</t>
   </si>
   <si>
-    <t>40000</t>
-  </si>
-  <si>
     <t>80000</t>
+  </si>
+  <si>
+    <t>200000</t>
   </si>
   <si>
     <t>镜像挑战</t>
@@ -1907,8 +1913,8 @@
   <sheetPr/>
   <dimension ref="C1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2839,13 +2845,13 @@
         <v>77</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K28" s="12">
-        <v>0</v>
+      <c r="K28" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
@@ -2865,7 +2871,7 @@
         <v>802</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E29" s="2">
         <v>98</v>
@@ -2877,16 +2883,16 @@
         <v>1099</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>45</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K29" s="12">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="L29" s="12">
         <v>1</v>
@@ -2906,7 +2912,7 @@
         <v>803</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E30" s="2">
         <v>98</v>
@@ -2918,16 +2924,16 @@
         <v>1099</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="K30" s="12">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -2954,7 +2960,7 @@
         <v>991</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E33" s="2">
         <v>99</v>
@@ -2966,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I33" s="12">
         <v>0</v>
@@ -2995,7 +3001,7 @@
         <v>992</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E34" s="2">
         <v>101</v>
@@ -3007,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I34" s="12">
         <v>0</v>
@@ -3077,7 +3083,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 C3 F3 G3 F4 G4 F5 G5 F29 C4:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:G3 F29 C2:C5 F4:G5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -3092,8 +3098,8 @@
   <sheetPr/>
   <dimension ref="C1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -3131,7 +3137,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -3262,7 +3268,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -3274,7 +3280,7 @@
         <v>1051</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I6" s="2">
         <v>40000</v>
@@ -3283,7 +3289,7 @@
         <v>60000</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -3298,7 +3304,7 @@
         <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3306,7 +3312,7 @@
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -3318,7 +3324,7 @@
         <v>1052</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I7" s="2">
         <v>40000</v>
@@ -3327,7 +3333,7 @@
         <v>60000</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -3342,7 +3348,7 @@
         <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3350,7 +3356,7 @@
         <v>1002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -3362,7 +3368,7 @@
         <v>1053</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I8" s="2">
         <v>40000</v>
@@ -3371,7 +3377,7 @@
         <v>60000</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -3386,7 +3392,7 @@
         <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3394,7 +3400,7 @@
         <v>1003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -3406,7 +3412,7 @@
         <v>1054</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I9" s="2">
         <v>40000</v>
@@ -3415,7 +3421,7 @@
         <v>60000</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -3430,7 +3436,7 @@
         <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3438,7 +3444,7 @@
         <v>1004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -3450,7 +3456,7 @@
         <v>1055</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I10" s="2">
         <v>40000</v>
@@ -3459,7 +3465,7 @@
         <v>60000</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -3474,7 +3480,7 @@
         <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3482,7 +3488,7 @@
         <v>1005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -3494,7 +3500,7 @@
         <v>1056</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I11" s="2">
         <v>40000</v>
@@ -3503,7 +3509,7 @@
         <v>60000</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -3518,7 +3524,7 @@
         <v>33</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3526,7 +3532,7 @@
         <v>1006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E12" s="2">
         <v>98</v>
@@ -3538,7 +3544,7 @@
         <v>1057</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I12" s="2">
         <v>40000</v>
@@ -3547,7 +3553,7 @@
         <v>60000</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
@@ -3562,7 +3568,7 @@
         <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3570,7 +3576,7 @@
         <v>1007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E13" s="2">
         <v>98</v>
@@ -3582,7 +3588,7 @@
         <v>1058</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I13" s="2">
         <v>40000</v>
@@ -3591,7 +3597,7 @@
         <v>60000</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -3606,7 +3612,7 @@
         <v>33</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3614,7 +3620,7 @@
         <v>1008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E14" s="2">
         <v>98</v>
@@ -3626,7 +3632,7 @@
         <v>1059</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I14" s="2">
         <v>40000</v>
@@ -3635,7 +3641,7 @@
         <v>60000</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -3650,7 +3656,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3658,7 +3664,7 @@
         <v>1009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
@@ -3670,7 +3676,7 @@
         <v>1060</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I15" s="2">
         <v>40000</v>
@@ -3679,7 +3685,7 @@
         <v>60000</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -3694,7 +3700,7 @@
         <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3702,7 +3708,7 @@
         <v>1010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E16" s="2">
         <v>98</v>
@@ -3714,7 +3720,7 @@
         <v>1061</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I16" s="2">
         <v>40000</v>
@@ -3723,7 +3729,7 @@
         <v>60000</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -3738,7 +3744,7 @@
         <v>33</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3746,7 +3752,7 @@
         <v>1011</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E17" s="2">
         <v>98</v>
@@ -3758,7 +3764,7 @@
         <v>1062</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I17" s="2">
         <v>40000</v>
@@ -3767,7 +3773,7 @@
         <v>60000</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -3782,7 +3788,7 @@
         <v>33</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3790,7 +3796,7 @@
         <v>1012</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E18" s="2">
         <v>98</v>
@@ -3802,7 +3808,7 @@
         <v>1063</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I18" s="2">
         <v>40000</v>
@@ -3811,7 +3817,7 @@
         <v>60000</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -3826,7 +3832,7 @@
         <v>33</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3834,7 +3840,7 @@
         <v>1013</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E19" s="2">
         <v>98</v>
@@ -3846,7 +3852,7 @@
         <v>1064</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I19" s="2">
         <v>40000</v>
@@ -3855,7 +3861,7 @@
         <v>60000</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -3870,7 +3876,7 @@
         <v>33</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3878,7 +3884,7 @@
         <v>1014</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E20" s="2">
         <v>98</v>
@@ -3890,7 +3896,7 @@
         <v>1065</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I20" s="2">
         <v>40000</v>
@@ -3899,7 +3905,7 @@
         <v>60000</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -3914,7 +3920,7 @@
         <v>33</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3922,7 +3928,7 @@
         <v>1015</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E21" s="2">
         <v>98</v>
@@ -3934,7 +3940,7 @@
         <v>1066</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I21" s="2">
         <v>40000</v>
@@ -3943,7 +3949,7 @@
         <v>60000</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -3958,7 +3964,7 @@
         <v>33</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -3966,7 +3972,7 @@
         <v>1016</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E22" s="2">
         <v>98</v>
@@ -3978,7 +3984,7 @@
         <v>1067</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I22" s="2">
         <v>40000</v>
@@ -3987,7 +3993,7 @@
         <v>60000</v>
       </c>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
@@ -4002,7 +4008,7 @@
         <v>33</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4010,7 +4016,7 @@
         <v>1017</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E23" s="2">
         <v>98</v>
@@ -4022,7 +4028,7 @@
         <v>1068</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I23" s="2">
         <v>40000</v>
@@ -4031,7 +4037,7 @@
         <v>60000</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -4046,7 +4052,7 @@
         <v>33</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4054,7 +4060,7 @@
         <v>1018</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E24" s="2">
         <v>98</v>
@@ -4066,7 +4072,7 @@
         <v>1069</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I24" s="2">
         <v>40000</v>
@@ -4075,7 +4081,7 @@
         <v>60000</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L24" s="2">
         <v>0</v>
@@ -4090,7 +4096,7 @@
         <v>33</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4098,7 +4104,7 @@
         <v>1019</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E25" s="2">
         <v>98</v>
@@ -4110,7 +4116,7 @@
         <v>1070</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I25" s="2">
         <v>40000</v>
@@ -4119,7 +4125,7 @@
         <v>60000</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
@@ -4134,7 +4140,7 @@
         <v>33</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4142,7 +4148,7 @@
         <v>1020</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E26" s="2">
         <v>98</v>
@@ -4154,7 +4160,7 @@
         <v>1071</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I26" s="2">
         <v>40000</v>
@@ -4163,7 +4169,7 @@
         <v>60000</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L26" s="2">
         <v>0</v>
@@ -4178,7 +4184,7 @@
         <v>33</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4186,7 +4192,7 @@
         <v>1021</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E27" s="2">
         <v>98</v>
@@ -4198,7 +4204,7 @@
         <v>1072</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I27" s="2">
         <v>40000</v>
@@ -4207,7 +4213,7 @@
         <v>60000</v>
       </c>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
@@ -4222,7 +4228,7 @@
         <v>33</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4230,7 +4236,7 @@
         <v>1022</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E28" s="2">
         <v>98</v>
@@ -4242,7 +4248,7 @@
         <v>1073</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I28" s="2">
         <v>40000</v>
@@ -4251,7 +4257,7 @@
         <v>60000</v>
       </c>
       <c r="K28" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
@@ -4266,7 +4272,7 @@
         <v>33</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:16">
@@ -4274,7 +4280,7 @@
         <v>1023</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E29" s="2">
         <v>98</v>
@@ -4286,7 +4292,7 @@
         <v>1074</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I29" s="2">
         <v>40000</v>
@@ -4295,7 +4301,7 @@
         <v>60000</v>
       </c>
       <c r="K29" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
@@ -4310,7 +4316,7 @@
         <v>33</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4318,7 +4324,7 @@
         <v>1024</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E30" s="2">
         <v>98</v>
@@ -4330,16 +4336,16 @@
         <v>1075</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I30" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J30" s="2">
         <v>120000</v>
       </c>
       <c r="K30" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -4354,7 +4360,7 @@
         <v>33</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4362,7 +4368,7 @@
         <v>1025</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E31" s="2">
         <v>98</v>
@@ -4374,16 +4380,16 @@
         <v>1076</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I31" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J31" s="2">
         <v>120000</v>
       </c>
       <c r="K31" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
@@ -4398,7 +4404,7 @@
         <v>33</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4406,7 +4412,7 @@
         <v>1026</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E32" s="2">
         <v>98</v>
@@ -4418,16 +4424,16 @@
         <v>1077</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J32" s="2">
         <v>120000</v>
       </c>
       <c r="K32" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
@@ -4442,7 +4448,7 @@
         <v>33</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:16">
@@ -4450,7 +4456,7 @@
         <v>1027</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E33" s="2">
         <v>98</v>
@@ -4462,16 +4468,16 @@
         <v>1078</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I33" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J33" s="2">
         <v>120000</v>
       </c>
       <c r="K33" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L33" s="2">
         <v>0</v>
@@ -4486,7 +4492,7 @@
         <v>33</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:16">
@@ -4494,7 +4500,7 @@
         <v>1028</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E34" s="2">
         <v>98</v>
@@ -4506,16 +4512,16 @@
         <v>1079</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I34" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J34" s="2">
         <v>120000</v>
       </c>
       <c r="K34" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L34" s="2">
         <v>0</v>
@@ -4530,7 +4536,7 @@
         <v>33</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:16">
@@ -4538,7 +4544,7 @@
         <v>1029</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E35" s="2">
         <v>98</v>
@@ -4550,16 +4556,16 @@
         <v>1080</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I35" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J35" s="2">
         <v>120000</v>
       </c>
       <c r="K35" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
@@ -4574,7 +4580,7 @@
         <v>33</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:16">
@@ -4582,7 +4588,7 @@
         <v>1030</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E36" s="2">
         <v>98</v>
@@ -4594,16 +4600,16 @@
         <v>1081</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I36" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J36" s="2">
         <v>120000</v>
       </c>
       <c r="K36" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
@@ -4618,7 +4624,7 @@
         <v>33</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:16">
@@ -4626,7 +4632,7 @@
         <v>1031</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E37" s="2">
         <v>98</v>
@@ -4638,16 +4644,16 @@
         <v>1082</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I37" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J37" s="2">
         <v>120000</v>
       </c>
       <c r="K37" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L37" s="2">
         <v>0</v>
@@ -4662,7 +4668,7 @@
         <v>33</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:16">
@@ -4670,7 +4676,7 @@
         <v>1032</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E38" s="2">
         <v>98</v>
@@ -4682,16 +4688,16 @@
         <v>1083</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I38" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J38" s="2">
         <v>120000</v>
       </c>
       <c r="K38" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L38" s="2">
         <v>0</v>
@@ -4706,7 +4712,7 @@
         <v>33</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:16">
@@ -4714,7 +4720,7 @@
         <v>1033</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E39" s="2">
         <v>98</v>
@@ -4726,16 +4732,16 @@
         <v>1084</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I39" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J39" s="2">
         <v>120000</v>
       </c>
       <c r="K39" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L39" s="2">
         <v>0</v>
@@ -4750,7 +4756,7 @@
         <v>33</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:16">
@@ -4758,7 +4764,7 @@
         <v>1034</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E40" s="2">
         <v>98</v>
@@ -4770,16 +4776,16 @@
         <v>1085</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I40" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J40" s="2">
         <v>120000</v>
       </c>
       <c r="K40" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L40" s="2">
         <v>0</v>
@@ -4794,7 +4800,7 @@
         <v>33</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:16">
@@ -4802,7 +4808,7 @@
         <v>1035</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E41" s="2">
         <v>98</v>
@@ -4814,16 +4820,16 @@
         <v>1086</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J41" s="2">
         <v>120000</v>
       </c>
       <c r="K41" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
@@ -4838,7 +4844,7 @@
         <v>33</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:16">
@@ -4846,7 +4852,7 @@
         <v>1036</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E42" s="2">
         <v>98</v>
@@ -4858,16 +4864,16 @@
         <v>1087</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I42" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J42" s="2">
         <v>120000</v>
       </c>
       <c r="K42" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
@@ -4882,7 +4888,7 @@
         <v>33</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:16">
@@ -4890,7 +4896,7 @@
         <v>1037</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E43" s="2">
         <v>98</v>
@@ -4902,16 +4908,16 @@
         <v>1088</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J43" s="2">
         <v>120000</v>
       </c>
       <c r="K43" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L43" s="2">
         <v>0</v>
@@ -4926,7 +4932,7 @@
         <v>33</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:16">
@@ -4934,7 +4940,7 @@
         <v>1038</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E44" s="2">
         <v>98</v>
@@ -4946,16 +4952,16 @@
         <v>1089</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I44" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J44" s="2">
         <v>120000</v>
       </c>
       <c r="K44" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L44" s="2">
         <v>0</v>
@@ -4970,7 +4976,7 @@
         <v>33</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:16">
@@ -4978,7 +4984,7 @@
         <v>1039</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E45" s="2">
         <v>98</v>
@@ -4990,16 +4996,16 @@
         <v>1090</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I45" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J45" s="2">
         <v>120000</v>
       </c>
       <c r="K45" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L45" s="2">
         <v>0</v>
@@ -5014,7 +5020,7 @@
         <v>33</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:16">
@@ -5022,7 +5028,7 @@
         <v>1040</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E46" s="2">
         <v>98</v>
@@ -5034,16 +5040,16 @@
         <v>1091</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I46" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J46" s="2">
         <v>120000</v>
       </c>
       <c r="K46" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L46" s="2">
         <v>0</v>
@@ -5058,7 +5064,7 @@
         <v>33</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:16">
@@ -5066,7 +5072,7 @@
         <v>1041</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E47" s="2">
         <v>98</v>
@@ -5078,16 +5084,16 @@
         <v>1092</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I47" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J47" s="2">
         <v>120000</v>
       </c>
       <c r="K47" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L47" s="2">
         <v>0</v>
@@ -5102,7 +5108,7 @@
         <v>33</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:16">
@@ -5110,7 +5116,7 @@
         <v>1042</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E48" s="2">
         <v>98</v>
@@ -5122,16 +5128,16 @@
         <v>1093</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I48" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J48" s="2">
         <v>120000</v>
       </c>
       <c r="K48" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L48" s="2">
         <v>0</v>
@@ -5146,7 +5152,7 @@
         <v>33</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:16">
@@ -5154,7 +5160,7 @@
         <v>1043</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E49" s="2">
         <v>98</v>
@@ -5166,16 +5172,16 @@
         <v>1094</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I49" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J49" s="2">
         <v>120000</v>
       </c>
       <c r="K49" s="2">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L49" s="2">
         <v>0</v>
@@ -5190,12 +5196,12 @@
         <v>33</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 C3 F3 G3 F4 G4 F5 G5 C4:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:G3 C2:C5 F4:G5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -5211,7 +5217,7 @@
   <dimension ref="C1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5377,7 +5383,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -5389,7 +5395,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -5398,7 +5404,7 @@
         <v>240000</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -5418,7 +5424,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -5430,7 +5436,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -5439,7 +5445,7 @@
         <v>240000</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -5459,7 +5465,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -5471,7 +5477,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -5480,7 +5486,7 @@
         <v>240000</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -5500,7 +5506,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -5512,7 +5518,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -5521,7 +5527,7 @@
         <v>240000</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -5541,7 +5547,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -5553,7 +5559,7 @@
         <v>1074</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>
@@ -5562,7 +5568,7 @@
         <v>240000</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -5582,7 +5588,7 @@
         <v>2005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -5594,16 +5600,16 @@
         <v>1099</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="J11" s="2">
         <v>360000</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -5860,7 +5866,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 C3 F3 G3 F4 G4 F5 G5 C4:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:G3 C2:C5 F4:G5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="218">
   <si>
     <t>_id</t>
   </si>
@@ -340,10 +340,10 @@
     <t>50</t>
   </si>
   <si>
-    <t>2024-08-01</t>
-  </si>
-  <si>
-    <t>2024-08-11</t>
+    <t>2024-09-01</t>
+  </si>
+  <si>
+    <t>2024-09-03</t>
   </si>
   <si>
     <t>第一批白图鉴</t>
@@ -358,7 +358,7 @@
     <t>2023-10-21</t>
   </si>
   <si>
-    <t>2024-10-21</t>
+    <t>2025-10-21</t>
   </si>
   <si>
     <t>第一批绿图鉴</t>
@@ -854,6 +854,33 @@
   </si>
   <si>
     <t>1400043</t>
+  </si>
+  <si>
+    <t>噩梦树心</t>
+  </si>
+  <si>
+    <t>1400044</t>
+  </si>
+  <si>
+    <t>噩梦魔心</t>
+  </si>
+  <si>
+    <t>1400045</t>
+  </si>
+  <si>
+    <t>噩梦尸心</t>
+  </si>
+  <si>
+    <t>1400046</t>
+  </si>
+  <si>
+    <t>噩梦法杖</t>
+  </si>
+  <si>
+    <t>1400047</t>
+  </si>
+  <si>
+    <t>1400048</t>
   </si>
   <si>
     <t>武器衣服红装</t>
@@ -1913,8 +1940,8 @@
   <sheetPr/>
   <dimension ref="C1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -3083,7 +3110,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:G3 F29 C2:C5 F4:G5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F29 C2:C5 F3:G5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -3096,10 +3123,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:P49"/>
+  <dimension ref="C1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5199,9 +5226,229 @@
         <v>148</v>
       </c>
     </row>
+    <row r="50" customHeight="1" spans="3:16">
+      <c r="C50" s="2">
+        <v>1044</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" s="2">
+        <v>98</v>
+      </c>
+      <c r="F50" s="8">
+        <v>1095</v>
+      </c>
+      <c r="G50" s="8">
+        <v>1094</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="I50" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J50" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K50" s="2">
+        <v>400000</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:16">
+      <c r="C51" s="2">
+        <v>1045</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" s="2">
+        <v>98</v>
+      </c>
+      <c r="F51" s="8">
+        <v>1096</v>
+      </c>
+      <c r="G51" s="8">
+        <v>1094</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="I51" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J51" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K51" s="2">
+        <v>400000</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:16">
+      <c r="C52" s="2">
+        <v>1046</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="2">
+        <v>98</v>
+      </c>
+      <c r="F52" s="8">
+        <v>1097</v>
+      </c>
+      <c r="G52" s="8">
+        <v>1094</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="I52" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J52" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K52" s="2">
+        <v>400000</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O52" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:16">
+      <c r="C53" s="2">
+        <v>1047</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" s="2">
+        <v>98</v>
+      </c>
+      <c r="F53" s="8">
+        <v>1098</v>
+      </c>
+      <c r="G53" s="8">
+        <v>1094</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="I53" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J53" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K53" s="2">
+        <v>400000</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
+      <c r="N53" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:16">
+      <c r="C54" s="2">
+        <v>1048</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="2">
+        <v>98</v>
+      </c>
+      <c r="F54" s="8">
+        <v>1099</v>
+      </c>
+      <c r="G54" s="8">
+        <v>1094</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="I54" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J54" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K54" s="2">
+        <v>400000</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
+      <c r="N54" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O54" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:G3 C2:C5 F4:G5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2:C5 F3:G5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -5216,8 +5463,8 @@
   <sheetPr/>
   <dimension ref="C1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5383,7 +5630,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -5395,7 +5642,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -5424,7 +5671,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -5436,7 +5683,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -5465,7 +5712,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -5477,7 +5724,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -5506,7 +5753,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -5518,7 +5765,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -5547,7 +5794,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -5559,7 +5806,7 @@
         <v>1074</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>
@@ -5588,7 +5835,7 @@
         <v>2005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -5600,7 +5847,7 @@
         <v>1099</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I11" s="2">
         <v>8000</v>
@@ -5866,7 +6113,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:G3 C2:C5 F4:G5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2:C5 F3:G5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -331,7 +331,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>周年活动</t>
+    <t>开学活动</t>
   </si>
   <si>
     <t>1005</t>
@@ -1940,8 +1940,8 @@
   <sheetPr/>
   <dimension ref="C1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -3125,7 +3125,7 @@
   <sheetPr/>
   <dimension ref="C1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
@@ -5463,7 +5463,7 @@
   <sheetPr/>
   <dimension ref="C1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1940,7 +1940,7 @@
   <sheetPr/>
   <dimension ref="C1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -3125,8 +3125,8 @@
   <sheetPr/>
   <dimension ref="C1:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5240,7 +5240,7 @@
         <v>1095</v>
       </c>
       <c r="G50" s="8">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H50" s="16" t="s">
         <v>200</v>
@@ -5284,7 +5284,7 @@
         <v>1096</v>
       </c>
       <c r="G51" s="8">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="H51" s="16" t="s">
         <v>202</v>
@@ -5328,7 +5328,7 @@
         <v>1097</v>
       </c>
       <c r="G52" s="8">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="H52" s="16" t="s">
         <v>204</v>
@@ -5372,7 +5372,7 @@
         <v>1098</v>
       </c>
       <c r="G53" s="8">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="H53" s="16" t="s">
         <v>206</v>
@@ -5416,7 +5416,7 @@
         <v>1099</v>
       </c>
       <c r="G54" s="8">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="H54" s="16" t="s">
         <v>207</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="227">
   <si>
     <t>_id</t>
   </si>
@@ -343,7 +343,7 @@
     <t>2024-09-01</t>
   </si>
   <si>
-    <t>2024-09-03</t>
+    <t>2024-09-04</t>
   </si>
   <si>
     <t>第一批白图鉴</t>
@@ -881,6 +881,33 @@
   </si>
   <si>
     <t>1400048</t>
+  </si>
+  <si>
+    <t>噩梦战锤</t>
+  </si>
+  <si>
+    <t>1400049</t>
+  </si>
+  <si>
+    <t>噩梦巨心</t>
+  </si>
+  <si>
+    <t>1400050</t>
+  </si>
+  <si>
+    <t>1400051</t>
+  </si>
+  <si>
+    <t>噩梦魔甲</t>
+  </si>
+  <si>
+    <t>1400052</t>
+  </si>
+  <si>
+    <t>噩梦龙爪</t>
+  </si>
+  <si>
+    <t>1400053</t>
   </si>
   <si>
     <t>武器衣服红装</t>
@@ -1941,7 +1968,7 @@
   <dimension ref="C1:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -3123,10 +3150,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:P54"/>
+  <dimension ref="C1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5443,6 +5470,226 @@
         <v>33</v>
       </c>
       <c r="P54" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:16">
+      <c r="C55" s="2">
+        <v>1049</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E55" s="2">
+        <v>98</v>
+      </c>
+      <c r="F55" s="8">
+        <v>1100</v>
+      </c>
+      <c r="G55" s="8">
+        <v>1100</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="I55" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J55" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K55" s="2">
+        <v>400000</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:16">
+      <c r="C56" s="2">
+        <v>1050</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" s="2">
+        <v>98</v>
+      </c>
+      <c r="F56" s="8">
+        <v>1101</v>
+      </c>
+      <c r="G56" s="8">
+        <v>1101</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I56" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J56" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K56" s="2">
+        <v>400000</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O56" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:16">
+      <c r="C57" s="2">
+        <v>1051</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E57" s="2">
+        <v>98</v>
+      </c>
+      <c r="F57" s="8">
+        <v>1102</v>
+      </c>
+      <c r="G57" s="8">
+        <v>1102</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="I57" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J57" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K57" s="2">
+        <v>400000</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0</v>
+      </c>
+      <c r="N57" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:16">
+      <c r="C58" s="2">
+        <v>1052</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E58" s="2">
+        <v>98</v>
+      </c>
+      <c r="F58" s="8">
+        <v>1103</v>
+      </c>
+      <c r="G58" s="8">
+        <v>1103</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="I58" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J58" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K58" s="2">
+        <v>400000</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:16">
+      <c r="C59" s="2">
+        <v>1053</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59" s="2">
+        <v>98</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1104</v>
+      </c>
+      <c r="G59" s="8">
+        <v>1104</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="I59" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J59" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K59" s="2">
+        <v>400000</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
+      <c r="N59" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O59" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P59" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -5630,7 +5877,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -5642,7 +5889,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -5671,7 +5918,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -5683,7 +5930,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -5712,7 +5959,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -5724,7 +5971,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -5753,7 +6000,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -5765,7 +6012,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -5794,7 +6041,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -5806,7 +6053,7 @@
         <v>1074</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>
@@ -5835,7 +6082,7 @@
         <v>2005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -5847,7 +6094,7 @@
         <v>1099</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="I11" s="2">
         <v>8000</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="228">
   <si>
     <t>_id</t>
   </si>
@@ -844,40 +844,43 @@
     <t>1400041</t>
   </si>
   <si>
+    <t>噩梦神像</t>
+  </si>
+  <si>
+    <t>1400042</t>
+  </si>
+  <si>
+    <t>噩梦獠牙</t>
+  </si>
+  <si>
+    <t>1400043</t>
+  </si>
+  <si>
+    <t>噩梦树心</t>
+  </si>
+  <si>
+    <t>1400044</t>
+  </si>
+  <si>
+    <t>噩梦魔心</t>
+  </si>
+  <si>
+    <t>1400045</t>
+  </si>
+  <si>
+    <t>噩梦尸心</t>
+  </si>
+  <si>
+    <t>1400046</t>
+  </si>
+  <si>
+    <t>噩梦法杖</t>
+  </si>
+  <si>
+    <t>1400047</t>
+  </si>
+  <si>
     <t>噩梦权杖</t>
-  </si>
-  <si>
-    <t>1400042</t>
-  </si>
-  <si>
-    <t>噩梦獠牙</t>
-  </si>
-  <si>
-    <t>1400043</t>
-  </si>
-  <si>
-    <t>噩梦树心</t>
-  </si>
-  <si>
-    <t>1400044</t>
-  </si>
-  <si>
-    <t>噩梦魔心</t>
-  </si>
-  <si>
-    <t>1400045</t>
-  </si>
-  <si>
-    <t>噩梦尸心</t>
-  </si>
-  <si>
-    <t>1400046</t>
-  </si>
-  <si>
-    <t>噩梦法杖</t>
-  </si>
-  <si>
-    <t>1400047</t>
   </si>
   <si>
     <t>1400048</t>
@@ -3152,8 +3155,8 @@
   <sheetPr/>
   <dimension ref="C1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5434,7 +5437,7 @@
         <v>1048</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E54" s="2">
         <v>98</v>
@@ -5446,7 +5449,7 @@
         <v>1099</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I54" s="2">
         <v>4000</v>
@@ -5478,7 +5481,7 @@
         <v>1049</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E55" s="2">
         <v>98</v>
@@ -5490,7 +5493,7 @@
         <v>1100</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I55" s="2">
         <v>4000</v>
@@ -5522,7 +5525,7 @@
         <v>1050</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E56" s="2">
         <v>98</v>
@@ -5534,7 +5537,7 @@
         <v>1101</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I56" s="2">
         <v>4000</v>
@@ -5578,7 +5581,7 @@
         <v>1102</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I57" s="2">
         <v>4000</v>
@@ -5610,7 +5613,7 @@
         <v>1052</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E58" s="2">
         <v>98</v>
@@ -5622,7 +5625,7 @@
         <v>1103</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I58" s="2">
         <v>4000</v>
@@ -5654,7 +5657,7 @@
         <v>1053</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E59" s="2">
         <v>98</v>
@@ -5666,7 +5669,7 @@
         <v>1104</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I59" s="2">
         <v>4000</v>
@@ -5877,7 +5880,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -5889,7 +5892,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -5918,7 +5921,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -5930,7 +5933,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -5959,7 +5962,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -5971,7 +5974,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -6000,7 +6003,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -6012,7 +6015,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -6041,7 +6044,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -6053,7 +6056,7 @@
         <v>1074</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>
@@ -6082,7 +6085,7 @@
         <v>2005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -6094,7 +6097,7 @@
         <v>1099</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I11" s="2">
         <v>8000</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -340,10 +340,10 @@
     <t>50</t>
   </si>
   <si>
-    <t>2024-09-01</t>
-  </si>
-  <si>
-    <t>2024-09-04</t>
+    <t>2024-09-15</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
   </si>
   <si>
     <t>第一批白图鉴</t>
@@ -1970,8 +1970,8 @@
   <sheetPr/>
   <dimension ref="C1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -3155,7 +3155,7 @@
   <sheetPr/>
   <dimension ref="C1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -331,7 +331,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>开学活动</t>
+    <t>中秋活动</t>
   </si>
   <si>
     <t>1005</t>
@@ -1971,7 +1971,7 @@
   <dimension ref="C1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="229">
   <si>
     <t>_id</t>
   </si>
@@ -892,16 +892,19 @@
     <t>1400049</t>
   </si>
   <si>
-    <t>噩梦巨心</t>
+    <t>噩梦血核</t>
   </si>
   <si>
     <t>1400050</t>
   </si>
   <si>
+    <t>噩梦魔核</t>
+  </si>
+  <si>
     <t>1400051</t>
   </si>
   <si>
-    <t>噩梦魔甲</t>
+    <t>噩梦龙甲</t>
   </si>
   <si>
     <t>1400052</t>
@@ -1970,7 +1973,7 @@
   <sheetPr/>
   <dimension ref="C1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -3155,8 +3158,8 @@
   <sheetPr/>
   <dimension ref="C1:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5569,7 +5572,7 @@
         <v>1051</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E57" s="2">
         <v>98</v>
@@ -5581,7 +5584,7 @@
         <v>1102</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I57" s="2">
         <v>4000</v>
@@ -5613,7 +5616,7 @@
         <v>1052</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E58" s="2">
         <v>98</v>
@@ -5625,7 +5628,7 @@
         <v>1103</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I58" s="2">
         <v>4000</v>
@@ -5657,7 +5660,7 @@
         <v>1053</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E59" s="2">
         <v>98</v>
@@ -5669,7 +5672,7 @@
         <v>1104</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I59" s="2">
         <v>4000</v>
@@ -5880,7 +5883,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -5892,7 +5895,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -5921,7 +5924,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -5933,7 +5936,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -5962,7 +5965,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -5974,7 +5977,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -6003,7 +6006,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -6015,7 +6018,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -6044,7 +6047,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -6056,7 +6059,7 @@
         <v>1074</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>
@@ -6085,7 +6088,7 @@
         <v>2005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -6097,7 +6100,7 @@
         <v>1099</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I11" s="2">
         <v>8000</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="239">
   <si>
     <t>_id</t>
   </si>
@@ -944,6 +944,36 @@
   </si>
   <si>
     <t>210004</t>
+  </si>
+  <si>
+    <t>武器衣服金装</t>
+  </si>
+  <si>
+    <t>209995</t>
+  </si>
+  <si>
+    <t>项链头盔金装</t>
+  </si>
+  <si>
+    <t>209996</t>
+  </si>
+  <si>
+    <t>手镯戒指金装</t>
+  </si>
+  <si>
+    <t>209997</t>
+  </si>
+  <si>
+    <t>腰带鞋子金装</t>
+  </si>
+  <si>
+    <t>209998</t>
+  </si>
+  <si>
+    <t>全部金装</t>
+  </si>
+  <si>
+    <t>209999</t>
   </si>
 </sst>
 </file>
@@ -1632,11 +1662,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1983,34 +2013,34 @@
     <col min="3" max="3" width="8.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="2" customWidth="1"/>
     <col min="5" max="7" width="13.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="10" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="10" customWidth="1"/>
-    <col min="10" max="11" width="13.75" style="10" customWidth="1"/>
-    <col min="12" max="13" width="14.125" style="10" customWidth="1"/>
-    <col min="14" max="15" width="20.625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="12" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="12" customWidth="1"/>
+    <col min="10" max="11" width="13.75" style="12" customWidth="1"/>
+    <col min="12" max="13" width="14.125" style="12" customWidth="1"/>
+    <col min="14" max="15" width="20.625" style="12" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" customHeight="1" spans="8:15">
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C2" s="13"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C3" s="6" t="s">
@@ -2028,28 +2058,28 @@
       <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2069,28 +2099,28 @@
       <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2128,10 +2158,10 @@
       <c r="M5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2154,19 +2184,19 @@
       <c r="H6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>0</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="12">
-        <v>0</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0</v>
-      </c>
-      <c r="M6" s="12">
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
         <v>0</v>
       </c>
       <c r="N6" s="14" t="s">
@@ -2195,19 +2225,19 @@
       <c r="H8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>0</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="12">
-        <v>0</v>
-      </c>
-      <c r="L8" s="12">
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
         <v>1</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="11">
         <v>0</v>
       </c>
       <c r="N8" s="14" t="s">
@@ -2236,19 +2266,19 @@
       <c r="H9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>0</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="12">
-        <v>0</v>
-      </c>
-      <c r="L9" s="12">
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
         <v>1</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <v>0</v>
       </c>
       <c r="N9" s="14" t="s">
@@ -2277,19 +2307,19 @@
       <c r="H10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>0</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-      <c r="L10" s="12">
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
         <v>1</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
@@ -2318,19 +2348,19 @@
       <c r="H11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>0</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
         <v>1</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <v>0</v>
       </c>
       <c r="N11" s="14" t="s">
@@ -2359,19 +2389,19 @@
       <c r="H12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>0</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="12">
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
         <v>1</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <v>0</v>
       </c>
       <c r="N12" s="14" t="s">
@@ -2400,19 +2430,19 @@
       <c r="H13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>0</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
         <v>1</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <v>0</v>
       </c>
       <c r="N13" s="14" t="s">
@@ -2441,19 +2471,19 @@
       <c r="H14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>0</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="12">
-        <v>0</v>
-      </c>
-      <c r="L14" s="12">
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
         <v>1</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="11">
         <v>0</v>
       </c>
       <c r="N14" s="14" t="s">
@@ -2482,19 +2512,19 @@
       <c r="H15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>0</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
         <v>1</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="11">
         <v>0</v>
       </c>
       <c r="N15" s="14" t="s">
@@ -2523,19 +2553,19 @@
       <c r="H16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <v>0</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="12">
-        <v>0</v>
-      </c>
-      <c r="L16" s="12">
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
         <v>1</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <v>0</v>
       </c>
       <c r="N16" s="14" t="s">
@@ -2564,19 +2594,19 @@
       <c r="H17" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <v>0</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="12">
-        <v>0</v>
-      </c>
-      <c r="L17" s="12">
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
         <v>1</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="11">
         <v>0</v>
       </c>
       <c r="N17" s="14" t="s">
@@ -2605,19 +2635,19 @@
       <c r="H18" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <v>0</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="12">
-        <v>0</v>
-      </c>
-      <c r="L18" s="12">
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
         <v>1</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="11">
         <v>0</v>
       </c>
       <c r="N18" s="14" t="s">
@@ -2646,19 +2676,19 @@
       <c r="H19" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="11">
         <v>0</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
-      <c r="L19" s="12">
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
         <v>1</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="11">
         <v>0</v>
       </c>
       <c r="N19" s="14" t="s">
@@ -2688,19 +2718,19 @@
       <c r="H21" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <v>0</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="11">
         <v>0</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="11">
         <v>1</v>
       </c>
       <c r="N21" s="14" t="s">
@@ -2729,19 +2759,19 @@
       <c r="H22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <v>0</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="11">
         <v>0</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="11">
         <v>1</v>
       </c>
       <c r="N22" s="14" t="s">
@@ -2770,19 +2800,19 @@
       <c r="H23" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="11">
         <v>0</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="11">
         <v>0</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="11">
         <v>1</v>
       </c>
       <c r="N23" s="14" t="s">
@@ -2793,14 +2823,14 @@
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="8:15">
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="K24" s="12">
-        <v>0</v>
-      </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="K24" s="11">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C25" s="2">
@@ -2827,13 +2857,13 @@
       <c r="J25" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="11">
         <v>0</v>
       </c>
       <c r="L25" s="2">
         <v>1</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="11">
         <v>0</v>
       </c>
       <c r="N25" s="14" t="s">
@@ -2868,13 +2898,13 @@
       <c r="J26" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="11">
         <v>0</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="11">
         <v>0</v>
       </c>
       <c r="N26" s="14" t="s">
@@ -2916,7 +2946,7 @@
       <c r="L28" s="2">
         <v>0</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M28" s="11">
         <v>0</v>
       </c>
       <c r="N28" s="14" t="s">
@@ -2954,10 +2984,10 @@
       <c r="K29" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="11">
         <v>1</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="11">
         <v>0</v>
       </c>
       <c r="N29" s="14" t="s">
@@ -2998,7 +3028,7 @@
       <c r="L30" s="2">
         <v>0</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="11">
         <v>0</v>
       </c>
       <c r="N30" s="14" t="s">
@@ -3009,11 +3039,11 @@
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="10:15">
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C33" s="2">
@@ -3034,13 +3064,13 @@
       <c r="H33" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="11">
         <v>0</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="11">
         <v>0</v>
       </c>
       <c r="L33" s="2">
@@ -3075,13 +3105,13 @@
       <c r="H34" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="11">
         <v>0</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="11">
         <v>0</v>
       </c>
       <c r="L34" s="2">
@@ -3099,44 +3129,44 @@
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1"/>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="8:15">
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="8:15">
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="8:15">
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="8:15">
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F29">
@@ -3158,7 +3188,7 @@
   <sheetPr/>
   <dimension ref="C1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
@@ -3225,13 +3255,13 @@
       <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="7" t="s">
@@ -3266,13 +3296,13 @@
       <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="7" t="s">
@@ -5714,10 +5744,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:O44"/>
+  <dimension ref="C1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5780,13 +5810,13 @@
       <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="7" t="s">
@@ -5821,13 +5851,13 @@
       <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="7" t="s">
@@ -6097,7 +6127,7 @@
         <v>1075</v>
       </c>
       <c r="G11" s="8">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>228</v>
@@ -6124,249 +6154,428 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="8:15">
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="8:15">
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="8:15">
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+      <c r="C13" s="2">
+        <v>2006</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="2">
+        <v>98</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1105</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1105</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3600</v>
+      </c>
+      <c r="J13" s="2">
+        <v>18000</v>
+      </c>
+      <c r="K13" s="2">
+        <v>40000</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+      <c r="C14" s="2">
+        <v>2007</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="2">
+        <v>98</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1106</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1106</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="I14" s="2">
+        <v>360000</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1800000</v>
+      </c>
+      <c r="K14" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+      <c r="C15" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="2">
+        <v>98</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1107</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1107</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="I15" s="2">
+        <v>360000</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1800000</v>
+      </c>
+      <c r="K15" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+      <c r="C16" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="2">
+        <v>98</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1108</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1108</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="I16" s="2">
+        <v>360000</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1800000</v>
+      </c>
+      <c r="K16" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+      <c r="C17" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="2">
+        <v>98</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1109</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1039</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="I17" s="2">
+        <v>360000</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1800000</v>
+      </c>
+      <c r="K17" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F13:F17">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G16">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2:C5 F3:G5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2:C5 F13:F17 G13:G16 F3:G5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -3188,7 +3188,7 @@
   <sheetPr/>
   <dimension ref="C1:P59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
@@ -5747,7 +5747,7 @@
   <dimension ref="C1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6126,8 +6126,8 @@
       <c r="F11" s="8">
         <v>1075</v>
       </c>
-      <c r="G11" s="8">
-        <v>1039</v>
+      <c r="G11" s="2">
+        <v>1139</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>228</v>
@@ -6338,8 +6338,8 @@
       <c r="F17" s="2">
         <v>1109</v>
       </c>
-      <c r="G17" s="8">
-        <v>1039</v>
+      <c r="G17" s="2">
+        <v>1139</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>238</v>
@@ -6568,14 +6568,20 @@
       <c r="O45" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F13:F17">
+  <conditionalFormatting sqref="G11">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G16">
+  <conditionalFormatting sqref="G17">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F17">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G16">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2:C5 F13:F17 G13:G16 F3:G5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="G11 G17 C2:C5 F13:F17 G13:G16 F3:G5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -331,7 +331,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>中秋活动</t>
+    <t>国庆活动</t>
   </si>
   <si>
     <t>1005</t>
@@ -340,10 +340,10 @@
     <t>50</t>
   </si>
   <si>
-    <t>2024-09-15</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
   </si>
   <si>
     <t>第一批白图鉴</t>
@@ -2003,8 +2003,8 @@
   <sheetPr/>
   <dimension ref="C1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5746,7 +5746,7 @@
   <sheetPr/>
   <dimension ref="C1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -6370,11 +6370,6 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
     </row>
@@ -6581,7 +6576,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="G11 G17 C2:C5 F13:F17 G13:G16 F3:G5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="G11 C2:C5 F13:G17 F3:G5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -940,7 +940,7 @@
     <t>210003</t>
   </si>
   <si>
-    <t>全部红装</t>
+    <t>随机红装</t>
   </si>
   <si>
     <t>210004</t>
@@ -970,7 +970,7 @@
     <t>209998</t>
   </si>
   <si>
-    <t>全部金装</t>
+    <t>随机金装</t>
   </si>
   <si>
     <t>209999</t>
@@ -2003,7 +2003,7 @@
   <sheetPr/>
   <dimension ref="C1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -5746,8 +5746,8 @@
   <sheetPr/>
   <dimension ref="C1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1178,12 +1178,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2003,8 +2003,8 @@
   <sheetPr/>
   <dimension ref="C1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5746,7 +5746,7 @@
   <sheetPr/>
   <dimension ref="C1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1178,12 +1178,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2004,7 +2004,7 @@
   <dimension ref="C1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2220,7 +2220,7 @@
         <v>1000</v>
       </c>
       <c r="G8" s="2">
-        <v>1099</v>
+        <v>2000</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>30</v>
@@ -2261,7 +2261,7 @@
         <v>1000</v>
       </c>
       <c r="G9" s="2">
-        <v>1099</v>
+        <v>2000</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>35</v>
@@ -2302,7 +2302,7 @@
         <v>1000</v>
       </c>
       <c r="G10" s="2">
-        <v>1099</v>
+        <v>2000</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>38</v>
@@ -2343,7 +2343,7 @@
         <v>1000</v>
       </c>
       <c r="G11" s="2">
-        <v>1099</v>
+        <v>2000</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>41</v>
@@ -2384,7 +2384,7 @@
         <v>1035</v>
       </c>
       <c r="G12" s="2">
-        <v>1099</v>
+        <v>2000</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>44</v>
@@ -2425,7 +2425,7 @@
         <v>1035</v>
       </c>
       <c r="G13" s="2">
-        <v>1099</v>
+        <v>2000</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>47</v>
@@ -2466,7 +2466,7 @@
         <v>1035</v>
       </c>
       <c r="G14" s="2">
-        <v>1099</v>
+        <v>2000</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>50</v>
@@ -2507,7 +2507,7 @@
         <v>1035</v>
       </c>
       <c r="G15" s="2">
-        <v>1099</v>
+        <v>2000</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>53</v>
@@ -2548,7 +2548,7 @@
         <v>1070</v>
       </c>
       <c r="G16" s="2">
-        <v>1099</v>
+        <v>2000</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>56</v>
@@ -2589,7 +2589,7 @@
         <v>1070</v>
       </c>
       <c r="G17" s="2">
-        <v>1099</v>
+        <v>2000</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>59</v>
@@ -2630,7 +2630,7 @@
         <v>1070</v>
       </c>
       <c r="G18" s="2">
-        <v>1099</v>
+        <v>2000</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>62</v>
@@ -2671,7 +2671,7 @@
         <v>1070</v>
       </c>
       <c r="G19" s="2">
-        <v>1099</v>
+        <v>2000</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>64</v>
@@ -2846,7 +2846,7 @@
         <v>1000</v>
       </c>
       <c r="G25" s="2">
-        <v>1099</v>
+        <v>2000</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>71</v>
@@ -2887,7 +2887,7 @@
         <v>1070</v>
       </c>
       <c r="G26" s="2">
-        <v>1099</v>
+        <v>2000</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>75</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="G28" s="2">
-        <v>1099</v>
+        <v>2000</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>77</v>
@@ -2970,7 +2970,7 @@
         <v>1000</v>
       </c>
       <c r="G29" s="2">
-        <v>1099</v>
+        <v>2000</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>80</v>
@@ -3011,7 +3011,7 @@
         <v>1000</v>
       </c>
       <c r="G30" s="2">
-        <v>1099</v>
+        <v>2000</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>84</v>
@@ -3188,7 +3188,7 @@
   <sheetPr/>
   <dimension ref="C1:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -2003,7 +2003,7 @@
   <sheetPr/>
   <dimension ref="C1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -5746,8 +5746,8 @@
   <sheetPr/>
   <dimension ref="C1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6181,13 +6181,13 @@
         <v>230</v>
       </c>
       <c r="I13" s="2">
-        <v>3600</v>
+        <v>360000</v>
       </c>
       <c r="J13" s="2">
-        <v>18000</v>
+        <v>1800000</v>
       </c>
       <c r="K13" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>1800000</v>
       </c>
       <c r="K14" s="2">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -6269,7 +6269,7 @@
         <v>1800000</v>
       </c>
       <c r="K15" s="2">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -6310,7 +6310,7 @@
         <v>1800000</v>
       </c>
       <c r="K16" s="2">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>1800000</v>
       </c>
       <c r="K17" s="2">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -1178,12 +1178,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3188,8 +3188,8 @@
   <sheetPr/>
   <dimension ref="C1:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5747,7 +5747,7 @@
   <dimension ref="C1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6133,13 +6133,13 @@
         <v>228</v>
       </c>
       <c r="I11" s="2">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="J11" s="2">
         <v>360000</v>
       </c>
       <c r="K11" s="2">
-        <v>800000</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="239">
   <si>
     <t>_id</t>
   </si>
@@ -1178,12 +1178,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5744,10 +5744,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:O45"/>
+  <dimension ref="C1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6127,7 +6127,7 @@
         <v>1075</v>
       </c>
       <c r="G11" s="2">
-        <v>1139</v>
+        <v>1104</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>228</v>
@@ -6161,65 +6161,31 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
-      <c r="C13" s="2">
-        <v>2006</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E13" s="2">
-        <v>98</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1105</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1105</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="I13" s="2">
-        <v>360000</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1800000</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>33</v>
-      </c>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C14" s="2">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E14" s="2">
         <v>98</v>
       </c>
       <c r="F14" s="2">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G14" s="2">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I14" s="2">
         <v>360000</v>
@@ -6245,22 +6211,22 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C15" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
       </c>
       <c r="F15" s="2">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G15" s="2">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I15" s="2">
         <v>360000</v>
@@ -6286,22 +6252,22 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C16" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E16" s="2">
         <v>98</v>
       </c>
       <c r="F16" s="2">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G16" s="2">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I16" s="2">
         <v>360000</v>
@@ -6327,22 +6293,22 @@
     </row>
     <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
       <c r="C17" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E17" s="2">
         <v>98</v>
       </c>
       <c r="F17" s="2">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G17" s="2">
-        <v>1139</v>
+        <v>1108</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I17" s="2">
         <v>360000</v>
@@ -6366,19 +6332,87 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
+    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+      <c r="C18" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="2">
+        <v>98</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1109</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1139</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="I18" s="2">
+        <v>360000</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1800000</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+      <c r="C19" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="2">
+        <v>98</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1105</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1139</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="I19" s="2">
+        <v>40000</v>
+      </c>
+      <c r="J19" s="2">
+        <v>540000</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
       <c r="F20" s="8"/>
@@ -6562,21 +6596,34 @@
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
     </row>
+    <row r="46" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G11">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F17">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G16">
+  <conditionalFormatting sqref="G19">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F18">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G17">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="G11 C2:C5 F13:G17 F3:G5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="G11 F19 G19 C2:C5 F14:G18 F3:G5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -5747,7 +5747,7 @@
   <dimension ref="C1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6623,7 +6623,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="G11 F19 G19 C2:C5 F14:G18 F3:G5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="G11 F19:G19 C2:C5 F3:G5 F14:G18" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -3188,8 +3188,8 @@
   <sheetPr/>
   <dimension ref="C1:P59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5746,7 +5746,7 @@
   <sheetPr/>
   <dimension ref="C1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -6623,7 +6623,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="G11 F19:G19 C2:C5 F3:G5 F14:G18" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="G11 C2:C5 F3:G5 F14:G19" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -3188,8 +3188,8 @@
   <sheetPr/>
   <dimension ref="C1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52:D59"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5746,8 +5746,8 @@
   <sheetPr/>
   <dimension ref="C1:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6396,7 +6396,7 @@
         <v>40000</v>
       </c>
       <c r="J19" s="2">
-        <v>540000</v>
+        <v>420000</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -5747,7 +5747,7 @@
   <dimension ref="C1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6396,7 +6396,7 @@
         <v>40000</v>
       </c>
       <c r="J19" s="2">
-        <v>420000</v>
+        <v>540000</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="309">
   <si>
     <t>_id</t>
   </si>
@@ -914,6 +914,216 @@
   </si>
   <si>
     <t>1400053</t>
+  </si>
+  <si>
+    <t>地狱鸡爪</t>
+  </si>
+  <si>
+    <t>1400054</t>
+  </si>
+  <si>
+    <t>地狱鹿茸</t>
+  </si>
+  <si>
+    <t>1400055</t>
+  </si>
+  <si>
+    <t>地狱草帽</t>
+  </si>
+  <si>
+    <t>1400056</t>
+  </si>
+  <si>
+    <t>地狱猫爪</t>
+  </si>
+  <si>
+    <t>1400057</t>
+  </si>
+  <si>
+    <t>地狱花朵</t>
+  </si>
+  <si>
+    <t>1400058</t>
+  </si>
+  <si>
+    <t>地狱冰晶</t>
+  </si>
+  <si>
+    <t>1400059</t>
+  </si>
+  <si>
+    <t>地狱蝠翼</t>
+  </si>
+  <si>
+    <t>1400060</t>
+  </si>
+  <si>
+    <t>地狱魂火</t>
+  </si>
+  <si>
+    <t>1400061</t>
+  </si>
+  <si>
+    <t>地狱腐肉</t>
+  </si>
+  <si>
+    <t>1400062</t>
+  </si>
+  <si>
+    <t>地狱蛇胆</t>
+  </si>
+  <si>
+    <t>1400063</t>
+  </si>
+  <si>
+    <t>地狱狼爪</t>
+  </si>
+  <si>
+    <t>1400064</t>
+  </si>
+  <si>
+    <t>地狱虫皮</t>
+  </si>
+  <si>
+    <t>1400065</t>
+  </si>
+  <si>
+    <t>地狱鹰羽</t>
+  </si>
+  <si>
+    <t>1400066</t>
+  </si>
+  <si>
+    <t>地狱虫角</t>
+  </si>
+  <si>
+    <t>1400067</t>
+  </si>
+  <si>
+    <t>地狱蜈膏</t>
+  </si>
+  <si>
+    <t>1400068</t>
+  </si>
+  <si>
+    <t>地狱虫心</t>
+  </si>
+  <si>
+    <t>1400069</t>
+  </si>
+  <si>
+    <t>地狱龙皮</t>
+  </si>
+  <si>
+    <t>1400070</t>
+  </si>
+  <si>
+    <t>地狱猪皮</t>
+  </si>
+  <si>
+    <t>1400071</t>
+  </si>
+  <si>
+    <t>地狱猪心</t>
+  </si>
+  <si>
+    <t>1400072</t>
+  </si>
+  <si>
+    <t>地狱蝎皮</t>
+  </si>
+  <si>
+    <t>1400073</t>
+  </si>
+  <si>
+    <t>地狱宝甲</t>
+  </si>
+  <si>
+    <t>1400074</t>
+  </si>
+  <si>
+    <t>地狱号角</t>
+  </si>
+  <si>
+    <t>1400075</t>
+  </si>
+  <si>
+    <t>地狱雕像</t>
+  </si>
+  <si>
+    <t>1400076</t>
+  </si>
+  <si>
+    <t>地狱神像</t>
+  </si>
+  <si>
+    <t>1400077</t>
+  </si>
+  <si>
+    <t>地狱獠牙</t>
+  </si>
+  <si>
+    <t>1400078</t>
+  </si>
+  <si>
+    <t>地狱树心</t>
+  </si>
+  <si>
+    <t>1400079</t>
+  </si>
+  <si>
+    <t>地狱魔心</t>
+  </si>
+  <si>
+    <t>1400080</t>
+  </si>
+  <si>
+    <t>地狱尸心</t>
+  </si>
+  <si>
+    <t>1400081</t>
+  </si>
+  <si>
+    <t>地狱法杖</t>
+  </si>
+  <si>
+    <t>1400082</t>
+  </si>
+  <si>
+    <t>地狱权杖</t>
+  </si>
+  <si>
+    <t>1400083</t>
+  </si>
+  <si>
+    <t>地狱战锤</t>
+  </si>
+  <si>
+    <t>1400084</t>
+  </si>
+  <si>
+    <t>地狱血核</t>
+  </si>
+  <si>
+    <t>1400085</t>
+  </si>
+  <si>
+    <t>地狱魔核</t>
+  </si>
+  <si>
+    <t>1400086</t>
+  </si>
+  <si>
+    <t>地狱龙甲</t>
+  </si>
+  <si>
+    <t>1400087</t>
+  </si>
+  <si>
+    <t>地狱龙爪</t>
+  </si>
+  <si>
+    <t>1400088</t>
   </si>
   <si>
     <t>武器衣服红装</t>
@@ -1189,7 +1399,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1199,6 +1409,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1519,7 +1735,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1543,16 +1759,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1561,89 +1777,89 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1666,6 +1882,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1673,6 +1893,8 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2013,34 +2235,34 @@
     <col min="3" max="3" width="8.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="2" customWidth="1"/>
     <col min="5" max="7" width="13.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="12" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="12" customWidth="1"/>
-    <col min="10" max="11" width="13.75" style="12" customWidth="1"/>
-    <col min="12" max="13" width="14.125" style="12" customWidth="1"/>
-    <col min="14" max="15" width="20.625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="16" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="16" customWidth="1"/>
+    <col min="10" max="11" width="13.75" style="16" customWidth="1"/>
+    <col min="12" max="13" width="14.125" style="16" customWidth="1"/>
+    <col min="14" max="15" width="20.625" style="16" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" customHeight="1" spans="8:15">
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C2" s="13"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="C2" s="17"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C3" s="6" t="s">
@@ -2181,13 +2403,13 @@
       <c r="G6" s="2">
         <v>9999</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="18" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="11">
         <v>0</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K6" s="11">
@@ -2199,10 +2421,10 @@
       <c r="M6" s="11">
         <v>0</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="18" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2222,13 +2444,13 @@
       <c r="G8" s="2">
         <v>2000</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="19" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="11">
         <v>0</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="18" t="s">
         <v>31</v>
       </c>
       <c r="K8" s="11">
@@ -2240,10 +2462,10 @@
       <c r="M8" s="11">
         <v>0</v>
       </c>
-      <c r="N8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="14" t="s">
+      <c r="N8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2263,13 +2485,13 @@
       <c r="G9" s="2">
         <v>2000</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="19" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="11">
         <v>0</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="18" t="s">
         <v>36</v>
       </c>
       <c r="K9" s="11">
@@ -2281,10 +2503,10 @@
       <c r="M9" s="11">
         <v>0</v>
       </c>
-      <c r="N9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="14" t="s">
+      <c r="N9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2304,13 +2526,13 @@
       <c r="G10" s="2">
         <v>2000</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="19" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="11">
         <v>0</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="18" t="s">
         <v>39</v>
       </c>
       <c r="K10" s="11">
@@ -2322,10 +2544,10 @@
       <c r="M10" s="11">
         <v>0</v>
       </c>
-      <c r="N10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2345,13 +2567,13 @@
       <c r="G11" s="2">
         <v>2000</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="19" t="s">
         <v>41</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="18" t="s">
         <v>42</v>
       </c>
       <c r="K11" s="11">
@@ -2363,10 +2585,10 @@
       <c r="M11" s="11">
         <v>0</v>
       </c>
-      <c r="N11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="14" t="s">
+      <c r="N11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2386,13 +2608,13 @@
       <c r="G12" s="2">
         <v>2000</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="19" t="s">
         <v>44</v>
       </c>
       <c r="I12" s="11">
         <v>0</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="18" t="s">
         <v>45</v>
       </c>
       <c r="K12" s="11">
@@ -2404,10 +2626,10 @@
       <c r="M12" s="11">
         <v>0</v>
       </c>
-      <c r="N12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="14" t="s">
+      <c r="N12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2427,13 +2649,13 @@
       <c r="G13" s="2">
         <v>2000</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="19" t="s">
         <v>47</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="18" t="s">
         <v>48</v>
       </c>
       <c r="K13" s="11">
@@ -2445,10 +2667,10 @@
       <c r="M13" s="11">
         <v>0</v>
       </c>
-      <c r="N13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="14" t="s">
+      <c r="N13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2468,13 +2690,13 @@
       <c r="G14" s="2">
         <v>2000</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="19" t="s">
         <v>50</v>
       </c>
       <c r="I14" s="11">
         <v>0</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="18" t="s">
         <v>51</v>
       </c>
       <c r="K14" s="11">
@@ -2486,10 +2708,10 @@
       <c r="M14" s="11">
         <v>0</v>
       </c>
-      <c r="N14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="14" t="s">
+      <c r="N14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2509,13 +2731,13 @@
       <c r="G15" s="2">
         <v>2000</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="19" t="s">
         <v>53</v>
       </c>
       <c r="I15" s="11">
         <v>0</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="18" t="s">
         <v>54</v>
       </c>
       <c r="K15" s="11">
@@ -2527,10 +2749,10 @@
       <c r="M15" s="11">
         <v>0</v>
       </c>
-      <c r="N15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="14" t="s">
+      <c r="N15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2550,13 +2772,13 @@
       <c r="G16" s="2">
         <v>2000</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="19" t="s">
         <v>56</v>
       </c>
       <c r="I16" s="11">
         <v>0</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="18" t="s">
         <v>57</v>
       </c>
       <c r="K16" s="11">
@@ -2568,10 +2790,10 @@
       <c r="M16" s="11">
         <v>0</v>
       </c>
-      <c r="N16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="14" t="s">
+      <c r="N16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2591,13 +2813,13 @@
       <c r="G17" s="2">
         <v>2000</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="19" t="s">
         <v>59</v>
       </c>
       <c r="I17" s="11">
         <v>0</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="18" t="s">
         <v>60</v>
       </c>
       <c r="K17" s="11">
@@ -2609,10 +2831,10 @@
       <c r="M17" s="11">
         <v>0</v>
       </c>
-      <c r="N17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="14" t="s">
+      <c r="N17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2632,13 +2854,13 @@
       <c r="G18" s="2">
         <v>2000</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="19" t="s">
         <v>62</v>
       </c>
       <c r="I18" s="11">
         <v>0</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="18" t="s">
         <v>36</v>
       </c>
       <c r="K18" s="11">
@@ -2650,10 +2872,10 @@
       <c r="M18" s="11">
         <v>0</v>
       </c>
-      <c r="N18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="14" t="s">
+      <c r="N18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2673,13 +2895,13 @@
       <c r="G19" s="2">
         <v>2000</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="19" t="s">
         <v>64</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="18" t="s">
         <v>65</v>
       </c>
       <c r="K19" s="11">
@@ -2691,10 +2913,10 @@
       <c r="M19" s="11">
         <v>0</v>
       </c>
-      <c r="N19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="14" t="s">
+      <c r="N19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2715,7 +2937,7 @@
       <c r="G21" s="2">
         <v>0</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="18" t="s">
         <v>67</v>
       </c>
       <c r="I21" s="11">
@@ -2733,10 +2955,10 @@
       <c r="M21" s="11">
         <v>1</v>
       </c>
-      <c r="N21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="14" t="s">
+      <c r="N21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2756,7 +2978,7 @@
       <c r="G22" s="2">
         <v>0</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="19" t="s">
         <v>69</v>
       </c>
       <c r="I22" s="11">
@@ -2774,10 +2996,10 @@
       <c r="M22" s="11">
         <v>1</v>
       </c>
-      <c r="N22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="14" t="s">
+      <c r="N22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2797,7 +3019,7 @@
       <c r="G23" s="2">
         <v>0</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="18" t="s">
         <v>71</v>
       </c>
       <c r="I23" s="11">
@@ -2815,10 +3037,10 @@
       <c r="M23" s="11">
         <v>1</v>
       </c>
-      <c r="N23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="14" t="s">
+      <c r="N23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2848,13 +3070,13 @@
       <c r="G25" s="2">
         <v>2000</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="19" t="s">
         <v>71</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="19" t="s">
         <v>73</v>
       </c>
       <c r="K25" s="11">
@@ -2866,10 +3088,10 @@
       <c r="M25" s="11">
         <v>0</v>
       </c>
-      <c r="N25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="14" t="s">
+      <c r="N25" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2889,13 +3111,13 @@
       <c r="G26" s="2">
         <v>2000</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="18" t="s">
         <v>75</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J26" s="19" t="s">
         <v>73</v>
       </c>
       <c r="K26" s="11">
@@ -2907,10 +3129,10 @@
       <c r="M26" s="11">
         <v>0</v>
       </c>
-      <c r="N26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="14" t="s">
+      <c r="N26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2931,16 +3153,16 @@
       <c r="G28" s="2">
         <v>2000</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="19" t="s">
         <v>78</v>
       </c>
       <c r="L28" s="2">
@@ -2949,10 +3171,10 @@
       <c r="M28" s="11">
         <v>0</v>
       </c>
-      <c r="N28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="14" t="s">
+      <c r="N28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2972,16 +3194,16 @@
       <c r="G29" s="2">
         <v>2000</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="18" t="s">
         <v>82</v>
       </c>
       <c r="L29" s="11">
@@ -2990,10 +3212,10 @@
       <c r="M29" s="11">
         <v>0</v>
       </c>
-      <c r="N29" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="14" t="s">
+      <c r="N29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3013,16 +3235,16 @@
       <c r="G30" s="2">
         <v>2000</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="14" t="s">
+      <c r="J30" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="18" t="s">
         <v>86</v>
       </c>
       <c r="L30" s="2">
@@ -3031,10 +3253,10 @@
       <c r="M30" s="11">
         <v>0</v>
       </c>
-      <c r="N30" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="14" t="s">
+      <c r="N30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3061,7 +3283,7 @@
       <c r="G33" s="2">
         <v>0</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="18" t="s">
         <v>88</v>
       </c>
       <c r="I33" s="11">
@@ -3079,10 +3301,10 @@
       <c r="M33" s="2">
         <v>1</v>
       </c>
-      <c r="N33" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="14" t="s">
+      <c r="N33" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3102,7 +3324,7 @@
       <c r="G34" s="2">
         <v>0</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="18" t="s">
         <v>90</v>
       </c>
       <c r="I34" s="11">
@@ -3120,53 +3342,53 @@
       <c r="M34" s="2">
         <v>1</v>
       </c>
-      <c r="N34" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" s="14" t="s">
+      <c r="N34" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1"/>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="8:15">
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="8:15">
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="8:15">
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="8:15">
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F29">
@@ -3186,10 +3408,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:P59"/>
+  <dimension ref="C1:P94"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:K29"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61:J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -3369,7 +3591,7 @@
       <c r="G6" s="8">
         <v>1051</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="20" t="s">
         <v>93</v>
       </c>
       <c r="I6" s="2">
@@ -3387,10 +3609,10 @@
       <c r="M6" s="2">
         <v>0</v>
       </c>
-      <c r="N6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="14" t="s">
+      <c r="N6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
@@ -3413,7 +3635,7 @@
       <c r="G7" s="8">
         <v>1052</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="20" t="s">
         <v>96</v>
       </c>
       <c r="I7" s="2">
@@ -3431,10 +3653,10 @@
       <c r="M7" s="2">
         <v>0</v>
       </c>
-      <c r="N7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="14" t="s">
+      <c r="N7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
@@ -3457,7 +3679,7 @@
       <c r="G8" s="8">
         <v>1053</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="20" t="s">
         <v>99</v>
       </c>
       <c r="I8" s="2">
@@ -3475,10 +3697,10 @@
       <c r="M8" s="2">
         <v>0</v>
       </c>
-      <c r="N8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="14" t="s">
+      <c r="N8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
@@ -3501,7 +3723,7 @@
       <c r="G9" s="8">
         <v>1054</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="20" t="s">
         <v>102</v>
       </c>
       <c r="I9" s="2">
@@ -3519,10 +3741,10 @@
       <c r="M9" s="2">
         <v>0</v>
       </c>
-      <c r="N9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="14" t="s">
+      <c r="N9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
@@ -3545,7 +3767,7 @@
       <c r="G10" s="8">
         <v>1055</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="20" t="s">
         <v>105</v>
       </c>
       <c r="I10" s="2">
@@ -3563,10 +3785,10 @@
       <c r="M10" s="2">
         <v>0</v>
       </c>
-      <c r="N10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
@@ -3589,7 +3811,7 @@
       <c r="G11" s="8">
         <v>1056</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="20" t="s">
         <v>108</v>
       </c>
       <c r="I11" s="2">
@@ -3607,10 +3829,10 @@
       <c r="M11" s="2">
         <v>0</v>
       </c>
-      <c r="N11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="14" t="s">
+      <c r="N11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P11" s="2" t="s">
@@ -3633,7 +3855,7 @@
       <c r="G12" s="8">
         <v>1057</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="20" t="s">
         <v>111</v>
       </c>
       <c r="I12" s="2">
@@ -3651,10 +3873,10 @@
       <c r="M12" s="2">
         <v>0</v>
       </c>
-      <c r="N12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="14" t="s">
+      <c r="N12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
@@ -3677,7 +3899,7 @@
       <c r="G13" s="8">
         <v>1058</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="20" t="s">
         <v>114</v>
       </c>
       <c r="I13" s="2">
@@ -3695,10 +3917,10 @@
       <c r="M13" s="2">
         <v>0</v>
       </c>
-      <c r="N13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="14" t="s">
+      <c r="N13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P13" s="2" t="s">
@@ -3721,7 +3943,7 @@
       <c r="G14" s="8">
         <v>1059</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="20" t="s">
         <v>117</v>
       </c>
       <c r="I14" s="2">
@@ -3739,10 +3961,10 @@
       <c r="M14" s="2">
         <v>0</v>
       </c>
-      <c r="N14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="14" t="s">
+      <c r="N14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P14" s="2" t="s">
@@ -3765,7 +3987,7 @@
       <c r="G15" s="8">
         <v>1060</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="20" t="s">
         <v>119</v>
       </c>
       <c r="I15" s="2">
@@ -3783,10 +4005,10 @@
       <c r="M15" s="2">
         <v>0</v>
       </c>
-      <c r="N15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="14" t="s">
+      <c r="N15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
@@ -3809,7 +4031,7 @@
       <c r="G16" s="8">
         <v>1061</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="20" t="s">
         <v>121</v>
       </c>
       <c r="I16" s="2">
@@ -3827,10 +4049,10 @@
       <c r="M16" s="2">
         <v>0</v>
       </c>
-      <c r="N16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="14" t="s">
+      <c r="N16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P16" s="2" t="s">
@@ -3853,7 +4075,7 @@
       <c r="G17" s="8">
         <v>1062</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="20" t="s">
         <v>123</v>
       </c>
       <c r="I17" s="2">
@@ -3871,10 +4093,10 @@
       <c r="M17" s="2">
         <v>0</v>
       </c>
-      <c r="N17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="14" t="s">
+      <c r="N17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P17" s="2" t="s">
@@ -3897,7 +4119,7 @@
       <c r="G18" s="8">
         <v>1063</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="20" t="s">
         <v>125</v>
       </c>
       <c r="I18" s="2">
@@ -3915,10 +4137,10 @@
       <c r="M18" s="2">
         <v>0</v>
       </c>
-      <c r="N18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="14" t="s">
+      <c r="N18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P18" s="2" t="s">
@@ -3941,7 +4163,7 @@
       <c r="G19" s="8">
         <v>1064</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="20" t="s">
         <v>128</v>
       </c>
       <c r="I19" s="2">
@@ -3959,10 +4181,10 @@
       <c r="M19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="14" t="s">
+      <c r="N19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P19" s="2" t="s">
@@ -3985,7 +4207,7 @@
       <c r="G20" s="8">
         <v>1065</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="20" t="s">
         <v>131</v>
       </c>
       <c r="I20" s="2">
@@ -4003,10 +4225,10 @@
       <c r="M20" s="2">
         <v>0</v>
       </c>
-      <c r="N20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="14" t="s">
+      <c r="N20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P20" s="2" t="s">
@@ -4029,7 +4251,7 @@
       <c r="G21" s="8">
         <v>1066</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="20" t="s">
         <v>134</v>
       </c>
       <c r="I21" s="2">
@@ -4047,10 +4269,10 @@
       <c r="M21" s="2">
         <v>0</v>
       </c>
-      <c r="N21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="14" t="s">
+      <c r="N21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P21" s="2" t="s">
@@ -4073,7 +4295,7 @@
       <c r="G22" s="8">
         <v>1067</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="20" t="s">
         <v>136</v>
       </c>
       <c r="I22" s="2">
@@ -4091,10 +4313,10 @@
       <c r="M22" s="2">
         <v>0</v>
       </c>
-      <c r="N22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="14" t="s">
+      <c r="N22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P22" s="2" t="s">
@@ -4117,7 +4339,7 @@
       <c r="G23" s="8">
         <v>1068</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="20" t="s">
         <v>138</v>
       </c>
       <c r="I23" s="2">
@@ -4135,10 +4357,10 @@
       <c r="M23" s="2">
         <v>0</v>
       </c>
-      <c r="N23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="14" t="s">
+      <c r="N23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P23" s="2" t="s">
@@ -4161,7 +4383,7 @@
       <c r="G24" s="8">
         <v>1069</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="20" t="s">
         <v>141</v>
       </c>
       <c r="I24" s="2">
@@ -4179,10 +4401,10 @@
       <c r="M24" s="2">
         <v>0</v>
       </c>
-      <c r="N24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="14" t="s">
+      <c r="N24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P24" s="2" t="s">
@@ -4205,7 +4427,7 @@
       <c r="G25" s="8">
         <v>1070</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="20" t="s">
         <v>144</v>
       </c>
       <c r="I25" s="2">
@@ -4223,10 +4445,10 @@
       <c r="M25" s="2">
         <v>0</v>
       </c>
-      <c r="N25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="14" t="s">
+      <c r="N25" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P25" s="2" t="s">
@@ -4249,7 +4471,7 @@
       <c r="G26" s="8">
         <v>1071</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="20" t="s">
         <v>147</v>
       </c>
       <c r="I26" s="2">
@@ -4267,10 +4489,10 @@
       <c r="M26" s="2">
         <v>0</v>
       </c>
-      <c r="N26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="14" t="s">
+      <c r="N26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P26" s="2" t="s">
@@ -4293,7 +4515,7 @@
       <c r="G27" s="8">
         <v>1072</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="20" t="s">
         <v>150</v>
       </c>
       <c r="I27" s="2">
@@ -4311,10 +4533,10 @@
       <c r="M27" s="2">
         <v>0</v>
       </c>
-      <c r="N27" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" s="14" t="s">
+      <c r="N27" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P27" s="2" t="s">
@@ -4337,7 +4559,7 @@
       <c r="G28" s="8">
         <v>1073</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="20" t="s">
         <v>152</v>
       </c>
       <c r="I28" s="2">
@@ -4355,10 +4577,10 @@
       <c r="M28" s="2">
         <v>0</v>
       </c>
-      <c r="N28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="14" t="s">
+      <c r="N28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P28" s="2" t="s">
@@ -4381,7 +4603,7 @@
       <c r="G29" s="8">
         <v>1074</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="20" t="s">
         <v>155</v>
       </c>
       <c r="I29" s="2">
@@ -4399,10 +4621,10 @@
       <c r="M29" s="2">
         <v>0</v>
       </c>
-      <c r="N29" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="14" t="s">
+      <c r="N29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P29" s="2" t="s">
@@ -4425,7 +4647,7 @@
       <c r="G30" s="8">
         <v>1075</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="20" t="s">
         <v>158</v>
       </c>
       <c r="I30" s="2">
@@ -4443,10 +4665,10 @@
       <c r="M30" s="2">
         <v>0</v>
       </c>
-      <c r="N30" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="14" t="s">
+      <c r="N30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P30" s="2" t="s">
@@ -4469,7 +4691,7 @@
       <c r="G31" s="8">
         <v>1076</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="20" t="s">
         <v>160</v>
       </c>
       <c r="I31" s="2">
@@ -4487,10 +4709,10 @@
       <c r="M31" s="2">
         <v>0</v>
       </c>
-      <c r="N31" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" s="14" t="s">
+      <c r="N31" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P31" s="2" t="s">
@@ -4513,7 +4735,7 @@
       <c r="G32" s="8">
         <v>1077</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="20" t="s">
         <v>162</v>
       </c>
       <c r="I32" s="2">
@@ -4531,10 +4753,10 @@
       <c r="M32" s="2">
         <v>0</v>
       </c>
-      <c r="N32" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="14" t="s">
+      <c r="N32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P32" s="2" t="s">
@@ -4557,7 +4779,7 @@
       <c r="G33" s="8">
         <v>1078</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="20" t="s">
         <v>164</v>
       </c>
       <c r="I33" s="2">
@@ -4575,10 +4797,10 @@
       <c r="M33" s="2">
         <v>0</v>
       </c>
-      <c r="N33" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="14" t="s">
+      <c r="N33" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P33" s="2" t="s">
@@ -4601,7 +4823,7 @@
       <c r="G34" s="8">
         <v>1079</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="20" t="s">
         <v>166</v>
       </c>
       <c r="I34" s="2">
@@ -4619,10 +4841,10 @@
       <c r="M34" s="2">
         <v>0</v>
       </c>
-      <c r="N34" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" s="14" t="s">
+      <c r="N34" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P34" s="2" t="s">
@@ -4645,7 +4867,7 @@
       <c r="G35" s="8">
         <v>1080</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="20" t="s">
         <v>168</v>
       </c>
       <c r="I35" s="2">
@@ -4663,10 +4885,10 @@
       <c r="M35" s="2">
         <v>0</v>
       </c>
-      <c r="N35" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O35" s="14" t="s">
+      <c r="N35" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P35" s="2" t="s">
@@ -4689,7 +4911,7 @@
       <c r="G36" s="8">
         <v>1081</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="20" t="s">
         <v>171</v>
       </c>
       <c r="I36" s="2">
@@ -4707,10 +4929,10 @@
       <c r="M36" s="2">
         <v>0</v>
       </c>
-      <c r="N36" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="14" t="s">
+      <c r="N36" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P36" s="2" t="s">
@@ -4733,7 +4955,7 @@
       <c r="G37" s="8">
         <v>1082</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="20" t="s">
         <v>174</v>
       </c>
       <c r="I37" s="2">
@@ -4751,10 +4973,10 @@
       <c r="M37" s="2">
         <v>0</v>
       </c>
-      <c r="N37" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" s="14" t="s">
+      <c r="N37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P37" s="2" t="s">
@@ -4777,7 +4999,7 @@
       <c r="G38" s="8">
         <v>1083</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="20" t="s">
         <v>176</v>
       </c>
       <c r="I38" s="2">
@@ -4795,10 +5017,10 @@
       <c r="M38" s="2">
         <v>0</v>
       </c>
-      <c r="N38" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O38" s="14" t="s">
+      <c r="N38" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P38" s="2" t="s">
@@ -4821,7 +5043,7 @@
       <c r="G39" s="8">
         <v>1084</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="20" t="s">
         <v>178</v>
       </c>
       <c r="I39" s="2">
@@ -4839,10 +5061,10 @@
       <c r="M39" s="2">
         <v>0</v>
       </c>
-      <c r="N39" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" s="14" t="s">
+      <c r="N39" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P39" s="2" t="s">
@@ -4865,7 +5087,7 @@
       <c r="G40" s="8">
         <v>1085</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="20" t="s">
         <v>180</v>
       </c>
       <c r="I40" s="2">
@@ -4883,10 +5105,10 @@
       <c r="M40" s="2">
         <v>0</v>
       </c>
-      <c r="N40" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O40" s="14" t="s">
+      <c r="N40" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P40" s="2" t="s">
@@ -4909,7 +5131,7 @@
       <c r="G41" s="8">
         <v>1086</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="20" t="s">
         <v>182</v>
       </c>
       <c r="I41" s="2">
@@ -4927,10 +5149,10 @@
       <c r="M41" s="2">
         <v>0</v>
       </c>
-      <c r="N41" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" s="14" t="s">
+      <c r="N41" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P41" s="2" t="s">
@@ -4953,7 +5175,7 @@
       <c r="G42" s="8">
         <v>1087</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="20" t="s">
         <v>184</v>
       </c>
       <c r="I42" s="2">
@@ -4971,10 +5193,10 @@
       <c r="M42" s="2">
         <v>0</v>
       </c>
-      <c r="N42" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O42" s="14" t="s">
+      <c r="N42" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P42" s="2" t="s">
@@ -4997,7 +5219,7 @@
       <c r="G43" s="8">
         <v>1088</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="20" t="s">
         <v>186</v>
       </c>
       <c r="I43" s="2">
@@ -5015,10 +5237,10 @@
       <c r="M43" s="2">
         <v>0</v>
       </c>
-      <c r="N43" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O43" s="14" t="s">
+      <c r="N43" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P43" s="2" t="s">
@@ -5041,7 +5263,7 @@
       <c r="G44" s="8">
         <v>1089</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="20" t="s">
         <v>188</v>
       </c>
       <c r="I44" s="2">
@@ -5059,10 +5281,10 @@
       <c r="M44" s="2">
         <v>0</v>
       </c>
-      <c r="N44" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O44" s="14" t="s">
+      <c r="N44" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P44" s="2" t="s">
@@ -5085,7 +5307,7 @@
       <c r="G45" s="8">
         <v>1090</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H45" s="20" t="s">
         <v>190</v>
       </c>
       <c r="I45" s="2">
@@ -5103,10 +5325,10 @@
       <c r="M45" s="2">
         <v>0</v>
       </c>
-      <c r="N45" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O45" s="14" t="s">
+      <c r="N45" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O45" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P45" s="2" t="s">
@@ -5129,7 +5351,7 @@
       <c r="G46" s="8">
         <v>1091</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="20" t="s">
         <v>192</v>
       </c>
       <c r="I46" s="2">
@@ -5147,10 +5369,10 @@
       <c r="M46" s="2">
         <v>0</v>
       </c>
-      <c r="N46" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O46" s="14" t="s">
+      <c r="N46" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O46" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P46" s="2" t="s">
@@ -5173,7 +5395,7 @@
       <c r="G47" s="8">
         <v>1092</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="H47" s="20" t="s">
         <v>194</v>
       </c>
       <c r="I47" s="2">
@@ -5191,10 +5413,10 @@
       <c r="M47" s="2">
         <v>0</v>
       </c>
-      <c r="N47" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O47" s="14" t="s">
+      <c r="N47" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P47" s="2" t="s">
@@ -5217,7 +5439,7 @@
       <c r="G48" s="8">
         <v>1093</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="H48" s="20" t="s">
         <v>196</v>
       </c>
       <c r="I48" s="2">
@@ -5235,10 +5457,10 @@
       <c r="M48" s="2">
         <v>0</v>
       </c>
-      <c r="N48" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O48" s="14" t="s">
+      <c r="N48" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P48" s="2" t="s">
@@ -5261,7 +5483,7 @@
       <c r="G49" s="8">
         <v>1094</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="H49" s="20" t="s">
         <v>198</v>
       </c>
       <c r="I49" s="2">
@@ -5279,10 +5501,10 @@
       <c r="M49" s="2">
         <v>0</v>
       </c>
-      <c r="N49" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" s="14" t="s">
+      <c r="N49" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P49" s="2" t="s">
@@ -5305,7 +5527,7 @@
       <c r="G50" s="8">
         <v>1095</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H50" s="20" t="s">
         <v>200</v>
       </c>
       <c r="I50" s="2">
@@ -5323,10 +5545,10 @@
       <c r="M50" s="2">
         <v>0</v>
       </c>
-      <c r="N50" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="14" t="s">
+      <c r="N50" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P50" s="2" t="s">
@@ -5349,7 +5571,7 @@
       <c r="G51" s="8">
         <v>1096</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="H51" s="20" t="s">
         <v>202</v>
       </c>
       <c r="I51" s="2">
@@ -5367,10 +5589,10 @@
       <c r="M51" s="2">
         <v>0</v>
       </c>
-      <c r="N51" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O51" s="14" t="s">
+      <c r="N51" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P51" s="2" t="s">
@@ -5393,7 +5615,7 @@
       <c r="G52" s="8">
         <v>1097</v>
       </c>
-      <c r="H52" s="16" t="s">
+      <c r="H52" s="20" t="s">
         <v>204</v>
       </c>
       <c r="I52" s="2">
@@ -5411,10 +5633,10 @@
       <c r="M52" s="2">
         <v>0</v>
       </c>
-      <c r="N52" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O52" s="14" t="s">
+      <c r="N52" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O52" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P52" s="2" t="s">
@@ -5437,7 +5659,7 @@
       <c r="G53" s="8">
         <v>1098</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="H53" s="20" t="s">
         <v>206</v>
       </c>
       <c r="I53" s="2">
@@ -5455,10 +5677,10 @@
       <c r="M53" s="2">
         <v>0</v>
       </c>
-      <c r="N53" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O53" s="14" t="s">
+      <c r="N53" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P53" s="2" t="s">
@@ -5481,7 +5703,7 @@
       <c r="G54" s="8">
         <v>1099</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="H54" s="20" t="s">
         <v>208</v>
       </c>
       <c r="I54" s="2">
@@ -5499,10 +5721,10 @@
       <c r="M54" s="2">
         <v>0</v>
       </c>
-      <c r="N54" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O54" s="14" t="s">
+      <c r="N54" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O54" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P54" s="2" t="s">
@@ -5525,7 +5747,7 @@
       <c r="G55" s="8">
         <v>1100</v>
       </c>
-      <c r="H55" s="16" t="s">
+      <c r="H55" s="20" t="s">
         <v>210</v>
       </c>
       <c r="I55" s="2">
@@ -5543,10 +5765,10 @@
       <c r="M55" s="2">
         <v>0</v>
       </c>
-      <c r="N55" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O55" s="14" t="s">
+      <c r="N55" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P55" s="2" t="s">
@@ -5569,7 +5791,7 @@
       <c r="G56" s="8">
         <v>1101</v>
       </c>
-      <c r="H56" s="16" t="s">
+      <c r="H56" s="20" t="s">
         <v>212</v>
       </c>
       <c r="I56" s="2">
@@ -5587,10 +5809,10 @@
       <c r="M56" s="2">
         <v>0</v>
       </c>
-      <c r="N56" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O56" s="14" t="s">
+      <c r="N56" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O56" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P56" s="2" t="s">
@@ -5613,7 +5835,7 @@
       <c r="G57" s="8">
         <v>1102</v>
       </c>
-      <c r="H57" s="16" t="s">
+      <c r="H57" s="20" t="s">
         <v>214</v>
       </c>
       <c r="I57" s="2">
@@ -5631,10 +5853,10 @@
       <c r="M57" s="2">
         <v>0</v>
       </c>
-      <c r="N57" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O57" s="14" t="s">
+      <c r="N57" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P57" s="2" t="s">
@@ -5657,7 +5879,7 @@
       <c r="G58" s="8">
         <v>1103</v>
       </c>
-      <c r="H58" s="16" t="s">
+      <c r="H58" s="20" t="s">
         <v>216</v>
       </c>
       <c r="I58" s="2">
@@ -5675,10 +5897,10 @@
       <c r="M58" s="2">
         <v>0</v>
       </c>
-      <c r="N58" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O58" s="14" t="s">
+      <c r="N58" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P58" s="2" t="s">
@@ -5701,7 +5923,7 @@
       <c r="G59" s="8">
         <v>1104</v>
       </c>
-      <c r="H59" s="16" t="s">
+      <c r="H59" s="20" t="s">
         <v>218</v>
       </c>
       <c r="I59" s="2">
@@ -5719,13 +5941,1553 @@
       <c r="M59" s="2">
         <v>0</v>
       </c>
-      <c r="N59" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O59" s="14" t="s">
+      <c r="N59" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O59" s="18" t="s">
         <v>33</v>
       </c>
       <c r="P59" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" s="12" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C60" s="12">
+        <v>1054</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60" s="12">
+        <v>98</v>
+      </c>
+      <c r="F60" s="13">
+        <v>1105</v>
+      </c>
+      <c r="G60" s="13">
+        <v>1105</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="I60" s="12">
+        <v>20000</v>
+      </c>
+      <c r="J60" s="12">
+        <v>180000</v>
+      </c>
+      <c r="K60" s="12">
+        <v>0</v>
+      </c>
+      <c r="L60" s="12">
+        <v>0</v>
+      </c>
+      <c r="M60" s="12">
+        <v>0</v>
+      </c>
+      <c r="N60" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O60" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P60" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C61" s="2">
+        <v>1055</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E61" s="2">
+        <v>98</v>
+      </c>
+      <c r="F61" s="8">
+        <v>1106</v>
+      </c>
+      <c r="G61" s="8">
+        <v>1106</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="I61" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J61" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
+      <c r="N61" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O61" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C62" s="2">
+        <v>1056</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E62" s="2">
+        <v>98</v>
+      </c>
+      <c r="F62" s="8">
+        <v>1107</v>
+      </c>
+      <c r="G62" s="8">
+        <v>1107</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="I62" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J62" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
+      <c r="N62" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O62" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C63" s="2">
+        <v>1057</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E63" s="2">
+        <v>98</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1108</v>
+      </c>
+      <c r="G63" s="8">
+        <v>1108</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="I63" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J63" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0</v>
+      </c>
+      <c r="M63" s="2">
+        <v>0</v>
+      </c>
+      <c r="N63" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O63" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:16">
+      <c r="C64" s="2">
+        <v>1058</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E64" s="2">
+        <v>98</v>
+      </c>
+      <c r="F64" s="8">
+        <v>1109</v>
+      </c>
+      <c r="G64" s="8">
+        <v>1109</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="I64" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J64" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0</v>
+      </c>
+      <c r="N64" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O64" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C65" s="2">
+        <v>1059</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E65" s="2">
+        <v>98</v>
+      </c>
+      <c r="F65" s="8">
+        <v>1110</v>
+      </c>
+      <c r="G65" s="8">
+        <v>1110</v>
+      </c>
+      <c r="H65" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="I65" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J65" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0</v>
+      </c>
+      <c r="N65" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O65" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C66" s="2">
+        <v>1060</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E66" s="2">
+        <v>98</v>
+      </c>
+      <c r="F66" s="8">
+        <v>1111</v>
+      </c>
+      <c r="G66" s="8">
+        <v>1111</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I66" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J66" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0</v>
+      </c>
+      <c r="M66" s="2">
+        <v>0</v>
+      </c>
+      <c r="N66" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O66" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C67" s="2">
+        <v>1061</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E67" s="2">
+        <v>98</v>
+      </c>
+      <c r="F67" s="8">
+        <v>1112</v>
+      </c>
+      <c r="G67" s="8">
+        <v>1112</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="I67" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J67" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0</v>
+      </c>
+      <c r="N67" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O67" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C68" s="2">
+        <v>1062</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E68" s="2">
+        <v>98</v>
+      </c>
+      <c r="F68" s="8">
+        <v>1113</v>
+      </c>
+      <c r="G68" s="8">
+        <v>1113</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="I68" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J68" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0</v>
+      </c>
+      <c r="M68" s="2">
+        <v>0</v>
+      </c>
+      <c r="N68" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O68" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:16">
+      <c r="C69" s="2">
+        <v>1063</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E69" s="2">
+        <v>98</v>
+      </c>
+      <c r="F69" s="8">
+        <v>1114</v>
+      </c>
+      <c r="G69" s="8">
+        <v>1114</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="I69" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J69" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0</v>
+      </c>
+      <c r="M69" s="2">
+        <v>0</v>
+      </c>
+      <c r="N69" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O69" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:16">
+      <c r="C70" s="2">
+        <v>1064</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E70" s="2">
+        <v>98</v>
+      </c>
+      <c r="F70" s="8">
+        <v>1115</v>
+      </c>
+      <c r="G70" s="8">
+        <v>1115</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="I70" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J70" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0</v>
+      </c>
+      <c r="M70" s="2">
+        <v>0</v>
+      </c>
+      <c r="N70" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O70" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:16">
+      <c r="C71" s="2">
+        <v>1065</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E71" s="2">
+        <v>98</v>
+      </c>
+      <c r="F71" s="8">
+        <v>1116</v>
+      </c>
+      <c r="G71" s="8">
+        <v>1116</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="I71" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J71" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0</v>
+      </c>
+      <c r="M71" s="2">
+        <v>0</v>
+      </c>
+      <c r="N71" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O71" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:16">
+      <c r="C72" s="2">
+        <v>1066</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E72" s="2">
+        <v>98</v>
+      </c>
+      <c r="F72" s="8">
+        <v>1117</v>
+      </c>
+      <c r="G72" s="8">
+        <v>1117</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="I72" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J72" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0</v>
+      </c>
+      <c r="M72" s="2">
+        <v>0</v>
+      </c>
+      <c r="N72" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O72" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:16">
+      <c r="C73" s="2">
+        <v>1067</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E73" s="2">
+        <v>98</v>
+      </c>
+      <c r="F73" s="8">
+        <v>1118</v>
+      </c>
+      <c r="G73" s="8">
+        <v>1118</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I73" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J73" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2">
+        <v>0</v>
+      </c>
+      <c r="M73" s="2">
+        <v>0</v>
+      </c>
+      <c r="N73" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O73" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:16">
+      <c r="C74" s="2">
+        <v>1068</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E74" s="2">
+        <v>98</v>
+      </c>
+      <c r="F74" s="8">
+        <v>1119</v>
+      </c>
+      <c r="G74" s="8">
+        <v>1119</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="I74" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J74" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K74" s="2">
+        <v>0</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0</v>
+      </c>
+      <c r="M74" s="2">
+        <v>0</v>
+      </c>
+      <c r="N74" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O74" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:16">
+      <c r="C75" s="2">
+        <v>1069</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E75" s="2">
+        <v>98</v>
+      </c>
+      <c r="F75" s="8">
+        <v>1120</v>
+      </c>
+      <c r="G75" s="8">
+        <v>1120</v>
+      </c>
+      <c r="H75" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="I75" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J75" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K75" s="2">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2">
+        <v>0</v>
+      </c>
+      <c r="M75" s="2">
+        <v>0</v>
+      </c>
+      <c r="N75" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O75" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:16">
+      <c r="C76" s="2">
+        <v>1070</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E76" s="2">
+        <v>98</v>
+      </c>
+      <c r="F76" s="8">
+        <v>1121</v>
+      </c>
+      <c r="G76" s="8">
+        <v>1121</v>
+      </c>
+      <c r="H76" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="I76" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J76" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2">
+        <v>0</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0</v>
+      </c>
+      <c r="N76" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O76" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:16">
+      <c r="C77" s="2">
+        <v>1071</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E77" s="2">
+        <v>98</v>
+      </c>
+      <c r="F77" s="8">
+        <v>1122</v>
+      </c>
+      <c r="G77" s="8">
+        <v>1122</v>
+      </c>
+      <c r="H77" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="I77" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J77" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K77" s="2">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2">
+        <v>0</v>
+      </c>
+      <c r="M77" s="2">
+        <v>0</v>
+      </c>
+      <c r="N77" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O77" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:16">
+      <c r="C78" s="2">
+        <v>1072</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E78" s="2">
+        <v>98</v>
+      </c>
+      <c r="F78" s="8">
+        <v>1123</v>
+      </c>
+      <c r="G78" s="8">
+        <v>1123</v>
+      </c>
+      <c r="H78" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="I78" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J78" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K78" s="2">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2">
+        <v>0</v>
+      </c>
+      <c r="M78" s="2">
+        <v>0</v>
+      </c>
+      <c r="N78" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O78" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:16">
+      <c r="C79" s="2">
+        <v>1073</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E79" s="2">
+        <v>98</v>
+      </c>
+      <c r="F79" s="8">
+        <v>1124</v>
+      </c>
+      <c r="G79" s="8">
+        <v>1124</v>
+      </c>
+      <c r="H79" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="I79" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J79" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K79" s="2">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2">
+        <v>0</v>
+      </c>
+      <c r="M79" s="2">
+        <v>0</v>
+      </c>
+      <c r="N79" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O79" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:16">
+      <c r="C80" s="2">
+        <v>1074</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E80" s="2">
+        <v>98</v>
+      </c>
+      <c r="F80" s="8">
+        <v>1125</v>
+      </c>
+      <c r="G80" s="8">
+        <v>1125</v>
+      </c>
+      <c r="H80" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="I80" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J80" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K80" s="2">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2">
+        <v>0</v>
+      </c>
+      <c r="M80" s="2">
+        <v>0</v>
+      </c>
+      <c r="N80" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O80" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:16">
+      <c r="C81" s="2">
+        <v>1075</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E81" s="2">
+        <v>98</v>
+      </c>
+      <c r="F81" s="8">
+        <v>1126</v>
+      </c>
+      <c r="G81" s="8">
+        <v>1126</v>
+      </c>
+      <c r="H81" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="I81" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J81" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2">
+        <v>0</v>
+      </c>
+      <c r="M81" s="2">
+        <v>0</v>
+      </c>
+      <c r="N81" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O81" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:16">
+      <c r="C82" s="2">
+        <v>1076</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E82" s="2">
+        <v>98</v>
+      </c>
+      <c r="F82" s="8">
+        <v>1127</v>
+      </c>
+      <c r="G82" s="8">
+        <v>1127</v>
+      </c>
+      <c r="H82" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="I82" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J82" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2">
+        <v>0</v>
+      </c>
+      <c r="M82" s="2">
+        <v>0</v>
+      </c>
+      <c r="N82" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O82" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:16">
+      <c r="C83" s="2">
+        <v>1077</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E83" s="2">
+        <v>98</v>
+      </c>
+      <c r="F83" s="8">
+        <v>1128</v>
+      </c>
+      <c r="G83" s="8">
+        <v>1128</v>
+      </c>
+      <c r="H83" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="I83" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J83" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K83" s="2">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2">
+        <v>0</v>
+      </c>
+      <c r="M83" s="2">
+        <v>0</v>
+      </c>
+      <c r="N83" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O83" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:16">
+      <c r="C84" s="2">
+        <v>1078</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E84" s="2">
+        <v>98</v>
+      </c>
+      <c r="F84" s="8">
+        <v>1129</v>
+      </c>
+      <c r="G84" s="8">
+        <v>1129</v>
+      </c>
+      <c r="H84" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="I84" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J84" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K84" s="2">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2">
+        <v>0</v>
+      </c>
+      <c r="M84" s="2">
+        <v>0</v>
+      </c>
+      <c r="N84" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O84" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:16">
+      <c r="C85" s="2">
+        <v>1079</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E85" s="2">
+        <v>98</v>
+      </c>
+      <c r="F85" s="8">
+        <v>1130</v>
+      </c>
+      <c r="G85" s="8">
+        <v>1130</v>
+      </c>
+      <c r="H85" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="I85" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J85" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2">
+        <v>0</v>
+      </c>
+      <c r="N85" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O85" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:16">
+      <c r="C86" s="2">
+        <v>1080</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E86" s="2">
+        <v>98</v>
+      </c>
+      <c r="F86" s="8">
+        <v>1131</v>
+      </c>
+      <c r="G86" s="8">
+        <v>1131</v>
+      </c>
+      <c r="H86" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="I86" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J86" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K86" s="2">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2">
+        <v>0</v>
+      </c>
+      <c r="M86" s="2">
+        <v>0</v>
+      </c>
+      <c r="N86" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O86" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:16">
+      <c r="C87" s="2">
+        <v>1081</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E87" s="2">
+        <v>98</v>
+      </c>
+      <c r="F87" s="8">
+        <v>1132</v>
+      </c>
+      <c r="G87" s="8">
+        <v>1132</v>
+      </c>
+      <c r="H87" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="I87" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J87" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K87" s="2">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2">
+        <v>0</v>
+      </c>
+      <c r="M87" s="2">
+        <v>0</v>
+      </c>
+      <c r="N87" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O87" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:16">
+      <c r="C88" s="2">
+        <v>1082</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E88" s="2">
+        <v>98</v>
+      </c>
+      <c r="F88" s="8">
+        <v>1133</v>
+      </c>
+      <c r="G88" s="8">
+        <v>1133</v>
+      </c>
+      <c r="H88" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="I88" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J88" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K88" s="2">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2">
+        <v>0</v>
+      </c>
+      <c r="M88" s="2">
+        <v>0</v>
+      </c>
+      <c r="N88" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O88" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:16">
+      <c r="C89" s="2">
+        <v>1083</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E89" s="2">
+        <v>98</v>
+      </c>
+      <c r="F89" s="8">
+        <v>1134</v>
+      </c>
+      <c r="G89" s="8">
+        <v>1134</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="I89" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J89" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K89" s="2">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2">
+        <v>0</v>
+      </c>
+      <c r="N89" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O89" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:16">
+      <c r="C90" s="2">
+        <v>1084</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E90" s="2">
+        <v>98</v>
+      </c>
+      <c r="F90" s="8">
+        <v>1135</v>
+      </c>
+      <c r="G90" s="8">
+        <v>1135</v>
+      </c>
+      <c r="H90" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="I90" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J90" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2">
+        <v>0</v>
+      </c>
+      <c r="M90" s="2">
+        <v>0</v>
+      </c>
+      <c r="N90" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O90" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:16">
+      <c r="C91" s="2">
+        <v>1085</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E91" s="2">
+        <v>98</v>
+      </c>
+      <c r="F91" s="8">
+        <v>1136</v>
+      </c>
+      <c r="G91" s="8">
+        <v>1136</v>
+      </c>
+      <c r="H91" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="I91" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J91" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K91" s="2">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2">
+        <v>0</v>
+      </c>
+      <c r="N91" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O91" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="3:16">
+      <c r="C92" s="2">
+        <v>1086</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E92" s="2">
+        <v>98</v>
+      </c>
+      <c r="F92" s="8">
+        <v>1137</v>
+      </c>
+      <c r="G92" s="8">
+        <v>1137</v>
+      </c>
+      <c r="H92" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="I92" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J92" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K92" s="2">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2">
+        <v>0</v>
+      </c>
+      <c r="M92" s="2">
+        <v>0</v>
+      </c>
+      <c r="N92" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O92" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="3:16">
+      <c r="C93" s="2">
+        <v>1087</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E93" s="2">
+        <v>98</v>
+      </c>
+      <c r="F93" s="8">
+        <v>1138</v>
+      </c>
+      <c r="G93" s="8">
+        <v>1138</v>
+      </c>
+      <c r="H93" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="I93" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J93" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K93" s="2">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2">
+        <v>0</v>
+      </c>
+      <c r="M93" s="2">
+        <v>0</v>
+      </c>
+      <c r="N93" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O93" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:16">
+      <c r="C94" s="2">
+        <v>1088</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E94" s="2">
+        <v>98</v>
+      </c>
+      <c r="F94" s="8">
+        <v>1139</v>
+      </c>
+      <c r="G94" s="8">
+        <v>1139</v>
+      </c>
+      <c r="H94" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="I94" s="2">
+        <v>20000</v>
+      </c>
+      <c r="J94" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K94" s="2">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0</v>
+      </c>
+      <c r="M94" s="2">
+        <v>0</v>
+      </c>
+      <c r="N94" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O94" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P94" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -5746,7 +7508,7 @@
   <sheetPr/>
   <dimension ref="C1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -5913,7 +7675,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -5924,8 +7686,8 @@
       <c r="G6" s="8">
         <v>1070</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>220</v>
+      <c r="H6" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -5942,10 +7704,10 @@
       <c r="M6" s="2">
         <v>0</v>
       </c>
-      <c r="N6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="14" t="s">
+      <c r="N6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5954,7 +7716,7 @@
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -5965,8 +7727,8 @@
       <c r="G7" s="8">
         <v>1071</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>222</v>
+      <c r="H7" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -5983,10 +7745,10 @@
       <c r="M7" s="2">
         <v>0</v>
       </c>
-      <c r="N7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="14" t="s">
+      <c r="N7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5995,7 +7757,7 @@
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>223</v>
+        <v>293</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -6006,8 +7768,8 @@
       <c r="G8" s="8">
         <v>1072</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>224</v>
+      <c r="H8" s="20" t="s">
+        <v>294</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -6024,10 +7786,10 @@
       <c r="M8" s="2">
         <v>0</v>
       </c>
-      <c r="N8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="14" t="s">
+      <c r="N8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6036,7 +7798,7 @@
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -6047,8 +7809,8 @@
       <c r="G9" s="8">
         <v>1073</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>226</v>
+      <c r="H9" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -6065,10 +7827,10 @@
       <c r="M9" s="2">
         <v>0</v>
       </c>
-      <c r="N9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="14" t="s">
+      <c r="N9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6077,7 +7839,7 @@
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>227</v>
+        <v>297</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -6088,8 +7850,8 @@
       <c r="G10" s="8">
         <v>1074</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>228</v>
+      <c r="H10" s="20" t="s">
+        <v>298</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>
@@ -6106,10 +7868,10 @@
       <c r="M10" s="2">
         <v>0</v>
       </c>
-      <c r="N10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6118,7 +7880,7 @@
         <v>2005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>227</v>
+        <v>297</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -6129,8 +7891,8 @@
       <c r="G11" s="2">
         <v>1104</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>228</v>
+      <c r="H11" s="20" t="s">
+        <v>298</v>
       </c>
       <c r="I11" s="2">
         <v>20000</v>
@@ -6147,10 +7909,10 @@
       <c r="M11" s="2">
         <v>0</v>
       </c>
-      <c r="N11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="14" t="s">
+      <c r="N11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6173,7 +7935,7 @@
         <v>2006</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="E14" s="2">
         <v>98</v>
@@ -6184,8 +7946,8 @@
       <c r="G14" s="2">
         <v>1105</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>230</v>
+      <c r="H14" s="20" t="s">
+        <v>300</v>
       </c>
       <c r="I14" s="2">
         <v>360000</v>
@@ -6202,10 +7964,10 @@
       <c r="M14" s="2">
         <v>0</v>
       </c>
-      <c r="N14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="14" t="s">
+      <c r="N14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6214,7 +7976,7 @@
         <v>2007</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
@@ -6225,8 +7987,8 @@
       <c r="G15" s="2">
         <v>1106</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>232</v>
+      <c r="H15" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="I15" s="2">
         <v>360000</v>
@@ -6243,10 +8005,10 @@
       <c r="M15" s="2">
         <v>0</v>
       </c>
-      <c r="N15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="14" t="s">
+      <c r="N15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6255,7 +8017,7 @@
         <v>2008</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>233</v>
+        <v>303</v>
       </c>
       <c r="E16" s="2">
         <v>98</v>
@@ -6266,8 +8028,8 @@
       <c r="G16" s="2">
         <v>1107</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>234</v>
+      <c r="H16" s="20" t="s">
+        <v>304</v>
       </c>
       <c r="I16" s="2">
         <v>360000</v>
@@ -6284,10 +8046,10 @@
       <c r="M16" s="2">
         <v>0</v>
       </c>
-      <c r="N16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="14" t="s">
+      <c r="N16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6296,7 +8058,7 @@
         <v>2009</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="E17" s="2">
         <v>98</v>
@@ -6307,8 +8069,8 @@
       <c r="G17" s="2">
         <v>1108</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>236</v>
+      <c r="H17" s="20" t="s">
+        <v>306</v>
       </c>
       <c r="I17" s="2">
         <v>360000</v>
@@ -6325,10 +8087,10 @@
       <c r="M17" s="2">
         <v>0</v>
       </c>
-      <c r="N17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="14" t="s">
+      <c r="N17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6337,7 +8099,7 @@
         <v>2010</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="E18" s="2">
         <v>98</v>
@@ -6348,8 +8110,8 @@
       <c r="G18" s="2">
         <v>1139</v>
       </c>
-      <c r="H18" s="16" t="s">
-        <v>238</v>
+      <c r="H18" s="20" t="s">
+        <v>308</v>
       </c>
       <c r="I18" s="2">
         <v>360000</v>
@@ -6366,10 +8128,10 @@
       <c r="M18" s="2">
         <v>0</v>
       </c>
-      <c r="N18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="14" t="s">
+      <c r="N18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6378,7 +8140,7 @@
         <v>2011</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>227</v>
+        <v>297</v>
       </c>
       <c r="E19" s="2">
         <v>98</v>
@@ -6389,8 +8151,8 @@
       <c r="G19" s="2">
         <v>1139</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>228</v>
+      <c r="H19" s="20" t="s">
+        <v>298</v>
       </c>
       <c r="I19" s="2">
         <v>40000</v>
@@ -6407,10 +8169,10 @@
       <c r="M19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="14" t="s">
+      <c r="N19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="18" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Excel/DropLimitConfig.xlsx
+++ b/Excel/DropLimitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -208,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="311">
   <si>
     <t>_id</t>
   </si>
@@ -1124,6 +1124,12 @@
   </si>
   <si>
     <t>1400088</t>
+  </si>
+  <si>
+    <t>保底爆率</t>
+  </si>
+  <si>
+    <t>MinRate</t>
   </si>
   <si>
     <t>武器衣服红装</t>
@@ -3410,7 +3416,7 @@
   <sheetPr/>
   <dimension ref="C1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="J61" sqref="J61:J94"/>
     </sheetView>
   </sheetViews>
@@ -7506,10 +7512,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:O46"/>
+  <dimension ref="C1:P46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7520,13 +7526,13 @@
     <col min="5" max="7" width="13.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="13.75" style="3" customWidth="1"/>
-    <col min="12" max="13" width="14.125" style="3" customWidth="1"/>
-    <col min="14" max="15" width="20.625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="10" max="12" width="13.75" style="3" customWidth="1"/>
+    <col min="13" max="14" width="14.125" style="3" customWidth="1"/>
+    <col min="15" max="16" width="20.625" style="3" customWidth="1"/>
+    <col min="17" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="8:15">
+    <row r="1" s="1" customFormat="1" spans="8:16">
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -7535,8 +7541,9 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="3:15">
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="3:16">
       <c r="C2" s="4"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7546,8 +7553,9 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="3:15">
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:16">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -7575,20 +7583,23 @@
       <c r="K3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:15">
+    <row r="4" s="1" customFormat="1" spans="3:16">
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
@@ -7616,20 +7627,23 @@
       <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="3:15">
+    <row r="5" s="1" customFormat="1" spans="3:16">
       <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
@@ -7657,25 +7671,28 @@
       <c r="K5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>23</v>
+      <c r="N5" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+      <c r="P5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C6" s="2">
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E6" s="2">
         <v>98</v>
@@ -7687,7 +7704,7 @@
         <v>1070</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I6" s="2">
         <v>120000</v>
@@ -7704,19 +7721,22 @@
       <c r="M6" s="2">
         <v>0</v>
       </c>
-      <c r="N6" s="18" t="s">
-        <v>32</v>
+      <c r="N6" s="2">
+        <v>0</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C7" s="2">
         <v>2001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E7" s="2">
         <v>98</v>
@@ -7728,7 +7748,7 @@
         <v>1071</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I7" s="2">
         <v>120000</v>
@@ -7745,19 +7765,22 @@
       <c r="M7" s="2">
         <v>0</v>
       </c>
-      <c r="N7" s="18" t="s">
-        <v>32</v>
+      <c r="N7" s="2">
+        <v>0</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C8" s="2">
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E8" s="2">
         <v>98</v>
@@ -7769,7 +7792,7 @@
         <v>1072</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I8" s="2">
         <v>120000</v>
@@ -7786,19 +7809,22 @@
       <c r="M8" s="2">
         <v>0</v>
       </c>
-      <c r="N8" s="18" t="s">
-        <v>32</v>
+      <c r="N8" s="2">
+        <v>0</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C9" s="2">
         <v>2003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E9" s="2">
         <v>98</v>
@@ -7810,7 +7836,7 @@
         <v>1073</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I9" s="2">
         <v>120000</v>
@@ -7827,19 +7853,22 @@
       <c r="M9" s="2">
         <v>0</v>
       </c>
-      <c r="N9" s="18" t="s">
-        <v>32</v>
+      <c r="N9" s="2">
+        <v>0</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C10" s="2">
         <v>2004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E10" s="2">
         <v>98</v>
@@ -7851,7 +7880,7 @@
         <v>1074</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I10" s="2">
         <v>120000</v>
@@ -7868,19 +7897,22 @@
       <c r="M10" s="2">
         <v>0</v>
       </c>
-      <c r="N10" s="18" t="s">
-        <v>32</v>
+      <c r="N10" s="2">
+        <v>0</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C11" s="2">
         <v>2005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E11" s="2">
         <v>98</v>
@@ -7892,7 +7924,7 @@
         <v>1104</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I11" s="2">
         <v>20000</v>
@@ -7909,33 +7941,36 @@
       <c r="M11" s="2">
         <v>0</v>
       </c>
-      <c r="N11" s="18" t="s">
-        <v>32</v>
+      <c r="N11" s="2">
+        <v>0</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+        <v>32</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
-      <c r="N12" s="11"/>
       <c r="O12" s="11"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
-      <c r="N13" s="11"/>
       <c r="O13" s="11"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+      <c r="P13" s="11"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C14" s="2">
         <v>2006</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E14" s="2">
         <v>98</v>
@@ -7947,7 +7982,7 @@
         <v>1105</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I14" s="2">
         <v>360000</v>
@@ -7959,24 +7994,27 @@
         <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
-      <c r="N14" s="18" t="s">
-        <v>32</v>
+      <c r="N14" s="2">
+        <v>0</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C15" s="2">
         <v>2007</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
@@ -7988,7 +8026,7 @@
         <v>1106</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I15" s="2">
         <v>360000</v>
@@ -8000,24 +8038,27 @@
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
-      <c r="N15" s="18" t="s">
-        <v>32</v>
+      <c r="N15" s="2">
+        <v>0</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C16" s="2">
         <v>2008</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E16" s="2">
         <v>98</v>
@@ -8029,7 +8070,7 @@
         <v>1107</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I16" s="2">
         <v>360000</v>
@@ -8041,24 +8082,27 @@
         <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
-      <c r="N16" s="18" t="s">
-        <v>32</v>
+      <c r="N16" s="2">
+        <v>0</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C17" s="2">
         <v>2009</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E17" s="2">
         <v>98</v>
@@ -8070,7 +8114,7 @@
         <v>1108</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I17" s="2">
         <v>360000</v>
@@ -8082,24 +8126,27 @@
         <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
-      <c r="N17" s="18" t="s">
-        <v>32</v>
+      <c r="N17" s="2">
+        <v>0</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C18" s="2">
         <v>2010</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E18" s="2">
         <v>98</v>
@@ -8111,7 +8158,7 @@
         <v>1139</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I18" s="2">
         <v>360000</v>
@@ -8123,24 +8170,27 @@
         <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
-      <c r="N18" s="18" t="s">
-        <v>32</v>
+      <c r="N18" s="2">
+        <v>0</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="3:15">
+        <v>32</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
       <c r="C19" s="2">
         <v>2011</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E19" s="2">
         <v>98</v>
@@ -8152,7 +8202,7 @@
         <v>1139</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I19" s="2">
         <v>40000</v>
@@ -8164,206 +8214,209 @@
         <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="18" t="s">
-        <v>32</v>
+      <c r="N19" s="2">
+        <v>0</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+        <v>32</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
-      <c r="N20" s="11"/>
       <c r="O20" s="11"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P20" s="11"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
-      <c r="N21" s="11"/>
       <c r="O21" s="11"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
-      <c r="N22" s="11"/>
       <c r="O22" s="11"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
-      <c r="N23" s="11"/>
       <c r="O23" s="11"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
-      <c r="N24" s="11"/>
       <c r="O24" s="11"/>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
-      <c r="N25" s="11"/>
       <c r="O25" s="11"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
-      <c r="N26" s="11"/>
       <c r="O26" s="11"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
-      <c r="N27" s="11"/>
       <c r="O27" s="11"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
-      <c r="N28" s="11"/>
       <c r="O28" s="11"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
-      <c r="N29" s="11"/>
       <c r="O29" s="11"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
-      <c r="N30" s="11"/>
       <c r="O30" s="11"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
-      <c r="N31" s="11"/>
       <c r="O31" s="11"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P31" s="11"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
-      <c r="N32" s="11"/>
       <c r="O32" s="11"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P32" s="11"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
-      <c r="N33" s="11"/>
       <c r="O33" s="11"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P33" s="11"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
-      <c r="N34" s="11"/>
       <c r="O34" s="11"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P34" s="11"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
-      <c r="N35" s="11"/>
       <c r="O35" s="11"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P35" s="11"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
-      <c r="N36" s="11"/>
       <c r="O36" s="11"/>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P36" s="11"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
-      <c r="N37" s="11"/>
       <c r="O37" s="11"/>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P37" s="11"/>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
-      <c r="N38" s="11"/>
       <c r="O38" s="11"/>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
-      <c r="N39" s="11"/>
       <c r="O39" s="11"/>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
-      <c r="N40" s="11"/>
       <c r="O40" s="11"/>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P40" s="11"/>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
-      <c r="N41" s="11"/>
       <c r="O41" s="11"/>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P41" s="11"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
-      <c r="N42" s="11"/>
       <c r="O42" s="11"/>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P42" s="11"/>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
-      <c r="N43" s="11"/>
       <c r="O43" s="11"/>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P43" s="11"/>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
-      <c r="N44" s="11"/>
       <c r="O44" s="11"/>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P44" s="11"/>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
-      <c r="N45" s="11"/>
       <c r="O45" s="11"/>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="18" customHeight="1" spans="6:15">
+      <c r="P45" s="11"/>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="18" customHeight="1" spans="6:16">
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
-      <c r="N46" s="11"/>
       <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11">
